--- a/assets/data/processedtingkatpendidikan.xlsx
+++ b/assets/data/processedtingkatpendidikan.xlsx
@@ -13,14 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="processedjumlahpenduduktingkatp" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="processed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7496" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7641" uniqueCount="547">
   <si>
     <t>kode_provinsi</t>
   </si>
@@ -2469,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2486"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1555" sqref="D1555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3827,7 +3827,8 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>1110</v>
+        <f>SUM(processedjumlahpenduduktingkatp!F722,processedjumlahpenduduktingkatp!F727,processedjumlahpenduduktingkatp!F732,processedjumlahpenduduktingkatp!F737,processedjumlahpenduduktingkatp!F742)</f>
+        <v>22265</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
@@ -74586,10 +74587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A162" sqref="A162:A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -74668,7 +74669,7 @@
         <v>450331</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" si="0">C3+D3</f>
+        <f t="shared" ref="E3:E67" si="0">C3+D3</f>
         <v>865069</v>
       </c>
       <c r="F3">
@@ -75108,7 +75109,7 @@
         <v>3595595</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G21" si="7">E18/F18</f>
+        <f t="shared" ref="G18:G22" si="7">E18/F18</f>
         <v>0.32622305904864146</v>
       </c>
     </row>
@@ -75204,6 +75205,4205 @@
         <f>processedjumlahpenduduktingkatp!B437</f>
         <v>Prov. Jambi</v>
       </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <f>SUM(processedjumlahpenduduktingkatp!F437,processedjumlahpenduduktingkatp!F442,processedjumlahpenduduktingkatp!F447,processedjumlahpenduduktingkatp!F452,processedjumlahpenduduktingkatp!F457,processedjumlahpenduduktingkatp!F462,processedjumlahpenduduktingkatp!F467,processedjumlahpenduduktingkatp!F472,processedjumlahpenduduktingkatp!F477,processedjumlahpenduduktingkatp!F482,processedjumlahpenduduktingkatp!F487)</f>
+        <v>87284</v>
+      </c>
+      <c r="D22">
+        <f>SUM(processedjumlahpenduduktingkatp!G437,processedjumlahpenduduktingkatp!G442,processedjumlahpenduduktingkatp!G447,processedjumlahpenduduktingkatp!G452,processedjumlahpenduduktingkatp!G457,processedjumlahpenduduktingkatp!G462,processedjumlahpenduduktingkatp!G467,processedjumlahpenduduktingkatp!G472,processedjumlahpenduduktingkatp!G477,processedjumlahpenduduktingkatp!G482,processedjumlahpenduduktingkatp!G487)</f>
+        <v>106575</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>193859</v>
+      </c>
+      <c r="F22">
+        <f>SUM($E$22:$E$26)</f>
+        <v>2022993</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>9.5827815518887111E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="str">
+        <f>processedjumlahpenduduktingkatp!B438</f>
+        <v>Prov. Jambi</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <f>SUM(processedjumlahpenduduktingkatp!F438,processedjumlahpenduduktingkatp!F443,processedjumlahpenduduktingkatp!F448,processedjumlahpenduduktingkatp!F453,processedjumlahpenduduktingkatp!F458,processedjumlahpenduduktingkatp!F463,processedjumlahpenduduktingkatp!F468,processedjumlahpenduduktingkatp!F473,processedjumlahpenduduktingkatp!F478,processedjumlahpenduduktingkatp!F483,processedjumlahpenduduktingkatp!F488)</f>
+        <v>360305</v>
+      </c>
+      <c r="D23">
+        <f>SUM(processedjumlahpenduduktingkatp!G438,processedjumlahpenduduktingkatp!G443,processedjumlahpenduduktingkatp!G448,processedjumlahpenduduktingkatp!G453,processedjumlahpenduduktingkatp!G458,processedjumlahpenduduktingkatp!G463,processedjumlahpenduduktingkatp!G468,processedjumlahpenduduktingkatp!G473,processedjumlahpenduduktingkatp!G478,processedjumlahpenduduktingkatp!G483,processedjumlahpenduduktingkatp!G488)</f>
+        <v>353296</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>713601</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F26" si="8">SUM($E$22:$E$26)</f>
+        <v>2022993</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G27" si="9">E23/F23</f>
+        <v>0.35274516520818411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="str">
+        <f>processedjumlahpenduduktingkatp!B439</f>
+        <v>Prov. Jambi</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <f>SUM(processedjumlahpenduduktingkatp!F439,processedjumlahpenduduktingkatp!F444,processedjumlahpenduduktingkatp!F449,processedjumlahpenduduktingkatp!F454,processedjumlahpenduduktingkatp!F459,processedjumlahpenduduktingkatp!F464,processedjumlahpenduduktingkatp!F469,processedjumlahpenduduktingkatp!F474,processedjumlahpenduduktingkatp!F479,processedjumlahpenduduktingkatp!F484,processedjumlahpenduduktingkatp!F489)</f>
+        <v>254668</v>
+      </c>
+      <c r="D24">
+        <f>SUM(processedjumlahpenduduktingkatp!G439,processedjumlahpenduduktingkatp!G444,processedjumlahpenduduktingkatp!G449,processedjumlahpenduduktingkatp!G454,processedjumlahpenduduktingkatp!G459,processedjumlahpenduduktingkatp!G464,processedjumlahpenduduktingkatp!G469,processedjumlahpenduduktingkatp!G474,processedjumlahpenduduktingkatp!G479,processedjumlahpenduduktingkatp!G484,processedjumlahpenduduktingkatp!G489)</f>
+        <v>221941</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>476609</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="8"/>
+        <v>2022993</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>0.23559597092031459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="str">
+        <f>processedjumlahpenduduktingkatp!B440</f>
+        <v>Prov. Jambi</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <f>SUM(processedjumlahpenduduktingkatp!F440,processedjumlahpenduduktingkatp!F445,processedjumlahpenduduktingkatp!F450,processedjumlahpenduduktingkatp!F455,processedjumlahpenduduktingkatp!F460,processedjumlahpenduduktingkatp!F465,processedjumlahpenduduktingkatp!F470,processedjumlahpenduduktingkatp!F475,processedjumlahpenduduktingkatp!F480,processedjumlahpenduduktingkatp!F485,processedjumlahpenduduktingkatp!F490)</f>
+        <v>285321</v>
+      </c>
+      <c r="D25">
+        <f>SUM(processedjumlahpenduduktingkatp!G440,processedjumlahpenduduktingkatp!G445,processedjumlahpenduduktingkatp!G450,processedjumlahpenduduktingkatp!G455,processedjumlahpenduduktingkatp!G460,processedjumlahpenduduktingkatp!G465,processedjumlahpenduduktingkatp!G470,processedjumlahpenduduktingkatp!G475,processedjumlahpenduduktingkatp!G480,processedjumlahpenduduktingkatp!G485,processedjumlahpenduduktingkatp!G490)</f>
+        <v>219765</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>505086</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
+        <v>2022993</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>0.24967263851135421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="str">
+        <f>processedjumlahpenduduktingkatp!B441</f>
+        <v>Prov. Jambi</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <f>SUM(processedjumlahpenduduktingkatp!F441,processedjumlahpenduduktingkatp!F446,processedjumlahpenduduktingkatp!F451,processedjumlahpenduduktingkatp!F456,processedjumlahpenduduktingkatp!F461,processedjumlahpenduduktingkatp!F466,processedjumlahpenduduktingkatp!F471,processedjumlahpenduduktingkatp!F476,processedjumlahpenduduktingkatp!F481,processedjumlahpenduduktingkatp!F486,processedjumlahpenduduktingkatp!F491)</f>
+        <v>67081</v>
+      </c>
+      <c r="D26">
+        <f>SUM(processedjumlahpenduduktingkatp!G441,processedjumlahpenduduktingkatp!G446,processedjumlahpenduduktingkatp!G451,processedjumlahpenduduktingkatp!G456,processedjumlahpenduduktingkatp!G461,processedjumlahpenduduktingkatp!G466,processedjumlahpenduduktingkatp!G471,processedjumlahpenduduktingkatp!G476,processedjumlahpenduduktingkatp!G481,processedjumlahpenduduktingkatp!G486,processedjumlahpenduduktingkatp!G491)</f>
+        <v>66757</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>133838</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>2022993</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>6.6158409841259952E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="str">
+        <f>processedjumlahpenduduktingkatp!B492</f>
+        <v>Prov. Sumatera Selatan</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <f>SUM(processedjumlahpenduduktingkatp!F492,processedjumlahpenduduktingkatp!F497,processedjumlahpenduduktingkatp!F502,processedjumlahpenduduktingkatp!F507,processedjumlahpenduduktingkatp!F512,processedjumlahpenduduktingkatp!F517,processedjumlahpenduduktingkatp!F522,processedjumlahpenduduktingkatp!F527,processedjumlahpenduduktingkatp!F532,processedjumlahpenduduktingkatp!F537,processedjumlahpenduduktingkatp!F542,processedjumlahpenduduktingkatp!F547,processedjumlahpenduduktingkatp!F552,processedjumlahpenduduktingkatp!F557,processedjumlahpenduduktingkatp!F562)</f>
+        <v>215530</v>
+      </c>
+      <c r="D27">
+        <f>SUM(processedjumlahpenduduktingkatp!G492,processedjumlahpenduduktingkatp!G497,processedjumlahpenduduktingkatp!G502,processedjumlahpenduduktingkatp!G507,processedjumlahpenduduktingkatp!G512,processedjumlahpenduduktingkatp!G517,processedjumlahpenduduktingkatp!G522,processedjumlahpenduduktingkatp!G527,processedjumlahpenduduktingkatp!G532,processedjumlahpenduduktingkatp!G537,processedjumlahpenduduktingkatp!G542,processedjumlahpenduduktingkatp!G547,processedjumlahpenduduktingkatp!G552,processedjumlahpenduduktingkatp!G557,processedjumlahpenduduktingkatp!G562)</f>
+        <v>249963</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>465493</v>
+      </c>
+      <c r="F27">
+        <f>SUM($E$27:$E$31)</f>
+        <v>4985825</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="9"/>
+        <v>9.3363284912727579E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="str">
+        <f>processedjumlahpenduduktingkatp!B493</f>
+        <v>Prov. Sumatera Selatan</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <f>SUM(processedjumlahpenduduktingkatp!F493,processedjumlahpenduduktingkatp!F498,processedjumlahpenduduktingkatp!F503,processedjumlahpenduduktingkatp!F508,processedjumlahpenduduktingkatp!F513,processedjumlahpenduduktingkatp!F518,processedjumlahpenduduktingkatp!F523,processedjumlahpenduduktingkatp!F528,processedjumlahpenduduktingkatp!F533,processedjumlahpenduduktingkatp!F538,processedjumlahpenduduktingkatp!F543,processedjumlahpenduduktingkatp!F548,processedjumlahpenduduktingkatp!F553,processedjumlahpenduduktingkatp!F558,processedjumlahpenduduktingkatp!F563)</f>
+        <v>973701</v>
+      </c>
+      <c r="D28">
+        <f>SUM(processedjumlahpenduduktingkatp!G493,processedjumlahpenduduktingkatp!G498,processedjumlahpenduduktingkatp!G503,processedjumlahpenduduktingkatp!G508,processedjumlahpenduduktingkatp!G513,processedjumlahpenduduktingkatp!G518,processedjumlahpenduduktingkatp!G523,processedjumlahpenduduktingkatp!G528,processedjumlahpenduduktingkatp!G533,processedjumlahpenduduktingkatp!G538,processedjumlahpenduduktingkatp!G543,processedjumlahpenduduktingkatp!G548,processedjumlahpenduduktingkatp!G553,processedjumlahpenduduktingkatp!G558,processedjumlahpenduduktingkatp!G563)</f>
+        <v>991454</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1965155</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F31" si="10">SUM($E$27:$E$31)</f>
+        <v>4985825</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G32" si="11">E28/F28</f>
+        <v>0.39414841074446055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="str">
+        <f>processedjumlahpenduduktingkatp!B494</f>
+        <v>Prov. Sumatera Selatan</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <f>SUM(processedjumlahpenduduktingkatp!F494,processedjumlahpenduduktingkatp!F499,processedjumlahpenduduktingkatp!F504,processedjumlahpenduduktingkatp!F509,processedjumlahpenduduktingkatp!F514,processedjumlahpenduduktingkatp!F519,processedjumlahpenduduktingkatp!F524,processedjumlahpenduduktingkatp!F529,processedjumlahpenduduktingkatp!F534,processedjumlahpenduduktingkatp!F539,processedjumlahpenduduktingkatp!F544,processedjumlahpenduduktingkatp!F549,processedjumlahpenduduktingkatp!F554,processedjumlahpenduduktingkatp!F559,processedjumlahpenduduktingkatp!F564)</f>
+        <v>575116</v>
+      </c>
+      <c r="D29">
+        <f>SUM(processedjumlahpenduduktingkatp!G494,processedjumlahpenduduktingkatp!G499,processedjumlahpenduduktingkatp!G504,processedjumlahpenduduktingkatp!G509,processedjumlahpenduduktingkatp!G514,processedjumlahpenduduktingkatp!G519,processedjumlahpenduduktingkatp!G524,processedjumlahpenduduktingkatp!G529,processedjumlahpenduduktingkatp!G534,processedjumlahpenduduktingkatp!G539,processedjumlahpenduduktingkatp!G544,processedjumlahpenduduktingkatp!G549,processedjumlahpenduduktingkatp!G554,processedjumlahpenduduktingkatp!G559,processedjumlahpenduduktingkatp!G564)</f>
+        <v>509914</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1085030</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="10"/>
+        <v>4985825</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="11"/>
+        <v>0.21762296109470347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="str">
+        <f>processedjumlahpenduduktingkatp!B495</f>
+        <v>Prov. Sumatera Selatan</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <f>SUM(processedjumlahpenduduktingkatp!F495,processedjumlahpenduduktingkatp!F500,processedjumlahpenduduktingkatp!F505,processedjumlahpenduduktingkatp!F510,processedjumlahpenduduktingkatp!F515,processedjumlahpenduduktingkatp!F520,processedjumlahpenduduktingkatp!F525,processedjumlahpenduduktingkatp!F530,processedjumlahpenduduktingkatp!F535,processedjumlahpenduduktingkatp!F540,processedjumlahpenduduktingkatp!F545,processedjumlahpenduduktingkatp!F550,processedjumlahpenduduktingkatp!F555,processedjumlahpenduduktingkatp!F560,processedjumlahpenduduktingkatp!F565)</f>
+        <v>654463</v>
+      </c>
+      <c r="D30">
+        <f>SUM(processedjumlahpenduduktingkatp!G495,processedjumlahpenduduktingkatp!G500,processedjumlahpenduduktingkatp!G505,processedjumlahpenduduktingkatp!G510,processedjumlahpenduduktingkatp!G515,processedjumlahpenduduktingkatp!G520,processedjumlahpenduduktingkatp!G525,processedjumlahpenduduktingkatp!G530,processedjumlahpenduduktingkatp!G535,processedjumlahpenduduktingkatp!G540,processedjumlahpenduduktingkatp!G545,processedjumlahpenduduktingkatp!G550,processedjumlahpenduduktingkatp!G555,processedjumlahpenduduktingkatp!G560,processedjumlahpenduduktingkatp!G565)</f>
+        <v>533233</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1187696</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="10"/>
+        <v>4985825</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="11"/>
+        <v>0.2382145382158419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="str">
+        <f>processedjumlahpenduduktingkatp!B496</f>
+        <v>Prov. Sumatera Selatan</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <f>SUM(processedjumlahpenduduktingkatp!F496,processedjumlahpenduduktingkatp!F501,processedjumlahpenduduktingkatp!F506,processedjumlahpenduduktingkatp!F511,processedjumlahpenduduktingkatp!F516,processedjumlahpenduduktingkatp!F521,processedjumlahpenduduktingkatp!F526,processedjumlahpenduduktingkatp!F531,processedjumlahpenduduktingkatp!F536,processedjumlahpenduduktingkatp!F541,processedjumlahpenduduktingkatp!F546,processedjumlahpenduduktingkatp!F551,processedjumlahpenduduktingkatp!F556,processedjumlahpenduduktingkatp!F561,processedjumlahpenduduktingkatp!F566)</f>
+        <v>135822</v>
+      </c>
+      <c r="D31">
+        <f>SUM(processedjumlahpenduduktingkatp!G496,processedjumlahpenduduktingkatp!G501,processedjumlahpenduduktingkatp!G506,processedjumlahpenduduktingkatp!G511,processedjumlahpenduduktingkatp!G516,processedjumlahpenduduktingkatp!G521,processedjumlahpenduduktingkatp!G526,processedjumlahpenduduktingkatp!G531,processedjumlahpenduduktingkatp!G536,processedjumlahpenduduktingkatp!G541,processedjumlahpenduduktingkatp!G546,processedjumlahpenduduktingkatp!G551,processedjumlahpenduduktingkatp!G556,processedjumlahpenduduktingkatp!G561,processedjumlahpenduduktingkatp!G566)</f>
+        <v>146629</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>282451</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="10"/>
+        <v>4985825</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="11"/>
+        <v>5.6650805032266473E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="str">
+        <f>processedjumlahpenduduktingkatp!B567</f>
+        <v>Prov. Bengkulu</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <f>SUM(processedjumlahpenduduktingkatp!F567,processedjumlahpenduduktingkatp!F572,processedjumlahpenduduktingkatp!F577,processedjumlahpenduduktingkatp!F582,processedjumlahpenduduktingkatp!F587,processedjumlahpenduduktingkatp!F592,processedjumlahpenduduktingkatp!F597,processedjumlahpenduduktingkatp!F602,processedjumlahpenduduktingkatp!F607,processedjumlahpenduduktingkatp!F612)</f>
+        <v>53051</v>
+      </c>
+      <c r="D32">
+        <f>SUM(processedjumlahpenduduktingkatp!G567,processedjumlahpenduduktingkatp!G572,processedjumlahpenduduktingkatp!G577,processedjumlahpenduduktingkatp!G582,processedjumlahpenduduktingkatp!G587,processedjumlahpenduduktingkatp!G592,processedjumlahpenduduktingkatp!G597,processedjumlahpenduduktingkatp!G602,processedjumlahpenduduktingkatp!G607,processedjumlahpenduduktingkatp!G612)</f>
+        <v>60119</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>113170</v>
+      </c>
+      <c r="F32">
+        <f>SUM($E$32:$E$36)</f>
+        <v>1128036</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="11"/>
+        <v>0.10032481232868455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="str">
+        <f>processedjumlahpenduduktingkatp!B568</f>
+        <v>Prov. Bengkulu</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <f>SUM(processedjumlahpenduduktingkatp!F568,processedjumlahpenduduktingkatp!F573,processedjumlahpenduduktingkatp!F578,processedjumlahpenduduktingkatp!F583,processedjumlahpenduduktingkatp!F588,processedjumlahpenduduktingkatp!F593,processedjumlahpenduduktingkatp!F598,processedjumlahpenduduktingkatp!F603,processedjumlahpenduduktingkatp!F608,processedjumlahpenduduktingkatp!F613)</f>
+        <v>186080</v>
+      </c>
+      <c r="D33">
+        <f>SUM(processedjumlahpenduduktingkatp!G568,processedjumlahpenduduktingkatp!G573,processedjumlahpenduduktingkatp!G578,processedjumlahpenduduktingkatp!G583,processedjumlahpenduduktingkatp!G588,processedjumlahpenduduktingkatp!G593,processedjumlahpenduduktingkatp!G598,processedjumlahpenduduktingkatp!G603,processedjumlahpenduduktingkatp!G608,processedjumlahpenduduktingkatp!G613)</f>
+        <v>179394</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>365474</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F36" si="12">SUM($E$32:$E$36)</f>
+        <v>1128036</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G37" si="13">E33/F33</f>
+        <v>0.32399143289753163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="str">
+        <f>processedjumlahpenduduktingkatp!B569</f>
+        <v>Prov. Bengkulu</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <f>SUM(processedjumlahpenduduktingkatp!F569,processedjumlahpenduduktingkatp!F574,processedjumlahpenduduktingkatp!F579,processedjumlahpenduduktingkatp!F584,processedjumlahpenduduktingkatp!F589,processedjumlahpenduduktingkatp!F594,processedjumlahpenduduktingkatp!F599,processedjumlahpenduduktingkatp!F604,processedjumlahpenduduktingkatp!F609,processedjumlahpenduduktingkatp!F614)</f>
+        <v>139279</v>
+      </c>
+      <c r="D34">
+        <f>SUM(processedjumlahpenduduktingkatp!G569,processedjumlahpenduduktingkatp!G574,processedjumlahpenduduktingkatp!G579,processedjumlahpenduduktingkatp!G584,processedjumlahpenduduktingkatp!G589,processedjumlahpenduduktingkatp!G594,processedjumlahpenduduktingkatp!G599,processedjumlahpenduduktingkatp!G604,processedjumlahpenduduktingkatp!G609,processedjumlahpenduduktingkatp!G614)</f>
+        <v>124075</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>263354</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="12"/>
+        <v>1128036</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="13"/>
+        <v>0.2334624072281381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="str">
+        <f>processedjumlahpenduduktingkatp!B570</f>
+        <v>Prov. Bengkulu</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <f>SUM(processedjumlahpenduduktingkatp!F570,processedjumlahpenduduktingkatp!F575,processedjumlahpenduduktingkatp!F580,processedjumlahpenduduktingkatp!F585,processedjumlahpenduduktingkatp!F590,processedjumlahpenduduktingkatp!F595,processedjumlahpenduduktingkatp!F600,processedjumlahpenduduktingkatp!F605,processedjumlahpenduduktingkatp!F610,processedjumlahpenduduktingkatp!F615)</f>
+        <v>164961</v>
+      </c>
+      <c r="D35">
+        <f>SUM(processedjumlahpenduduktingkatp!G570,processedjumlahpenduduktingkatp!G575,processedjumlahpenduduktingkatp!G580,processedjumlahpenduduktingkatp!G585,processedjumlahpenduduktingkatp!G590,processedjumlahpenduduktingkatp!G595,processedjumlahpenduduktingkatp!G600,processedjumlahpenduduktingkatp!G605,processedjumlahpenduduktingkatp!G610,processedjumlahpenduduktingkatp!G615)</f>
+        <v>136799</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>301760</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="12"/>
+        <v>1128036</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="13"/>
+        <v>0.26750919296901871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="str">
+        <f>processedjumlahpenduduktingkatp!B571</f>
+        <v>Prov. Bengkulu</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <f>SUM(processedjumlahpenduduktingkatp!F571,processedjumlahpenduduktingkatp!F576,processedjumlahpenduduktingkatp!F581,processedjumlahpenduduktingkatp!F586,processedjumlahpenduduktingkatp!F591,processedjumlahpenduduktingkatp!F596,processedjumlahpenduduktingkatp!F601,processedjumlahpenduduktingkatp!F606,processedjumlahpenduduktingkatp!F611,processedjumlahpenduduktingkatp!F616)</f>
+        <v>42133</v>
+      </c>
+      <c r="D36">
+        <f>SUM(processedjumlahpenduduktingkatp!G571,processedjumlahpenduduktingkatp!G576,processedjumlahpenduduktingkatp!G581,processedjumlahpenduduktingkatp!G586,processedjumlahpenduduktingkatp!G591,processedjumlahpenduduktingkatp!G596,processedjumlahpenduduktingkatp!G601,processedjumlahpenduduktingkatp!G606,processedjumlahpenduduktingkatp!G611,processedjumlahpenduduktingkatp!G616)</f>
+        <v>42145</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>84278</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="12"/>
+        <v>1128036</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="13"/>
+        <v>7.4712154576626985E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="str">
+        <f>processedjumlahpenduduktingkatp!B617</f>
+        <v>Prov. Lampung</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <f>SUM(processedjumlahpenduduktingkatp!F617,processedjumlahpenduduktingkatp!F622,processedjumlahpenduduktingkatp!F627,processedjumlahpenduduktingkatp!F632,processedjumlahpenduduktingkatp!F637,processedjumlahpenduduktingkatp!F642,processedjumlahpenduduktingkatp!F647,processedjumlahpenduduktingkatp!F652,processedjumlahpenduduktingkatp!F657,processedjumlahpenduduktingkatp!F662,processedjumlahpenduduktingkatp!F667,processedjumlahpenduduktingkatp!F672,processedjumlahpenduduktingkatp!F677,processedjumlahpenduduktingkatp!F682)</f>
+        <v>214799</v>
+      </c>
+      <c r="D37">
+        <f>SUM(processedjumlahpenduduktingkatp!G617,processedjumlahpenduduktingkatp!G622,processedjumlahpenduduktingkatp!G627,processedjumlahpenduduktingkatp!G632,processedjumlahpenduduktingkatp!G637,processedjumlahpenduduktingkatp!G642,processedjumlahpenduduktingkatp!G647,processedjumlahpenduduktingkatp!G652,processedjumlahpenduduktingkatp!G657,processedjumlahpenduduktingkatp!G662,processedjumlahpenduduktingkatp!G667,processedjumlahpenduduktingkatp!G672,processedjumlahpenduduktingkatp!G677,processedjumlahpenduduktingkatp!G682)</f>
+        <v>244804</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>459603</v>
+      </c>
+      <c r="F37">
+        <f>SUM($E$37:$E$41)</f>
+        <v>5121659</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="13"/>
+        <v>8.9737134002868993E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="str">
+        <f>processedjumlahpenduduktingkatp!B618</f>
+        <v>Prov. Lampung</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <f>SUM(processedjumlahpenduduktingkatp!F618,processedjumlahpenduduktingkatp!F623,processedjumlahpenduduktingkatp!F628,processedjumlahpenduduktingkatp!F633,processedjumlahpenduduktingkatp!F638,processedjumlahpenduduktingkatp!F643,processedjumlahpenduduktingkatp!F648,processedjumlahpenduduktingkatp!F653,processedjumlahpenduduktingkatp!F658,processedjumlahpenduduktingkatp!F663,processedjumlahpenduduktingkatp!F668,processedjumlahpenduduktingkatp!F673,processedjumlahpenduduktingkatp!F678,processedjumlahpenduduktingkatp!F683)</f>
+        <v>1028245</v>
+      </c>
+      <c r="D38">
+        <f>SUM(processedjumlahpenduduktingkatp!G618,processedjumlahpenduduktingkatp!G623,processedjumlahpenduduktingkatp!G628,processedjumlahpenduduktingkatp!G633,processedjumlahpenduduktingkatp!G638,processedjumlahpenduduktingkatp!G643,processedjumlahpenduduktingkatp!G648,processedjumlahpenduduktingkatp!G653,processedjumlahpenduduktingkatp!G658,processedjumlahpenduduktingkatp!G663,processedjumlahpenduduktingkatp!G668,processedjumlahpenduduktingkatp!G673,processedjumlahpenduduktingkatp!G678,processedjumlahpenduduktingkatp!G683)</f>
+        <v>972869</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>2001114</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F41" si="14">SUM($E$37:$E$41)</f>
+        <v>5121659</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G42" si="15">E38/F38</f>
+        <v>0.39071597699104921</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="str">
+        <f>processedjumlahpenduduktingkatp!B619</f>
+        <v>Prov. Lampung</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <f>SUM(processedjumlahpenduduktingkatp!F619,processedjumlahpenduduktingkatp!F624,processedjumlahpenduduktingkatp!F629,processedjumlahpenduduktingkatp!F634,processedjumlahpenduduktingkatp!F639,processedjumlahpenduduktingkatp!F644,processedjumlahpenduduktingkatp!F649,processedjumlahpenduduktingkatp!F654,processedjumlahpenduduktingkatp!F659,processedjumlahpenduduktingkatp!F664,processedjumlahpenduduktingkatp!F669,processedjumlahpenduduktingkatp!F674,processedjumlahpenduduktingkatp!F679,processedjumlahpenduduktingkatp!F684)</f>
+        <v>698059</v>
+      </c>
+      <c r="D39">
+        <f>SUM(processedjumlahpenduduktingkatp!G619,processedjumlahpenduduktingkatp!G624,processedjumlahpenduduktingkatp!G629,processedjumlahpenduduktingkatp!G634,processedjumlahpenduduktingkatp!G639,processedjumlahpenduduktingkatp!G644,processedjumlahpenduduktingkatp!G649,processedjumlahpenduduktingkatp!G654,processedjumlahpenduduktingkatp!G659,processedjumlahpenduduktingkatp!G664,processedjumlahpenduduktingkatp!G669,processedjumlahpenduduktingkatp!G674,processedjumlahpenduduktingkatp!G679,processedjumlahpenduduktingkatp!G684)</f>
+        <v>628563</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1326622</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="14"/>
+        <v>5121659</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="15"/>
+        <v>0.25902193019878911</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="str">
+        <f>processedjumlahpenduduktingkatp!B620</f>
+        <v>Prov. Lampung</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <f>SUM(processedjumlahpenduduktingkatp!F620,processedjumlahpenduduktingkatp!F625,processedjumlahpenduduktingkatp!F630,processedjumlahpenduduktingkatp!F635,processedjumlahpenduduktingkatp!F640,processedjumlahpenduduktingkatp!F645,processedjumlahpenduduktingkatp!F650,processedjumlahpenduduktingkatp!F655,processedjumlahpenduduktingkatp!F660,processedjumlahpenduduktingkatp!F665,processedjumlahpenduduktingkatp!F670,processedjumlahpenduduktingkatp!F675,processedjumlahpenduduktingkatp!F680,processedjumlahpenduduktingkatp!F685)</f>
+        <v>614880</v>
+      </c>
+      <c r="D40">
+        <f>SUM(processedjumlahpenduduktingkatp!G620,processedjumlahpenduduktingkatp!G625,processedjumlahpenduduktingkatp!G630,processedjumlahpenduduktingkatp!G635,processedjumlahpenduduktingkatp!G640,processedjumlahpenduduktingkatp!G645,processedjumlahpenduduktingkatp!G650,processedjumlahpenduduktingkatp!G655,processedjumlahpenduduktingkatp!G660,processedjumlahpenduduktingkatp!G665,processedjumlahpenduduktingkatp!G670,processedjumlahpenduduktingkatp!G675,processedjumlahpenduduktingkatp!G680,processedjumlahpenduduktingkatp!G685)</f>
+        <v>478495</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1093375</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="14"/>
+        <v>5121659</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="15"/>
+        <v>0.21348063195929287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="str">
+        <f>processedjumlahpenduduktingkatp!B621</f>
+        <v>Prov. Lampung</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <f>SUM(processedjumlahpenduduktingkatp!F621,processedjumlahpenduduktingkatp!F626,processedjumlahpenduduktingkatp!F631,processedjumlahpenduduktingkatp!F636,processedjumlahpenduduktingkatp!F641,processedjumlahpenduduktingkatp!F646,processedjumlahpenduduktingkatp!F651,processedjumlahpenduduktingkatp!F656,processedjumlahpenduduktingkatp!F661,processedjumlahpenduduktingkatp!F666,processedjumlahpenduduktingkatp!F671,processedjumlahpenduduktingkatp!F676,processedjumlahpenduduktingkatp!F681,processedjumlahpenduduktingkatp!F686)</f>
+        <v>118118</v>
+      </c>
+      <c r="D41">
+        <f>SUM(processedjumlahpenduduktingkatp!G621,processedjumlahpenduduktingkatp!G626,processedjumlahpenduduktingkatp!G631,processedjumlahpenduduktingkatp!G636,processedjumlahpenduduktingkatp!G641,processedjumlahpenduduktingkatp!G646,processedjumlahpenduduktingkatp!G651,processedjumlahpenduduktingkatp!G656,processedjumlahpenduduktingkatp!G661,processedjumlahpenduduktingkatp!G666,processedjumlahpenduduktingkatp!G671,processedjumlahpenduduktingkatp!G676,processedjumlahpenduduktingkatp!G681,processedjumlahpenduduktingkatp!G686)</f>
+        <v>122827</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>240945</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="14"/>
+        <v>5121659</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="15"/>
+        <v>4.7044326847999834E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="str">
+        <f>processedjumlahpenduduktingkatp!B687</f>
+        <v>Prov. Kepulauan Bangka Belitung</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <f>SUM(processedjumlahpenduduktingkatp!F687,processedjumlahpenduduktingkatp!F692,processedjumlahpenduduktingkatp!F697,processedjumlahpenduduktingkatp!F702,processedjumlahpenduduktingkatp!F707,processedjumlahpenduduktingkatp!F712,processedjumlahpenduduktingkatp!F717)</f>
+        <v>54109</v>
+      </c>
+      <c r="D42">
+        <f>SUM(processedjumlahpenduduktingkatp!G687,processedjumlahpenduduktingkatp!G692,processedjumlahpenduduktingkatp!G697,processedjumlahpenduduktingkatp!G702,processedjumlahpenduduktingkatp!G707,processedjumlahpenduduktingkatp!G712,processedjumlahpenduduktingkatp!G717)</f>
+        <v>57130</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>111239</v>
+      </c>
+      <c r="F42">
+        <f>SUM($E$42:$E$46)</f>
+        <v>817983</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="15"/>
+        <v>0.13599182379095898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="str">
+        <f>processedjumlahpenduduktingkatp!B688</f>
+        <v>Prov. Kepulauan Bangka Belitung</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <f>SUM(processedjumlahpenduduktingkatp!F688,processedjumlahpenduduktingkatp!F693,processedjumlahpenduduktingkatp!F698,processedjumlahpenduduktingkatp!F703,processedjumlahpenduduktingkatp!F708,processedjumlahpenduduktingkatp!F713,processedjumlahpenduduktingkatp!F718)</f>
+        <v>161618</v>
+      </c>
+      <c r="D43">
+        <f>SUM(processedjumlahpenduduktingkatp!G688,processedjumlahpenduduktingkatp!G693,processedjumlahpenduduktingkatp!G698,processedjumlahpenduduktingkatp!G703,processedjumlahpenduduktingkatp!G708,processedjumlahpenduduktingkatp!G713,processedjumlahpenduduktingkatp!G718)</f>
+        <v>151906</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>313524</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:F46" si="16">SUM($E$42:$E$46)</f>
+        <v>817983</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43:G47" si="17">E43/F43</f>
+        <v>0.38328913926084041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="str">
+        <f>processedjumlahpenduduktingkatp!B689</f>
+        <v>Prov. Kepulauan Bangka Belitung</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <f>SUM(processedjumlahpenduduktingkatp!F689,processedjumlahpenduduktingkatp!F694,processedjumlahpenduduktingkatp!F699,processedjumlahpenduduktingkatp!F704,processedjumlahpenduduktingkatp!F709,processedjumlahpenduduktingkatp!F714,processedjumlahpenduduktingkatp!F719)</f>
+        <v>86487</v>
+      </c>
+      <c r="D44">
+        <f>SUM(processedjumlahpenduduktingkatp!G689,processedjumlahpenduduktingkatp!G694,processedjumlahpenduduktingkatp!G699,processedjumlahpenduduktingkatp!G704,processedjumlahpenduduktingkatp!G709,processedjumlahpenduduktingkatp!G714,processedjumlahpenduduktingkatp!G719)</f>
+        <v>70765</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>157252</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="16"/>
+        <v>817983</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="17"/>
+        <v>0.19224360408468147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="str">
+        <f>processedjumlahpenduduktingkatp!B690</f>
+        <v>Prov. Kepulauan Bangka Belitung</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <f>SUM(processedjumlahpenduduktingkatp!F690,processedjumlahpenduduktingkatp!F695,processedjumlahpenduduktingkatp!F700,processedjumlahpenduduktingkatp!F705,processedjumlahpenduduktingkatp!F710,processedjumlahpenduduktingkatp!F715,processedjumlahpenduduktingkatp!F720)</f>
+        <v>106716</v>
+      </c>
+      <c r="D45">
+        <f>SUM(processedjumlahpenduduktingkatp!G690,processedjumlahpenduduktingkatp!G695,processedjumlahpenduduktingkatp!G700,processedjumlahpenduduktingkatp!G705,processedjumlahpenduduktingkatp!G710,processedjumlahpenduduktingkatp!G715,processedjumlahpenduduktingkatp!G720)</f>
+        <v>82978</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>189694</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="16"/>
+        <v>817983</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="17"/>
+        <v>0.23190457503395548</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="str">
+        <f>processedjumlahpenduduktingkatp!B691</f>
+        <v>Prov. Kepulauan Bangka Belitung</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <f>SUM(processedjumlahpenduduktingkatp!F691,processedjumlahpenduduktingkatp!F696,processedjumlahpenduduktingkatp!F701,processedjumlahpenduduktingkatp!F706,processedjumlahpenduduktingkatp!F711,processedjumlahpenduduktingkatp!F716,processedjumlahpenduduktingkatp!F721)</f>
+        <v>23549</v>
+      </c>
+      <c r="D46">
+        <f>SUM(processedjumlahpenduduktingkatp!G691,processedjumlahpenduduktingkatp!G696,processedjumlahpenduduktingkatp!G701,processedjumlahpenduduktingkatp!G706,processedjumlahpenduduktingkatp!G711,processedjumlahpenduduktingkatp!G716,processedjumlahpenduduktingkatp!G721)</f>
+        <v>22725</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>46274</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="16"/>
+        <v>817983</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="17"/>
+        <v>5.6570857829563698E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="str">
+        <f>processedjumlahpenduduktingkatp!B722</f>
+        <v>Prov. Kepulauan Riau</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <f>SUM(processedjumlahpenduduktingkatp!F722,processedjumlahpenduduktingkatp!F727,processedjumlahpenduduktingkatp!F732,processedjumlahpenduduktingkatp!F737,processedjumlahpenduduktingkatp!F742,processedjumlahpenduduktingkatp!F747,processedjumlahpenduduktingkatp!F752)</f>
+        <v>35001</v>
+      </c>
+      <c r="D47">
+        <f>SUM(processedjumlahpenduduktingkatp!G722,processedjumlahpenduduktingkatp!G727,processedjumlahpenduduktingkatp!G732,processedjumlahpenduduktingkatp!G737,processedjumlahpenduduktingkatp!G742,processedjumlahpenduduktingkatp!G747,processedjumlahpenduduktingkatp!G752)</f>
+        <v>37253</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>72254</v>
+      </c>
+      <c r="F47">
+        <f>SUM($E$47:$E$51)</f>
+        <v>1139774</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="17"/>
+        <v>6.3393269191962615E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="str">
+        <f>processedjumlahpenduduktingkatp!B723</f>
+        <v>Prov. Kepulauan Riau</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <f>SUM(processedjumlahpenduduktingkatp!F723,processedjumlahpenduduktingkatp!F728,processedjumlahpenduduktingkatp!F733,processedjumlahpenduduktingkatp!F738,processedjumlahpenduduktingkatp!F743,processedjumlahpenduduktingkatp!F748,processedjumlahpenduduktingkatp!F753)</f>
+        <v>122769</v>
+      </c>
+      <c r="D48">
+        <f>SUM(processedjumlahpenduduktingkatp!G723,processedjumlahpenduduktingkatp!G728,processedjumlahpenduduktingkatp!G733,processedjumlahpenduduktingkatp!G738,processedjumlahpenduduktingkatp!G743,processedjumlahpenduduktingkatp!G748,processedjumlahpenduduktingkatp!G753)</f>
+        <v>120104</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>242873</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:F51" si="18">SUM($E$47:$E$51)</f>
+        <v>1139774</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48:G52" si="19">E48/F48</f>
+        <v>0.21308873513521101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="str">
+        <f>processedjumlahpenduduktingkatp!B724</f>
+        <v>Prov. Kepulauan Riau</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <f>SUM(processedjumlahpenduduktingkatp!F724,processedjumlahpenduduktingkatp!F729,processedjumlahpenduduktingkatp!F734,processedjumlahpenduduktingkatp!F739,processedjumlahpenduduktingkatp!F744,processedjumlahpenduduktingkatp!F749,processedjumlahpenduduktingkatp!F754)</f>
+        <v>114003</v>
+      </c>
+      <c r="D49">
+        <f>SUM(processedjumlahpenduduktingkatp!G724,processedjumlahpenduduktingkatp!G729,processedjumlahpenduduktingkatp!G734,processedjumlahpenduduktingkatp!G739,processedjumlahpenduduktingkatp!G744,processedjumlahpenduduktingkatp!G749,processedjumlahpenduduktingkatp!G754)</f>
+        <v>98468</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>212471</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="18"/>
+        <v>1139774</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="19"/>
+        <v>0.18641502613676045</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="str">
+        <f>processedjumlahpenduduktingkatp!B725</f>
+        <v>Prov. Kepulauan Riau</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <f>SUM(processedjumlahpenduduktingkatp!F725,processedjumlahpenduduktingkatp!F730,processedjumlahpenduduktingkatp!F735,processedjumlahpenduduktingkatp!F740,processedjumlahpenduduktingkatp!F745,processedjumlahpenduduktingkatp!F750,processedjumlahpenduduktingkatp!F755)</f>
+        <v>265835</v>
+      </c>
+      <c r="D50">
+        <f>SUM(processedjumlahpenduduktingkatp!G725,processedjumlahpenduduktingkatp!G730,processedjumlahpenduduktingkatp!G735,processedjumlahpenduduktingkatp!G740,processedjumlahpenduduktingkatp!G745,processedjumlahpenduduktingkatp!G750,processedjumlahpenduduktingkatp!G755)</f>
+        <v>252089</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>517924</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="18"/>
+        <v>1139774</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="19"/>
+        <v>0.4544093829127529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="str">
+        <f>processedjumlahpenduduktingkatp!B726</f>
+        <v>Prov. Kepulauan Riau</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <f>SUM(processedjumlahpenduduktingkatp!F726,processedjumlahpenduduktingkatp!F731,processedjumlahpenduduktingkatp!F736,processedjumlahpenduduktingkatp!F741,processedjumlahpenduduktingkatp!F746,processedjumlahpenduduktingkatp!F751,processedjumlahpenduduktingkatp!F756)</f>
+        <v>50711</v>
+      </c>
+      <c r="D51">
+        <f>SUM(processedjumlahpenduduktingkatp!G726,processedjumlahpenduduktingkatp!G731,processedjumlahpenduduktingkatp!G736,processedjumlahpenduduktingkatp!G741,processedjumlahpenduduktingkatp!G746,processedjumlahpenduduktingkatp!G751,processedjumlahpenduduktingkatp!G756)</f>
+        <v>43541</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>94252</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="18"/>
+        <v>1139774</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="19"/>
+        <v>8.269358662331304E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="str">
+        <f>processedjumlahpenduduktingkatp!B757</f>
+        <v>Prov. DKI Jakarta</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <f>SUM(processedjumlahpenduduktingkatp!F757,processedjumlahpenduduktingkatp!F762,processedjumlahpenduduktingkatp!F767,processedjumlahpenduduktingkatp!F772,processedjumlahpenduduktingkatp!F777,processedjumlahpenduduktingkatp!F782)</f>
+        <v>76815</v>
+      </c>
+      <c r="D52">
+        <f>SUM(processedjumlahpenduduktingkatp!G757,processedjumlahpenduduktingkatp!G762,processedjumlahpenduduktingkatp!G767,processedjumlahpenduduktingkatp!G772,processedjumlahpenduduktingkatp!G777,processedjumlahpenduduktingkatp!G782)</f>
+        <v>126162</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>202977</v>
+      </c>
+      <c r="F52">
+        <f>SUM($E$52:$E$56)</f>
+        <v>7240199</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="19"/>
+        <v>2.8034726669805624E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="str">
+        <f>processedjumlahpenduduktingkatp!B758</f>
+        <v>Prov. DKI Jakarta</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <f>SUM(processedjumlahpenduduktingkatp!F758,processedjumlahpenduduktingkatp!F763,processedjumlahpenduduktingkatp!F768,processedjumlahpenduduktingkatp!F773,processedjumlahpenduduktingkatp!F778,processedjumlahpenduduktingkatp!F783)</f>
+        <v>542636</v>
+      </c>
+      <c r="D53">
+        <f>SUM(processedjumlahpenduduktingkatp!G758,processedjumlahpenduduktingkatp!G763,processedjumlahpenduduktingkatp!G768,processedjumlahpenduduktingkatp!G773,processedjumlahpenduduktingkatp!G778,processedjumlahpenduduktingkatp!G783)</f>
+        <v>723683</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1266319</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53:F56" si="20">SUM($E$52:$E$56)</f>
+        <v>7240199</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ref="G53:G57" si="21">E53/F53</f>
+        <v>0.17490113186115464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="str">
+        <f>processedjumlahpenduduktingkatp!B759</f>
+        <v>Prov. DKI Jakarta</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <f>SUM(processedjumlahpenduduktingkatp!F759,processedjumlahpenduduktingkatp!F764,processedjumlahpenduduktingkatp!F769,processedjumlahpenduduktingkatp!F774,processedjumlahpenduduktingkatp!F779,processedjumlahpenduduktingkatp!F784)</f>
+        <v>797251</v>
+      </c>
+      <c r="D54">
+        <f>SUM(processedjumlahpenduduktingkatp!G759,processedjumlahpenduduktingkatp!G764,processedjumlahpenduduktingkatp!G769,processedjumlahpenduduktingkatp!G774,processedjumlahpenduduktingkatp!G779,processedjumlahpenduduktingkatp!G784)</f>
+        <v>824433</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>1621684</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="20"/>
+        <v>7240199</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="21"/>
+        <v>0.22398334631409994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="str">
+        <f>processedjumlahpenduduktingkatp!B760</f>
+        <v>Prov. DKI Jakarta</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <f>SUM(processedjumlahpenduduktingkatp!F760,processedjumlahpenduduktingkatp!F765,processedjumlahpenduduktingkatp!F770,processedjumlahpenduduktingkatp!F775,processedjumlahpenduduktingkatp!F780,processedjumlahpenduduktingkatp!F785)</f>
+        <v>1666612</v>
+      </c>
+      <c r="D55">
+        <f>SUM(processedjumlahpenduduktingkatp!G760,processedjumlahpenduduktingkatp!G765,processedjumlahpenduduktingkatp!G770,processedjumlahpenduduktingkatp!G775,processedjumlahpenduduktingkatp!G780,processedjumlahpenduduktingkatp!G785)</f>
+        <v>1355703</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>3022315</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="20"/>
+        <v>7240199</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="21"/>
+        <v>0.41743534949799033</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="str">
+        <f>processedjumlahpenduduktingkatp!B761</f>
+        <v>Prov. DKI Jakarta</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <f>SUM(processedjumlahpenduduktingkatp!F761,processedjumlahpenduduktingkatp!F766,processedjumlahpenduduktingkatp!F771,processedjumlahpenduduktingkatp!F776,processedjumlahpenduduktingkatp!F781,processedjumlahpenduduktingkatp!F786)</f>
+        <v>585659</v>
+      </c>
+      <c r="D56">
+        <f>SUM(processedjumlahpenduduktingkatp!G761,processedjumlahpenduduktingkatp!G766,processedjumlahpenduduktingkatp!G771,processedjumlahpenduduktingkatp!G776,processedjumlahpenduduktingkatp!G781,processedjumlahpenduduktingkatp!G786)</f>
+        <v>541245</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>1126904</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="20"/>
+        <v>7240199</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="21"/>
+        <v>0.15564544565694949</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="str">
+        <f>processedjumlahpenduduktingkatp!B787</f>
+        <v>Prov. Jawa Barat</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <f>SUM(processedjumlahpenduduktingkatp!F787,processedjumlahpenduduktingkatp!F792,processedjumlahpenduduktingkatp!F797,processedjumlahpenduduktingkatp!F802,processedjumlahpenduduktingkatp!F807,processedjumlahpenduduktingkatp!F812,processedjumlahpenduduktingkatp!F817,processedjumlahpenduduktingkatp!F822,processedjumlahpenduduktingkatp!F827,processedjumlahpenduduktingkatp!F832,processedjumlahpenduduktingkatp!F837,processedjumlahpenduduktingkatp!F842,processedjumlahpenduduktingkatp!F847,processedjumlahpenduduktingkatp!F852,processedjumlahpenduduktingkatp!F857,processedjumlahpenduduktingkatp!F862,processedjumlahpenduduktingkatp!F867,processedjumlahpenduduktingkatp!F872,processedjumlahpenduduktingkatp!F877,processedjumlahpenduduktingkatp!F882,processedjumlahpenduduktingkatp!F887,processedjumlahpenduduktingkatp!F892,processedjumlahpenduduktingkatp!F902,processedjumlahpenduduktingkatp!F907,processedjumlahpenduduktingkatp!F912)</f>
+        <v>764531</v>
+      </c>
+      <c r="D57">
+        <f>SUM(processedjumlahpenduduktingkatp!G787,processedjumlahpenduduktingkatp!G792,processedjumlahpenduduktingkatp!G797,processedjumlahpenduduktingkatp!G802,processedjumlahpenduduktingkatp!G807,processedjumlahpenduduktingkatp!G812,processedjumlahpenduduktingkatp!G817,processedjumlahpenduduktingkatp!G822,processedjumlahpenduduktingkatp!G827,processedjumlahpenduduktingkatp!G832,processedjumlahpenduduktingkatp!G837,processedjumlahpenduduktingkatp!G842,processedjumlahpenduduktingkatp!G847,processedjumlahpenduduktingkatp!G852,processedjumlahpenduduktingkatp!G857,processedjumlahpenduduktingkatp!G862,processedjumlahpenduduktingkatp!G867,processedjumlahpenduduktingkatp!G872,processedjumlahpenduduktingkatp!G877,processedjumlahpenduduktingkatp!G882,processedjumlahpenduduktingkatp!G887,processedjumlahpenduduktingkatp!G892,processedjumlahpenduduktingkatp!G902,processedjumlahpenduduktingkatp!G907,processedjumlahpenduduktingkatp!G912)</f>
+        <v>917444</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>1681975</v>
+      </c>
+      <c r="F57">
+        <f>SUM($E$57:$E$61)</f>
+        <v>27731614</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="21"/>
+        <v>6.0651897145258114E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="str">
+        <f>processedjumlahpenduduktingkatp!B788</f>
+        <v>Prov. Jawa Barat</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <f>SUM(processedjumlahpenduduktingkatp!F788,processedjumlahpenduduktingkatp!F793,processedjumlahpenduduktingkatp!F798,processedjumlahpenduduktingkatp!F803,processedjumlahpenduduktingkatp!F808,processedjumlahpenduduktingkatp!F813,processedjumlahpenduduktingkatp!F818,processedjumlahpenduduktingkatp!F823,processedjumlahpenduduktingkatp!F828,processedjumlahpenduduktingkatp!F833,processedjumlahpenduduktingkatp!F838,processedjumlahpenduduktingkatp!F843,processedjumlahpenduduktingkatp!F848,processedjumlahpenduduktingkatp!F853,processedjumlahpenduduktingkatp!F858,processedjumlahpenduduktingkatp!F863,processedjumlahpenduduktingkatp!F868,processedjumlahpenduduktingkatp!F873,processedjumlahpenduduktingkatp!F878,processedjumlahpenduduktingkatp!F883,processedjumlahpenduduktingkatp!F888,processedjumlahpenduduktingkatp!F893,processedjumlahpenduduktingkatp!F903,processedjumlahpenduduktingkatp!F908,processedjumlahpenduduktingkatp!F913)</f>
+        <v>5853143</v>
+      </c>
+      <c r="D58">
+        <f>SUM(processedjumlahpenduduktingkatp!G788,processedjumlahpenduduktingkatp!G793,processedjumlahpenduduktingkatp!G798,processedjumlahpenduduktingkatp!G803,processedjumlahpenduduktingkatp!G808,processedjumlahpenduduktingkatp!G813,processedjumlahpenduduktingkatp!G818,processedjumlahpenduduktingkatp!G823,processedjumlahpenduduktingkatp!G828,processedjumlahpenduduktingkatp!G833,processedjumlahpenduduktingkatp!G838,processedjumlahpenduduktingkatp!G843,processedjumlahpenduduktingkatp!G848,processedjumlahpenduduktingkatp!G853,processedjumlahpenduduktingkatp!G858,processedjumlahpenduduktingkatp!G863,processedjumlahpenduduktingkatp!G868,processedjumlahpenduduktingkatp!G873,processedjumlahpenduduktingkatp!G878,processedjumlahpenduduktingkatp!G883,processedjumlahpenduduktingkatp!G888,processedjumlahpenduduktingkatp!G893,processedjumlahpenduduktingkatp!G903,processedjumlahpenduduktingkatp!G908,processedjumlahpenduduktingkatp!G913)</f>
+        <v>6062951</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>11916094</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58:F61" si="22">SUM($E$57:$E$61)</f>
+        <v>27731614</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ref="G58:G62" si="23">E58/F58</f>
+        <v>0.42969348989207767</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="str">
+        <f>processedjumlahpenduduktingkatp!B789</f>
+        <v>Prov. Jawa Barat</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <f>SUM(processedjumlahpenduduktingkatp!F789,processedjumlahpenduduktingkatp!F794,processedjumlahpenduduktingkatp!F799,processedjumlahpenduduktingkatp!F804,processedjumlahpenduduktingkatp!F809,processedjumlahpenduduktingkatp!F814,processedjumlahpenduduktingkatp!F819,processedjumlahpenduduktingkatp!F824,processedjumlahpenduduktingkatp!F829,processedjumlahpenduduktingkatp!F834,processedjumlahpenduduktingkatp!F839,processedjumlahpenduduktingkatp!F844,processedjumlahpenduduktingkatp!F849,processedjumlahpenduduktingkatp!F854,processedjumlahpenduduktingkatp!F859,processedjumlahpenduduktingkatp!F864,processedjumlahpenduduktingkatp!F869,processedjumlahpenduduktingkatp!F874,processedjumlahpenduduktingkatp!F879,processedjumlahpenduduktingkatp!F884,processedjumlahpenduduktingkatp!F889,processedjumlahpenduduktingkatp!F894,processedjumlahpenduduktingkatp!F904,processedjumlahpenduduktingkatp!F909,processedjumlahpenduduktingkatp!F914)</f>
+        <v>3015707</v>
+      </c>
+      <c r="D59">
+        <f>SUM(processedjumlahpenduduktingkatp!G789,processedjumlahpenduduktingkatp!G794,processedjumlahpenduduktingkatp!G799,processedjumlahpenduduktingkatp!G804,processedjumlahpenduduktingkatp!G809,processedjumlahpenduduktingkatp!G814,processedjumlahpenduduktingkatp!G819,processedjumlahpenduduktingkatp!G824,processedjumlahpenduduktingkatp!G829,processedjumlahpenduduktingkatp!G834,processedjumlahpenduduktingkatp!G839,processedjumlahpenduduktingkatp!G844,processedjumlahpenduduktingkatp!G849,processedjumlahpenduduktingkatp!G854,processedjumlahpenduduktingkatp!G859,processedjumlahpenduduktingkatp!G864,processedjumlahpenduduktingkatp!G869,processedjumlahpenduduktingkatp!G874,processedjumlahpenduduktingkatp!G879,processedjumlahpenduduktingkatp!G884,processedjumlahpenduduktingkatp!G889,processedjumlahpenduduktingkatp!G894,processedjumlahpenduduktingkatp!G904,processedjumlahpenduduktingkatp!G909,processedjumlahpenduduktingkatp!G914)</f>
+        <v>2857416</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>5873123</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="22"/>
+        <v>27731614</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="23"/>
+        <v>0.21178439163331783</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="str">
+        <f>processedjumlahpenduduktingkatp!B790</f>
+        <v>Prov. Jawa Barat</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <f>SUM(processedjumlahpenduduktingkatp!F790,processedjumlahpenduduktingkatp!F795,processedjumlahpenduduktingkatp!F800,processedjumlahpenduduktingkatp!F805,processedjumlahpenduduktingkatp!F810,processedjumlahpenduduktingkatp!F815,processedjumlahpenduduktingkatp!F820,processedjumlahpenduduktingkatp!F825,processedjumlahpenduduktingkatp!F830,processedjumlahpenduduktingkatp!F835,processedjumlahpenduduktingkatp!F840,processedjumlahpenduduktingkatp!F845,processedjumlahpenduduktingkatp!F850,processedjumlahpenduduktingkatp!F855,processedjumlahpenduduktingkatp!F860,processedjumlahpenduduktingkatp!F865,processedjumlahpenduduktingkatp!F870,processedjumlahpenduduktingkatp!F875,processedjumlahpenduduktingkatp!F880,processedjumlahpenduduktingkatp!F885,processedjumlahpenduduktingkatp!F890,processedjumlahpenduduktingkatp!F895,processedjumlahpenduduktingkatp!F905,processedjumlahpenduduktingkatp!F910,processedjumlahpenduduktingkatp!F915)</f>
+        <v>3666024</v>
+      </c>
+      <c r="D60">
+        <f>SUM(processedjumlahpenduduktingkatp!G790,processedjumlahpenduduktingkatp!G795,processedjumlahpenduduktingkatp!G800,processedjumlahpenduduktingkatp!G805,processedjumlahpenduduktingkatp!G810,processedjumlahpenduduktingkatp!G815,processedjumlahpenduduktingkatp!G820,processedjumlahpenduduktingkatp!G825,processedjumlahpenduduktingkatp!G830,processedjumlahpenduduktingkatp!G835,processedjumlahpenduduktingkatp!G840,processedjumlahpenduduktingkatp!G845,processedjumlahpenduduktingkatp!G850,processedjumlahpenduduktingkatp!G855,processedjumlahpenduduktingkatp!G860,processedjumlahpenduduktingkatp!G865,processedjumlahpenduduktingkatp!G870,processedjumlahpenduduktingkatp!G875,processedjumlahpenduduktingkatp!G880,processedjumlahpenduduktingkatp!G885,processedjumlahpenduduktingkatp!G890,processedjumlahpenduduktingkatp!G895,processedjumlahpenduduktingkatp!G905,processedjumlahpenduduktingkatp!G910,processedjumlahpenduduktingkatp!G915)</f>
+        <v>2793332</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>6459356</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="22"/>
+        <v>27731614</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="23"/>
+        <v>0.23292391131652129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="str">
+        <f>processedjumlahpenduduktingkatp!B791</f>
+        <v>Prov. Jawa Barat</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <f>SUM(processedjumlahpenduduktingkatp!F791,processedjumlahpenduduktingkatp!F796,processedjumlahpenduduktingkatp!F801,processedjumlahpenduduktingkatp!F806,processedjumlahpenduduktingkatp!F811,processedjumlahpenduduktingkatp!F816,processedjumlahpenduduktingkatp!F821,processedjumlahpenduduktingkatp!F826,processedjumlahpenduduktingkatp!F831,processedjumlahpenduduktingkatp!F836,processedjumlahpenduduktingkatp!F841,processedjumlahpenduduktingkatp!F846,processedjumlahpenduduktingkatp!F851,processedjumlahpenduduktingkatp!F856,processedjumlahpenduduktingkatp!F861,processedjumlahpenduduktingkatp!F866,processedjumlahpenduduktingkatp!F871,processedjumlahpenduduktingkatp!F876,processedjumlahpenduduktingkatp!F881,processedjumlahpenduduktingkatp!F886,processedjumlahpenduduktingkatp!F891,processedjumlahpenduduktingkatp!F896,processedjumlahpenduduktingkatp!F906,processedjumlahpenduduktingkatp!F911,processedjumlahpenduduktingkatp!F916)</f>
+        <v>976730</v>
+      </c>
+      <c r="D61">
+        <f>SUM(processedjumlahpenduduktingkatp!G791,processedjumlahpenduduktingkatp!G796,processedjumlahpenduduktingkatp!G801,processedjumlahpenduduktingkatp!G806,processedjumlahpenduduktingkatp!G811,processedjumlahpenduduktingkatp!G816,processedjumlahpenduduktingkatp!G821,processedjumlahpenduduktingkatp!G826,processedjumlahpenduduktingkatp!G831,processedjumlahpenduduktingkatp!G836,processedjumlahpenduduktingkatp!G841,processedjumlahpenduduktingkatp!G846,processedjumlahpenduduktingkatp!G851,processedjumlahpenduduktingkatp!G856,processedjumlahpenduduktingkatp!G861,processedjumlahpenduduktingkatp!G866,processedjumlahpenduduktingkatp!G871,processedjumlahpenduduktingkatp!G876,processedjumlahpenduduktingkatp!G881,processedjumlahpenduduktingkatp!G886,processedjumlahpenduduktingkatp!G891,processedjumlahpenduduktingkatp!G896,processedjumlahpenduduktingkatp!G906,processedjumlahpenduduktingkatp!G911,processedjumlahpenduduktingkatp!G916)</f>
+        <v>824336</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>1801066</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="22"/>
+        <v>27731614</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="23"/>
+        <v>6.4946310012825068E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="str">
+        <f>processedjumlahpenduduktingkatp!B917</f>
+        <v>Prov. Jawa Tengah</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <f>SUM(processedjumlahpenduduktingkatp!F917,processedjumlahpenduduktingkatp!F922,processedjumlahpenduduktingkatp!F927,processedjumlahpenduduktingkatp!F932,processedjumlahpenduduktingkatp!F937,processedjumlahpenduduktingkatp!F942,processedjumlahpenduduktingkatp!F947,processedjumlahpenduduktingkatp!F952,processedjumlahpenduduktingkatp!F957,processedjumlahpenduduktingkatp!F962,processedjumlahpenduduktingkatp!F967,processedjumlahpenduduktingkatp!F972,processedjumlahpenduduktingkatp!F977,processedjumlahpenduduktingkatp!F982,processedjumlahpenduduktingkatp!F987,processedjumlahpenduduktingkatp!F992,processedjumlahpenduduktingkatp!F997,processedjumlahpenduduktingkatp!F1002,processedjumlahpenduduktingkatp!F1007,processedjumlahpenduduktingkatp!F1012,processedjumlahpenduduktingkatp!F1017,processedjumlahpenduduktingkatp!F1022,processedjumlahpenduduktingkatp!F1027,processedjumlahpenduduktingkatp!F1032,processedjumlahpenduduktingkatp!F1037,processedjumlahpenduduktingkatp!F1042,processedjumlahpenduduktingkatp!F1047,processedjumlahpenduduktingkatp!F1052,processedjumlahpenduduktingkatp!F1057,processedjumlahpenduduktingkatp!F1062,processedjumlahpenduduktingkatp!F1067,processedjumlahpenduduktingkatp!F1072,processedjumlahpenduduktingkatp!F1077,processedjumlahpenduduktingkatp!F1082,processedjumlahpenduduktingkatp!F1087)</f>
+        <v>832988</v>
+      </c>
+      <c r="D62">
+        <f>SUM(processedjumlahpenduduktingkatp!G917,processedjumlahpenduduktingkatp!G922,processedjumlahpenduduktingkatp!G927,processedjumlahpenduduktingkatp!G932,processedjumlahpenduduktingkatp!G937,processedjumlahpenduduktingkatp!G942,processedjumlahpenduduktingkatp!G947,processedjumlahpenduduktingkatp!G952,processedjumlahpenduduktingkatp!G957,processedjumlahpenduduktingkatp!G962,processedjumlahpenduduktingkatp!G967,processedjumlahpenduduktingkatp!G972,processedjumlahpenduduktingkatp!G977,processedjumlahpenduduktingkatp!G982,processedjumlahpenduduktingkatp!G987,processedjumlahpenduduktingkatp!G992,processedjumlahpenduduktingkatp!G997,processedjumlahpenduduktingkatp!G1002,processedjumlahpenduduktingkatp!G1007,processedjumlahpenduduktingkatp!G1012,processedjumlahpenduduktingkatp!G1017,processedjumlahpenduduktingkatp!G1022,processedjumlahpenduduktingkatp!G1027,processedjumlahpenduduktingkatp!G1032,processedjumlahpenduduktingkatp!G1037,processedjumlahpenduduktingkatp!G1042,processedjumlahpenduduktingkatp!G1047,processedjumlahpenduduktingkatp!G1052,processedjumlahpenduduktingkatp!G1057,processedjumlahpenduduktingkatp!G1062,processedjumlahpenduduktingkatp!G1067,processedjumlahpenduduktingkatp!G1072,processedjumlahpenduduktingkatp!G1077,processedjumlahpenduduktingkatp!G1082,processedjumlahpenduduktingkatp!G1087)</f>
+        <v>1044872</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>1877860</v>
+      </c>
+      <c r="F62">
+        <f>SUM($E$62:$E$66)</f>
+        <v>21152862</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="23"/>
+        <v>8.8775693804460126E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="str">
+        <f>processedjumlahpenduduktingkatp!B918</f>
+        <v>Prov. Jawa Tengah</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <f>SUM(processedjumlahpenduduktingkatp!F918,processedjumlahpenduduktingkatp!F923,processedjumlahpenduduktingkatp!F928,processedjumlahpenduduktingkatp!F933,processedjumlahpenduduktingkatp!F938,processedjumlahpenduduktingkatp!F943,processedjumlahpenduduktingkatp!F948,processedjumlahpenduduktingkatp!F953,processedjumlahpenduduktingkatp!F958,processedjumlahpenduduktingkatp!F963,processedjumlahpenduduktingkatp!F968,processedjumlahpenduduktingkatp!F973,processedjumlahpenduduktingkatp!F978,processedjumlahpenduduktingkatp!F983,processedjumlahpenduduktingkatp!F988,processedjumlahpenduduktingkatp!F993,processedjumlahpenduduktingkatp!F998,processedjumlahpenduduktingkatp!F1003,processedjumlahpenduduktingkatp!F1008,processedjumlahpenduduktingkatp!F1013,processedjumlahpenduduktingkatp!F1018,processedjumlahpenduduktingkatp!F1023,processedjumlahpenduduktingkatp!F1028,processedjumlahpenduduktingkatp!F1033,processedjumlahpenduduktingkatp!F1038,processedjumlahpenduduktingkatp!F1043,processedjumlahpenduduktingkatp!F1048,processedjumlahpenduduktingkatp!F1053,processedjumlahpenduduktingkatp!F1058,processedjumlahpenduduktingkatp!F1063,processedjumlahpenduduktingkatp!F1068,processedjumlahpenduduktingkatp!F1073,processedjumlahpenduduktingkatp!F1078,processedjumlahpenduduktingkatp!F1083,processedjumlahpenduduktingkatp!F1088)</f>
+        <v>4425153</v>
+      </c>
+      <c r="D63">
+        <f>SUM(processedjumlahpenduduktingkatp!G918,processedjumlahpenduduktingkatp!G923,processedjumlahpenduduktingkatp!G928,processedjumlahpenduduktingkatp!G933,processedjumlahpenduduktingkatp!G938,processedjumlahpenduduktingkatp!G943,processedjumlahpenduduktingkatp!G948,processedjumlahpenduduktingkatp!G953,processedjumlahpenduduktingkatp!G958,processedjumlahpenduduktingkatp!G963,processedjumlahpenduduktingkatp!G968,processedjumlahpenduduktingkatp!G973,processedjumlahpenduduktingkatp!G978,processedjumlahpenduduktingkatp!G983,processedjumlahpenduduktingkatp!G988,processedjumlahpenduduktingkatp!G993,processedjumlahpenduduktingkatp!G998,processedjumlahpenduduktingkatp!G1003,processedjumlahpenduduktingkatp!G1008,processedjumlahpenduduktingkatp!G1013,processedjumlahpenduduktingkatp!G1018,processedjumlahpenduduktingkatp!G1023,processedjumlahpenduduktingkatp!G1028,processedjumlahpenduduktingkatp!G1033,processedjumlahpenduduktingkatp!G1038,processedjumlahpenduduktingkatp!G1043,processedjumlahpenduduktingkatp!G1048,processedjumlahpenduduktingkatp!G1053,processedjumlahpenduduktingkatp!G1058,processedjumlahpenduduktingkatp!G1063,processedjumlahpenduduktingkatp!G1068,processedjumlahpenduduktingkatp!G1073,processedjumlahpenduduktingkatp!G1078,processedjumlahpenduduktingkatp!G1083,processedjumlahpenduduktingkatp!G1088)</f>
+        <v>4530914</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>8956067</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63:F66" si="24">SUM($E$62:$E$66)</f>
+        <v>21152862</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ref="G63:G67" si="25">E63/F63</f>
+        <v>0.42339741071444609</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="str">
+        <f>processedjumlahpenduduktingkatp!B919</f>
+        <v>Prov. Jawa Tengah</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <f>SUM(processedjumlahpenduduktingkatp!F919,processedjumlahpenduduktingkatp!F924,processedjumlahpenduduktingkatp!F929,processedjumlahpenduduktingkatp!F934,processedjumlahpenduduktingkatp!F939,processedjumlahpenduduktingkatp!F944,processedjumlahpenduduktingkatp!F949,processedjumlahpenduduktingkatp!F954,processedjumlahpenduduktingkatp!F959,processedjumlahpenduduktingkatp!F964,processedjumlahpenduduktingkatp!F969,processedjumlahpenduduktingkatp!F974,processedjumlahpenduduktingkatp!F979,processedjumlahpenduduktingkatp!F984,processedjumlahpenduduktingkatp!F989,processedjumlahpenduduktingkatp!F994,processedjumlahpenduduktingkatp!F999,processedjumlahpenduduktingkatp!F1004,processedjumlahpenduduktingkatp!F1009,processedjumlahpenduduktingkatp!F1014,processedjumlahpenduduktingkatp!F1019,processedjumlahpenduduktingkatp!F1024,processedjumlahpenduduktingkatp!F1029,processedjumlahpenduduktingkatp!F1034,processedjumlahpenduduktingkatp!F1039,processedjumlahpenduduktingkatp!F1044,processedjumlahpenduduktingkatp!F1049,processedjumlahpenduduktingkatp!F1054,processedjumlahpenduduktingkatp!F1059,processedjumlahpenduduktingkatp!F1064,processedjumlahpenduduktingkatp!F1069,processedjumlahpenduduktingkatp!F1074,processedjumlahpenduduktingkatp!F1079,processedjumlahpenduduktingkatp!F1084,processedjumlahpenduduktingkatp!F1089)</f>
+        <v>2533703</v>
+      </c>
+      <c r="D64">
+        <f>SUM(processedjumlahpenduduktingkatp!G919,processedjumlahpenduduktingkatp!G924,processedjumlahpenduduktingkatp!G929,processedjumlahpenduduktingkatp!G934,processedjumlahpenduduktingkatp!G939,processedjumlahpenduduktingkatp!G944,processedjumlahpenduduktingkatp!G949,processedjumlahpenduduktingkatp!G954,processedjumlahpenduduktingkatp!G959,processedjumlahpenduduktingkatp!G964,processedjumlahpenduduktingkatp!G969,processedjumlahpenduduktingkatp!G974,processedjumlahpenduduktingkatp!G979,processedjumlahpenduduktingkatp!G984,processedjumlahpenduduktingkatp!G989,processedjumlahpenduduktingkatp!G994,processedjumlahpenduduktingkatp!G999,processedjumlahpenduduktingkatp!G1004,processedjumlahpenduduktingkatp!G1009,processedjumlahpenduduktingkatp!G1014,processedjumlahpenduduktingkatp!G1019,processedjumlahpenduduktingkatp!G1024,processedjumlahpenduduktingkatp!G1029,processedjumlahpenduduktingkatp!G1034,processedjumlahpenduduktingkatp!G1039,processedjumlahpenduduktingkatp!G1044,processedjumlahpenduduktingkatp!G1049,processedjumlahpenduduktingkatp!G1054,processedjumlahpenduduktingkatp!G1059,processedjumlahpenduduktingkatp!G1064,processedjumlahpenduduktingkatp!G1069,processedjumlahpenduduktingkatp!G1074,processedjumlahpenduduktingkatp!G1079,processedjumlahpenduduktingkatp!G1084,processedjumlahpenduduktingkatp!G1089)</f>
+        <v>2370429</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>4904132</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="24"/>
+        <v>21152862</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="25"/>
+        <v>0.2318424807007203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="str">
+        <f>processedjumlahpenduduktingkatp!B920</f>
+        <v>Prov. Jawa Tengah</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <f>SUM(processedjumlahpenduduktingkatp!F920,processedjumlahpenduduktingkatp!F925,processedjumlahpenduduktingkatp!F930,processedjumlahpenduduktingkatp!F935,processedjumlahpenduduktingkatp!F940,processedjumlahpenduduktingkatp!F945,processedjumlahpenduduktingkatp!F950,processedjumlahpenduduktingkatp!F955,processedjumlahpenduduktingkatp!F960,processedjumlahpenduduktingkatp!F965,processedjumlahpenduduktingkatp!F970,processedjumlahpenduduktingkatp!F975,processedjumlahpenduduktingkatp!F980,processedjumlahpenduduktingkatp!F985,processedjumlahpenduduktingkatp!F990,processedjumlahpenduduktingkatp!F995,processedjumlahpenduduktingkatp!F1000,processedjumlahpenduduktingkatp!F1005,processedjumlahpenduduktingkatp!F1010,processedjumlahpenduduktingkatp!F1015,processedjumlahpenduduktingkatp!F1020,processedjumlahpenduduktingkatp!F1025,processedjumlahpenduduktingkatp!F1030,processedjumlahpenduduktingkatp!F1035,processedjumlahpenduduktingkatp!F1040,processedjumlahpenduduktingkatp!F1045,processedjumlahpenduduktingkatp!F1050,processedjumlahpenduduktingkatp!F1055,processedjumlahpenduduktingkatp!F1060,processedjumlahpenduduktingkatp!F1065,processedjumlahpenduduktingkatp!F1070,processedjumlahpenduduktingkatp!F1075,processedjumlahpenduduktingkatp!F1080,processedjumlahpenduduktingkatp!F1085,processedjumlahpenduduktingkatp!F1090)</f>
+        <v>2319088</v>
+      </c>
+      <c r="D65">
+        <f>SUM(processedjumlahpenduduktingkatp!G920,processedjumlahpenduduktingkatp!G925,processedjumlahpenduduktingkatp!G930,processedjumlahpenduduktingkatp!G935,processedjumlahpenduduktingkatp!G940,processedjumlahpenduduktingkatp!G945,processedjumlahpenduduktingkatp!G950,processedjumlahpenduduktingkatp!G955,processedjumlahpenduduktingkatp!G960,processedjumlahpenduduktingkatp!G965,processedjumlahpenduduktingkatp!G970,processedjumlahpenduduktingkatp!G975,processedjumlahpenduduktingkatp!G980,processedjumlahpenduduktingkatp!G985,processedjumlahpenduduktingkatp!G990,processedjumlahpenduduktingkatp!G995,processedjumlahpenduduktingkatp!G1000,processedjumlahpenduduktingkatp!G1005,processedjumlahpenduduktingkatp!G1010,processedjumlahpenduduktingkatp!G1015,processedjumlahpenduduktingkatp!G1020,processedjumlahpenduduktingkatp!G1025,processedjumlahpenduduktingkatp!G1030,processedjumlahpenduduktingkatp!G1035,processedjumlahpenduduktingkatp!G1040,processedjumlahpenduduktingkatp!G1045,processedjumlahpenduduktingkatp!G1050,processedjumlahpenduduktingkatp!G1055,processedjumlahpenduduktingkatp!G1060,processedjumlahpenduduktingkatp!G1065,processedjumlahpenduduktingkatp!G1070,processedjumlahpenduduktingkatp!G1075,processedjumlahpenduduktingkatp!G1080,processedjumlahpenduduktingkatp!G1085,processedjumlahpenduduktingkatp!G1090)</f>
+        <v>1903988</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>4223076</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="24"/>
+        <v>21152862</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="25"/>
+        <v>0.19964560823967933</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="str">
+        <f>processedjumlahpenduduktingkatp!B921</f>
+        <v>Prov. Jawa Tengah</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <f>SUM(processedjumlahpenduduktingkatp!F921,processedjumlahpenduduktingkatp!F926,processedjumlahpenduduktingkatp!F931,processedjumlahpenduduktingkatp!F936,processedjumlahpenduduktingkatp!F941,processedjumlahpenduduktingkatp!F946,processedjumlahpenduduktingkatp!F951,processedjumlahpenduduktingkatp!F956,processedjumlahpenduduktingkatp!F961,processedjumlahpenduduktingkatp!F966,processedjumlahpenduduktingkatp!F971,processedjumlahpenduduktingkatp!F976,processedjumlahpenduduktingkatp!F981,processedjumlahpenduduktingkatp!F986,processedjumlahpenduduktingkatp!F991,processedjumlahpenduduktingkatp!F996,processedjumlahpenduduktingkatp!F1001,processedjumlahpenduduktingkatp!F1006,processedjumlahpenduduktingkatp!F1011,processedjumlahpenduduktingkatp!F1016,processedjumlahpenduduktingkatp!F1021,processedjumlahpenduduktingkatp!F1026,processedjumlahpenduduktingkatp!F1031,processedjumlahpenduduktingkatp!F1036,processedjumlahpenduduktingkatp!F1041,processedjumlahpenduduktingkatp!F1046,processedjumlahpenduduktingkatp!F1051,processedjumlahpenduduktingkatp!F1056,processedjumlahpenduduktingkatp!F1061,processedjumlahpenduduktingkatp!F1066,processedjumlahpenduduktingkatp!F1071,processedjumlahpenduduktingkatp!F1076,processedjumlahpenduduktingkatp!F1081,processedjumlahpenduduktingkatp!F1086,processedjumlahpenduduktingkatp!F1091)</f>
+        <v>610019</v>
+      </c>
+      <c r="D66">
+        <f>SUM(processedjumlahpenduduktingkatp!G921,processedjumlahpenduduktingkatp!G926,processedjumlahpenduduktingkatp!G931,processedjumlahpenduduktingkatp!G936,processedjumlahpenduduktingkatp!G941,processedjumlahpenduduktingkatp!G946,processedjumlahpenduduktingkatp!G951,processedjumlahpenduduktingkatp!G956,processedjumlahpenduduktingkatp!G961,processedjumlahpenduduktingkatp!G966,processedjumlahpenduduktingkatp!G971,processedjumlahpenduduktingkatp!G976,processedjumlahpenduduktingkatp!G981,processedjumlahpenduduktingkatp!G986,processedjumlahpenduduktingkatp!G991,processedjumlahpenduduktingkatp!G996,processedjumlahpenduduktingkatp!G1001,processedjumlahpenduduktingkatp!G1006,processedjumlahpenduduktingkatp!G1011,processedjumlahpenduduktingkatp!G1016,processedjumlahpenduduktingkatp!G1021,processedjumlahpenduduktingkatp!G1026,processedjumlahpenduduktingkatp!G1031,processedjumlahpenduduktingkatp!G1036,processedjumlahpenduduktingkatp!G1041,processedjumlahpenduduktingkatp!G1046,processedjumlahpenduduktingkatp!G1051,processedjumlahpenduduktingkatp!G1056,processedjumlahpenduduktingkatp!G1061,processedjumlahpenduduktingkatp!G1066,processedjumlahpenduduktingkatp!G1071,processedjumlahpenduduktingkatp!G1076,processedjumlahpenduduktingkatp!G1081,processedjumlahpenduduktingkatp!G1086,processedjumlahpenduduktingkatp!G1091)</f>
+        <v>581708</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>1191727</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="24"/>
+        <v>21152862</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="25"/>
+        <v>5.6338806540694113E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="str">
+        <f>processedjumlahpenduduktingkatp!B1092</f>
+        <v>Prov. D I Yogyakarta</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <f>SUM(processedjumlahpenduduktingkatp!F1092,processedjumlahpenduduktingkatp!F1097,processedjumlahpenduduktingkatp!F1102,processedjumlahpenduduktingkatp!F1107,processedjumlahpenduduktingkatp!F1112)</f>
+        <v>64302</v>
+      </c>
+      <c r="D67">
+        <f>SUM(processedjumlahpenduduktingkatp!G1092,processedjumlahpenduduktingkatp!G1097,processedjumlahpenduduktingkatp!G1102,processedjumlahpenduduktingkatp!G1107,processedjumlahpenduduktingkatp!G1112)</f>
+        <v>84952</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>149254</v>
+      </c>
+      <c r="F67">
+        <f>SUM($E$67:$E$71)</f>
+        <v>2429822</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="25"/>
+        <v>6.142589868722894E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="str">
+        <f>processedjumlahpenduduktingkatp!B1093</f>
+        <v>Prov. D I Yogyakarta</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <f>SUM(processedjumlahpenduduktingkatp!F1093,processedjumlahpenduduktingkatp!F1098,processedjumlahpenduduktingkatp!F1103,processedjumlahpenduduktingkatp!F1108,processedjumlahpenduduktingkatp!F1113)</f>
+        <v>280143</v>
+      </c>
+      <c r="D68">
+        <f>SUM(processedjumlahpenduduktingkatp!G1093,processedjumlahpenduduktingkatp!G1098,processedjumlahpenduduktingkatp!G1103,processedjumlahpenduduktingkatp!G1108,processedjumlahpenduduktingkatp!G1113)</f>
+        <v>299062</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E132" si="26">C68+D68</f>
+        <v>579205</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F71" si="27">SUM($E$67:$E$71)</f>
+        <v>2429822</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G72" si="28">E68/F68</f>
+        <v>0.23837342817704343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="str">
+        <f>processedjumlahpenduduktingkatp!B1094</f>
+        <v>Prov. D I Yogyakarta</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <f>SUM(processedjumlahpenduduktingkatp!F1094,processedjumlahpenduduktingkatp!F1099,processedjumlahpenduduktingkatp!F1104,processedjumlahpenduduktingkatp!F1109,processedjumlahpenduduktingkatp!F1114)</f>
+        <v>264286</v>
+      </c>
+      <c r="D69">
+        <f>SUM(processedjumlahpenduduktingkatp!G1094,processedjumlahpenduduktingkatp!G1099,processedjumlahpenduduktingkatp!G1104,processedjumlahpenduduktingkatp!G1109,processedjumlahpenduduktingkatp!G1114)</f>
+        <v>252198</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="26"/>
+        <v>516484</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="27"/>
+        <v>2429822</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="28"/>
+        <v>0.21256042623698362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="str">
+        <f>processedjumlahpenduduktingkatp!B1095</f>
+        <v>Prov. D I Yogyakarta</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <f>SUM(processedjumlahpenduduktingkatp!F1095,processedjumlahpenduduktingkatp!F1100,processedjumlahpenduduktingkatp!F1105,processedjumlahpenduduktingkatp!F1110,processedjumlahpenduduktingkatp!F1115)</f>
+        <v>472092</v>
+      </c>
+      <c r="D70">
+        <f>SUM(processedjumlahpenduduktingkatp!G1095,processedjumlahpenduduktingkatp!G1100,processedjumlahpenduduktingkatp!G1105,processedjumlahpenduduktingkatp!G1110,processedjumlahpenduduktingkatp!G1115)</f>
+        <v>404065</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="26"/>
+        <v>876157</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="27"/>
+        <v>2429822</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="28"/>
+        <v>0.36058484942518421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="str">
+        <f>processedjumlahpenduduktingkatp!B1096</f>
+        <v>Prov. D I Yogyakarta</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <f>SUM(processedjumlahpenduduktingkatp!F1096,processedjumlahpenduduktingkatp!F1101,processedjumlahpenduduktingkatp!F1106,processedjumlahpenduduktingkatp!F1111,processedjumlahpenduduktingkatp!F1116)</f>
+        <v>155404</v>
+      </c>
+      <c r="D71">
+        <f>SUM(processedjumlahpenduduktingkatp!G1096,processedjumlahpenduduktingkatp!G1101,processedjumlahpenduduktingkatp!G1106,processedjumlahpenduduktingkatp!G1111,processedjumlahpenduduktingkatp!G1116)</f>
+        <v>153318</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="26"/>
+        <v>308722</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="27"/>
+        <v>2429822</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="28"/>
+        <v>0.12705539747355979</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="str">
+        <f>processedjumlahpenduduktingkatp!B1117</f>
+        <v>Prov. Jawa Timur</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <f>SUM(processedjumlahpenduduktingkatp!F1117,processedjumlahpenduduktingkatp!F1122,processedjumlahpenduduktingkatp!F1127,processedjumlahpenduduktingkatp!F1132,processedjumlahpenduduktingkatp!F1137,processedjumlahpenduduktingkatp!F1142,processedjumlahpenduduktingkatp!F1147,processedjumlahpenduduktingkatp!F1152,processedjumlahpenduduktingkatp!F1157,processedjumlahpenduduktingkatp!F1162,processedjumlahpenduduktingkatp!F1167,processedjumlahpenduduktingkatp!F1172,processedjumlahpenduduktingkatp!F1177,processedjumlahpenduduktingkatp!F1182,processedjumlahpenduduktingkatp!F1187,processedjumlahpenduduktingkatp!F1192,processedjumlahpenduduktingkatp!F1197,processedjumlahpenduduktingkatp!F1202,processedjumlahpenduduktingkatp!F1207,processedjumlahpenduduktingkatp!F1212,processedjumlahpenduduktingkatp!F1217,processedjumlahpenduduktingkatp!F1222,processedjumlahpenduduktingkatp!F1227,processedjumlahpenduduktingkatp!F1232,processedjumlahpenduduktingkatp!F1237,processedjumlahpenduduktingkatp!F1242,processedjumlahpenduduktingkatp!F1247,processedjumlahpenduduktingkatp!F1252,processedjumlahpenduduktingkatp!F1257,processedjumlahpenduduktingkatp!F1262,processedjumlahpenduduktingkatp!F1267,processedjumlahpenduduktingkatp!F1272,processedjumlahpenduduktingkatp!F1277,processedjumlahpenduduktingkatp!F1282,processedjumlahpenduduktingkatp!F1287,processedjumlahpenduduktingkatp!F1292,processedjumlahpenduduktingkatp!F1297,processedjumlahpenduduktingkatp!F1302)</f>
+        <v>839799</v>
+      </c>
+      <c r="D72">
+        <f>SUM(processedjumlahpenduduktingkatp!G1117,processedjumlahpenduduktingkatp!G1122,processedjumlahpenduduktingkatp!G1127,processedjumlahpenduduktingkatp!G1132,processedjumlahpenduduktingkatp!G1137,processedjumlahpenduduktingkatp!G1142,processedjumlahpenduduktingkatp!G1147,processedjumlahpenduduktingkatp!G1152,processedjumlahpenduduktingkatp!G1157,processedjumlahpenduduktingkatp!G1162,processedjumlahpenduduktingkatp!G1167,processedjumlahpenduduktingkatp!G1172,processedjumlahpenduduktingkatp!G1177,processedjumlahpenduduktingkatp!G1182,processedjumlahpenduduktingkatp!G1187,processedjumlahpenduduktingkatp!G1192,processedjumlahpenduduktingkatp!G1197,processedjumlahpenduduktingkatp!G1202,processedjumlahpenduduktingkatp!G1207,processedjumlahpenduduktingkatp!G1212,processedjumlahpenduduktingkatp!G1217,processedjumlahpenduduktingkatp!G1222,processedjumlahpenduduktingkatp!G1227,processedjumlahpenduduktingkatp!G1232,processedjumlahpenduduktingkatp!G1237,processedjumlahpenduduktingkatp!G1242,processedjumlahpenduduktingkatp!G1247,processedjumlahpenduduktingkatp!G1252,processedjumlahpenduduktingkatp!G1257,processedjumlahpenduduktingkatp!G1262,processedjumlahpenduduktingkatp!G1267,processedjumlahpenduduktingkatp!G1272,processedjumlahpenduduktingkatp!G1277,processedjumlahpenduduktingkatp!G1282,processedjumlahpenduduktingkatp!G1287,processedjumlahpenduduktingkatp!G1292,processedjumlahpenduduktingkatp!G1297,processedjumlahpenduduktingkatp!G1302)</f>
+        <v>1072227</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="26"/>
+        <v>1912026</v>
+      </c>
+      <c r="F72">
+        <f>SUM($E$72:$E$76)</f>
+        <v>24317466</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="28"/>
+        <v>7.8627682670554574E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="str">
+        <f>processedjumlahpenduduktingkatp!B1118</f>
+        <v>Prov. Jawa Timur</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <f>SUM(processedjumlahpenduduktingkatp!F1118,processedjumlahpenduduktingkatp!F1123,processedjumlahpenduduktingkatp!F1128,processedjumlahpenduduktingkatp!F1133,processedjumlahpenduduktingkatp!F1138,processedjumlahpenduduktingkatp!F1143,processedjumlahpenduduktingkatp!F1148,processedjumlahpenduduktingkatp!F1153,processedjumlahpenduduktingkatp!F1158,processedjumlahpenduduktingkatp!F1163,processedjumlahpenduduktingkatp!F1168,processedjumlahpenduduktingkatp!F1173,processedjumlahpenduduktingkatp!F1178,processedjumlahpenduduktingkatp!F1183,processedjumlahpenduduktingkatp!F1188,processedjumlahpenduduktingkatp!F1193,processedjumlahpenduduktingkatp!F1198,processedjumlahpenduduktingkatp!F1203,processedjumlahpenduduktingkatp!F1208,processedjumlahpenduduktingkatp!F1213,processedjumlahpenduduktingkatp!F1218,processedjumlahpenduduktingkatp!F1223,processedjumlahpenduduktingkatp!F1228,processedjumlahpenduduktingkatp!F1233,processedjumlahpenduduktingkatp!F1238,processedjumlahpenduduktingkatp!F1243,processedjumlahpenduduktingkatp!F1248,processedjumlahpenduduktingkatp!F1253,processedjumlahpenduduktingkatp!F1258,processedjumlahpenduduktingkatp!F1263,processedjumlahpenduduktingkatp!F1268,processedjumlahpenduduktingkatp!F1273,processedjumlahpenduduktingkatp!F1278,processedjumlahpenduduktingkatp!F1283,processedjumlahpenduduktingkatp!F1288,processedjumlahpenduduktingkatp!F1293,processedjumlahpenduduktingkatp!F1298,processedjumlahpenduduktingkatp!F1303)</f>
+        <v>4625662</v>
+      </c>
+      <c r="D73">
+        <f>SUM(processedjumlahpenduduktingkatp!G1118,processedjumlahpenduduktingkatp!G1123,processedjumlahpenduduktingkatp!G1128,processedjumlahpenduduktingkatp!G1133,processedjumlahpenduduktingkatp!G1138,processedjumlahpenduduktingkatp!G1143,processedjumlahpenduduktingkatp!G1148,processedjumlahpenduduktingkatp!G1153,processedjumlahpenduduktingkatp!G1158,processedjumlahpenduduktingkatp!G1163,processedjumlahpenduduktingkatp!G1168,processedjumlahpenduduktingkatp!G1173,processedjumlahpenduduktingkatp!G1178,processedjumlahpenduduktingkatp!G1183,processedjumlahpenduduktingkatp!G1188,processedjumlahpenduduktingkatp!G1193,processedjumlahpenduduktingkatp!G1198,processedjumlahpenduduktingkatp!G1203,processedjumlahpenduduktingkatp!G1208,processedjumlahpenduduktingkatp!G1213,processedjumlahpenduduktingkatp!G1218,processedjumlahpenduduktingkatp!G1223,processedjumlahpenduduktingkatp!G1228,processedjumlahpenduduktingkatp!G1233,processedjumlahpenduduktingkatp!G1238,processedjumlahpenduduktingkatp!G1243,processedjumlahpenduduktingkatp!G1248,processedjumlahpenduduktingkatp!G1253,processedjumlahpenduduktingkatp!G1258,processedjumlahpenduduktingkatp!G1263,processedjumlahpenduduktingkatp!G1268,processedjumlahpenduduktingkatp!G1273,processedjumlahpenduduktingkatp!G1278,processedjumlahpenduduktingkatp!G1283,processedjumlahpenduduktingkatp!G1288,processedjumlahpenduduktingkatp!G1293,processedjumlahpenduduktingkatp!G1298,processedjumlahpenduduktingkatp!G1303)</f>
+        <v>4906585</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="26"/>
+        <v>9532247</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73:F76" si="29">SUM($E$72:$E$76)</f>
+        <v>24317466</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73:G77" si="30">E73/F73</f>
+        <v>0.39199178894708847</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="str">
+        <f>processedjumlahpenduduktingkatp!B1119</f>
+        <v>Prov. Jawa Timur</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <f>SUM(processedjumlahpenduduktingkatp!F1119,processedjumlahpenduduktingkatp!F1124,processedjumlahpenduduktingkatp!F1129,processedjumlahpenduduktingkatp!F1134,processedjumlahpenduduktingkatp!F1139,processedjumlahpenduduktingkatp!F1144,processedjumlahpenduduktingkatp!F1149,processedjumlahpenduduktingkatp!F1154,processedjumlahpenduduktingkatp!F1159,processedjumlahpenduduktingkatp!F1164,processedjumlahpenduduktingkatp!F1169,processedjumlahpenduduktingkatp!F1174,processedjumlahpenduduktingkatp!F1179,processedjumlahpenduduktingkatp!F1184,processedjumlahpenduduktingkatp!F1189,processedjumlahpenduduktingkatp!F1194,processedjumlahpenduduktingkatp!F1199,processedjumlahpenduduktingkatp!F1204,processedjumlahpenduduktingkatp!F1209,processedjumlahpenduduktingkatp!F1214,processedjumlahpenduduktingkatp!F1219,processedjumlahpenduduktingkatp!F1224,processedjumlahpenduduktingkatp!F1229,processedjumlahpenduduktingkatp!F1234,processedjumlahpenduduktingkatp!F1239,processedjumlahpenduduktingkatp!F1244,processedjumlahpenduduktingkatp!F1249,processedjumlahpenduduktingkatp!F1254,processedjumlahpenduduktingkatp!F1259,processedjumlahpenduduktingkatp!F1264,processedjumlahpenduduktingkatp!F1269,processedjumlahpenduduktingkatp!F1274,processedjumlahpenduduktingkatp!F1279,processedjumlahpenduduktingkatp!F1284,processedjumlahpenduduktingkatp!F1289,processedjumlahpenduduktingkatp!F1294,processedjumlahpenduduktingkatp!F1299,processedjumlahpenduduktingkatp!F1304)</f>
+        <v>2883321</v>
+      </c>
+      <c r="D74">
+        <f>SUM(processedjumlahpenduduktingkatp!G1119,processedjumlahpenduduktingkatp!G1124,processedjumlahpenduduktingkatp!G1129,processedjumlahpenduduktingkatp!G1134,processedjumlahpenduduktingkatp!G1139,processedjumlahpenduduktingkatp!G1144,processedjumlahpenduduktingkatp!G1149,processedjumlahpenduduktingkatp!G1154,processedjumlahpenduduktingkatp!G1159,processedjumlahpenduduktingkatp!G1164,processedjumlahpenduduktingkatp!G1169,processedjumlahpenduduktingkatp!G1174,processedjumlahpenduduktingkatp!G1179,processedjumlahpenduduktingkatp!G1184,processedjumlahpenduduktingkatp!G1189,processedjumlahpenduduktingkatp!G1194,processedjumlahpenduduktingkatp!G1199,processedjumlahpenduduktingkatp!G1204,processedjumlahpenduduktingkatp!G1209,processedjumlahpenduduktingkatp!G1214,processedjumlahpenduduktingkatp!G1219,processedjumlahpenduduktingkatp!G1224,processedjumlahpenduduktingkatp!G1229,processedjumlahpenduduktingkatp!G1234,processedjumlahpenduduktingkatp!G1239,processedjumlahpenduduktingkatp!G1244,processedjumlahpenduduktingkatp!G1249,processedjumlahpenduduktingkatp!G1254,processedjumlahpenduduktingkatp!G1259,processedjumlahpenduduktingkatp!G1264,processedjumlahpenduduktingkatp!G1269,processedjumlahpenduduktingkatp!G1274,processedjumlahpenduduktingkatp!G1279,processedjumlahpenduduktingkatp!G1284,processedjumlahpenduduktingkatp!G1289,processedjumlahpenduduktingkatp!G1294,processedjumlahpenduduktingkatp!G1299,processedjumlahpenduduktingkatp!G1304)</f>
+        <v>2752264</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="26"/>
+        <v>5635585</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="29"/>
+        <v>24317466</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="30"/>
+        <v>0.23175050393819815</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="str">
+        <f>processedjumlahpenduduktingkatp!B1120</f>
+        <v>Prov. Jawa Timur</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <f>SUM(processedjumlahpenduduktingkatp!F1120,processedjumlahpenduduktingkatp!F1125,processedjumlahpenduduktingkatp!F1130,processedjumlahpenduduktingkatp!F1135,processedjumlahpenduduktingkatp!F1140,processedjumlahpenduduktingkatp!F1145,processedjumlahpenduduktingkatp!F1150,processedjumlahpenduduktingkatp!F1155,processedjumlahpenduduktingkatp!F1160,processedjumlahpenduduktingkatp!F1165,processedjumlahpenduduktingkatp!F1170,processedjumlahpenduduktingkatp!F1175,processedjumlahpenduduktingkatp!F1180,processedjumlahpenduduktingkatp!F1185,processedjumlahpenduduktingkatp!F1190,processedjumlahpenduduktingkatp!F1195,processedjumlahpenduduktingkatp!F1200,processedjumlahpenduduktingkatp!F1205,processedjumlahpenduduktingkatp!F1210,processedjumlahpenduduktingkatp!F1215,processedjumlahpenduduktingkatp!F1220,processedjumlahpenduduktingkatp!F1225,processedjumlahpenduduktingkatp!F1230,processedjumlahpenduduktingkatp!F1235,processedjumlahpenduduktingkatp!F1240,processedjumlahpenduduktingkatp!F1245,processedjumlahpenduduktingkatp!F1250,processedjumlahpenduduktingkatp!F1255,processedjumlahpenduduktingkatp!F1260,processedjumlahpenduduktingkatp!F1265,processedjumlahpenduduktingkatp!F1270,processedjumlahpenduduktingkatp!F1275,processedjumlahpenduduktingkatp!F1280,processedjumlahpenduduktingkatp!F1285,processedjumlahpenduduktingkatp!F1290,processedjumlahpenduduktingkatp!F1295,processedjumlahpenduduktingkatp!F1300,processedjumlahpenduduktingkatp!F1305)</f>
+        <v>3194420</v>
+      </c>
+      <c r="D75">
+        <f>SUM(processedjumlahpenduduktingkatp!G1120,processedjumlahpenduduktingkatp!G1125,processedjumlahpenduduktingkatp!G1130,processedjumlahpenduduktingkatp!G1135,processedjumlahpenduduktingkatp!G1140,processedjumlahpenduduktingkatp!G1145,processedjumlahpenduduktingkatp!G1150,processedjumlahpenduduktingkatp!G1155,processedjumlahpenduduktingkatp!G1160,processedjumlahpenduduktingkatp!G1165,processedjumlahpenduduktingkatp!G1170,processedjumlahpenduduktingkatp!G1175,processedjumlahpenduduktingkatp!G1180,processedjumlahpenduduktingkatp!G1185,processedjumlahpenduduktingkatp!G1190,processedjumlahpenduduktingkatp!G1195,processedjumlahpenduduktingkatp!G1200,processedjumlahpenduduktingkatp!G1205,processedjumlahpenduduktingkatp!G1210,processedjumlahpenduduktingkatp!G1215,processedjumlahpenduduktingkatp!G1220,processedjumlahpenduduktingkatp!G1225,processedjumlahpenduduktingkatp!G1230,processedjumlahpenduduktingkatp!G1235,processedjumlahpenduduktingkatp!G1240,processedjumlahpenduduktingkatp!G1245,processedjumlahpenduduktingkatp!G1250,processedjumlahpenduduktingkatp!G1255,processedjumlahpenduduktingkatp!G1260,processedjumlahpenduduktingkatp!G1265,processedjumlahpenduduktingkatp!G1270,processedjumlahpenduduktingkatp!G1275,processedjumlahpenduduktingkatp!G1280,processedjumlahpenduduktingkatp!G1285,processedjumlahpenduduktingkatp!G1290,processedjumlahpenduduktingkatp!G1295,processedjumlahpenduduktingkatp!G1300,processedjumlahpenduduktingkatp!G1305)</f>
+        <v>2534967</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="26"/>
+        <v>5729387</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="29"/>
+        <v>24317466</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="30"/>
+        <v>0.23560789598718879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="str">
+        <f>processedjumlahpenduduktingkatp!B1121</f>
+        <v>Prov. Jawa Timur</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <f>SUM(processedjumlahpenduduktingkatp!F1121,processedjumlahpenduduktingkatp!F1126,processedjumlahpenduduktingkatp!F1131,processedjumlahpenduduktingkatp!F1136,processedjumlahpenduduktingkatp!F1141,processedjumlahpenduduktingkatp!F1146,processedjumlahpenduduktingkatp!F1151,processedjumlahpenduduktingkatp!F1156,processedjumlahpenduduktingkatp!F1161,processedjumlahpenduduktingkatp!F1166,processedjumlahpenduduktingkatp!F1171,processedjumlahpenduduktingkatp!F1176,processedjumlahpenduduktingkatp!F1181,processedjumlahpenduduktingkatp!F1186,processedjumlahpenduduktingkatp!F1191,processedjumlahpenduduktingkatp!F1196,processedjumlahpenduduktingkatp!F1201,processedjumlahpenduduktingkatp!F1206,processedjumlahpenduduktingkatp!F1211,processedjumlahpenduduktingkatp!F1216,processedjumlahpenduduktingkatp!F1221,processedjumlahpenduduktingkatp!F1226,processedjumlahpenduduktingkatp!F1231,processedjumlahpenduduktingkatp!F1236,processedjumlahpenduduktingkatp!F1241,processedjumlahpenduduktingkatp!F1246,processedjumlahpenduduktingkatp!F1251,processedjumlahpenduduktingkatp!F1256,processedjumlahpenduduktingkatp!F1261,processedjumlahpenduduktingkatp!F1266,processedjumlahpenduduktingkatp!F1271,processedjumlahpenduduktingkatp!F1276,processedjumlahpenduduktingkatp!F1281,processedjumlahpenduduktingkatp!F1286,processedjumlahpenduduktingkatp!F1291,processedjumlahpenduduktingkatp!F1296,processedjumlahpenduduktingkatp!F1301,processedjumlahpenduduktingkatp!F1306)</f>
+        <v>778813</v>
+      </c>
+      <c r="D76">
+        <f>SUM(processedjumlahpenduduktingkatp!G1121,processedjumlahpenduduktingkatp!G1126,processedjumlahpenduduktingkatp!G1131,processedjumlahpenduduktingkatp!G1136,processedjumlahpenduduktingkatp!G1141,processedjumlahpenduduktingkatp!G1146,processedjumlahpenduduktingkatp!G1151,processedjumlahpenduduktingkatp!G1156,processedjumlahpenduduktingkatp!G1161,processedjumlahpenduduktingkatp!G1166,processedjumlahpenduduktingkatp!G1171,processedjumlahpenduduktingkatp!G1176,processedjumlahpenduduktingkatp!G1181,processedjumlahpenduduktingkatp!G1186,processedjumlahpenduduktingkatp!G1191,processedjumlahpenduduktingkatp!G1196,processedjumlahpenduduktingkatp!G1201,processedjumlahpenduduktingkatp!G1206,processedjumlahpenduduktingkatp!G1211,processedjumlahpenduduktingkatp!G1216,processedjumlahpenduduktingkatp!G1221,processedjumlahpenduduktingkatp!G1226,processedjumlahpenduduktingkatp!G1231,processedjumlahpenduduktingkatp!G1236,processedjumlahpenduduktingkatp!G1241,processedjumlahpenduduktingkatp!G1246,processedjumlahpenduduktingkatp!G1251,processedjumlahpenduduktingkatp!G1256,processedjumlahpenduduktingkatp!G1261,processedjumlahpenduduktingkatp!G1266,processedjumlahpenduduktingkatp!G1271,processedjumlahpenduduktingkatp!G1276,processedjumlahpenduduktingkatp!G1281,processedjumlahpenduduktingkatp!G1286,processedjumlahpenduduktingkatp!G1291,processedjumlahpenduduktingkatp!G1296,processedjumlahpenduduktingkatp!G1301,processedjumlahpenduduktingkatp!G1306)</f>
+        <v>729408</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="26"/>
+        <v>1508221</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="29"/>
+        <v>24317466</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="30"/>
+        <v>6.2022128456969985E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="str">
+        <f>processedjumlahpenduduktingkatp!B1307</f>
+        <v>Prov. Banten</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <f>SUM(processedjumlahpenduduktingkatp!F1307,processedjumlahpenduduktingkatp!F1312,processedjumlahpenduduktingkatp!F1317,processedjumlahpenduduktingkatp!F1322,processedjumlahpenduduktingkatp!F1327,processedjumlahpenduduktingkatp!F1332,processedjumlahpenduduktingkatp!F1337,processedjumlahpenduduktingkatp!F1342)</f>
+        <v>175505</v>
+      </c>
+      <c r="D77">
+        <f>SUM(processedjumlahpenduduktingkatp!G1307,processedjumlahpenduduktingkatp!G1312,processedjumlahpenduduktingkatp!G1317,processedjumlahpenduduktingkatp!G1322,processedjumlahpenduduktingkatp!G1327,processedjumlahpenduduktingkatp!G1332,processedjumlahpenduduktingkatp!G1337,processedjumlahpenduduktingkatp!G1342)</f>
+        <v>220456</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="26"/>
+        <v>395961</v>
+      </c>
+      <c r="F77">
+        <f>SUM($E$77:$E$81)</f>
+        <v>7055807</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="30"/>
+        <v>5.6118456754840375E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="str">
+        <f>processedjumlahpenduduktingkatp!B1308</f>
+        <v>Prov. Banten</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <f>SUM(processedjumlahpenduduktingkatp!F1308,processedjumlahpenduduktingkatp!F1313,processedjumlahpenduduktingkatp!F1318,processedjumlahpenduduktingkatp!F1323,processedjumlahpenduduktingkatp!F1328,processedjumlahpenduduktingkatp!F1333,processedjumlahpenduduktingkatp!F1338,processedjumlahpenduduktingkatp!F1343)</f>
+        <v>1181632</v>
+      </c>
+      <c r="D78">
+        <f>SUM(processedjumlahpenduduktingkatp!G1308,processedjumlahpenduduktingkatp!G1313,processedjumlahpenduduktingkatp!G1318,processedjumlahpenduduktingkatp!G1323,processedjumlahpenduduktingkatp!G1328,processedjumlahpenduduktingkatp!G1333,processedjumlahpenduduktingkatp!G1338,processedjumlahpenduduktingkatp!G1343)</f>
+        <v>1240746</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="26"/>
+        <v>2422378</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ref="F78:F81" si="31">SUM($E$77:$E$81)</f>
+        <v>7055807</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78:G82" si="32">E78/F78</f>
+        <v>0.34331693029585419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="str">
+        <f>processedjumlahpenduduktingkatp!B1309</f>
+        <v>Prov. Banten</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <f>SUM(processedjumlahpenduduktingkatp!F1309,processedjumlahpenduduktingkatp!F1314,processedjumlahpenduduktingkatp!F1319,processedjumlahpenduduktingkatp!F1324,processedjumlahpenduduktingkatp!F1329,processedjumlahpenduduktingkatp!F1334,processedjumlahpenduduktingkatp!F1339,processedjumlahpenduduktingkatp!F1344)</f>
+        <v>838419</v>
+      </c>
+      <c r="D79">
+        <f>SUM(processedjumlahpenduduktingkatp!G1309,processedjumlahpenduduktingkatp!G1314,processedjumlahpenduduktingkatp!G1319,processedjumlahpenduduktingkatp!G1324,processedjumlahpenduduktingkatp!G1329,processedjumlahpenduduktingkatp!G1334,processedjumlahpenduduktingkatp!G1339,processedjumlahpenduduktingkatp!G1344)</f>
+        <v>787927</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="26"/>
+        <v>1626346</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="31"/>
+        <v>7055807</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="32"/>
+        <v>0.23049751786011152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="str">
+        <f>processedjumlahpenduduktingkatp!B1310</f>
+        <v>Prov. Banten</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <f>SUM(processedjumlahpenduduktingkatp!F1310,processedjumlahpenduduktingkatp!F1315,processedjumlahpenduduktingkatp!F1320,processedjumlahpenduduktingkatp!F1325,processedjumlahpenduduktingkatp!F1330,processedjumlahpenduduktingkatp!F1335,processedjumlahpenduduktingkatp!F1340,processedjumlahpenduduktingkatp!F1345)</f>
+        <v>1163237</v>
+      </c>
+      <c r="D80">
+        <f>SUM(processedjumlahpenduduktingkatp!G1310,processedjumlahpenduduktingkatp!G1315,processedjumlahpenduduktingkatp!G1320,processedjumlahpenduduktingkatp!G1325,processedjumlahpenduduktingkatp!G1330,processedjumlahpenduduktingkatp!G1335,processedjumlahpenduduktingkatp!G1340,processedjumlahpenduduktingkatp!G1345)</f>
+        <v>892995</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="26"/>
+        <v>2056232</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="31"/>
+        <v>7055807</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="32"/>
+        <v>0.29142407098153339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="str">
+        <f>processedjumlahpenduduktingkatp!B1311</f>
+        <v>Prov. Banten</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81">
+        <f>SUM(processedjumlahpenduduktingkatp!F1311,processedjumlahpenduduktingkatp!F1316,processedjumlahpenduduktingkatp!F1321,processedjumlahpenduduktingkatp!F1326,processedjumlahpenduduktingkatp!F1331,processedjumlahpenduduktingkatp!F1336,processedjumlahpenduduktingkatp!F1341,processedjumlahpenduduktingkatp!F1346)</f>
+        <v>297987</v>
+      </c>
+      <c r="D81">
+        <f>SUM(processedjumlahpenduduktingkatp!G1311,processedjumlahpenduduktingkatp!G1316,processedjumlahpenduduktingkatp!G1321,processedjumlahpenduduktingkatp!G1326,processedjumlahpenduduktingkatp!G1331,processedjumlahpenduduktingkatp!G1336,processedjumlahpenduduktingkatp!G1341,processedjumlahpenduduktingkatp!G1346)</f>
+        <v>256903</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="26"/>
+        <v>554890</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="31"/>
+        <v>7055807</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="32"/>
+        <v>7.8643024107660539E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="str">
+        <f>processedjumlahpenduduktingkatp!B1347</f>
+        <v>Prov. Bali</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <f>SUM(processedjumlahpenduduktingkatp!F1347,processedjumlahpenduduktingkatp!F1352,processedjumlahpenduduktingkatp!F1357,processedjumlahpenduduktingkatp!F1362,processedjumlahpenduduktingkatp!F1367,processedjumlahpenduduktingkatp!F1372,processedjumlahpenduduktingkatp!F1377,processedjumlahpenduduktingkatp!F1382,processedjumlahpenduduktingkatp!F1387)</f>
+        <v>64880</v>
+      </c>
+      <c r="D82">
+        <f>SUM(processedjumlahpenduduktingkatp!G1347,processedjumlahpenduduktingkatp!G1352,processedjumlahpenduduktingkatp!G1357,processedjumlahpenduduktingkatp!G1362,processedjumlahpenduduktingkatp!G1367,processedjumlahpenduduktingkatp!G1372,processedjumlahpenduduktingkatp!G1377,processedjumlahpenduduktingkatp!G1382,processedjumlahpenduduktingkatp!G1387)</f>
+        <v>81399</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="26"/>
+        <v>146279</v>
+      </c>
+      <c r="F82">
+        <f>SUM($E$82:$E$86)</f>
+        <v>2545349</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="32"/>
+        <v>5.7469132916547004E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="str">
+        <f>processedjumlahpenduduktingkatp!B1348</f>
+        <v>Prov. Bali</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <f>SUM(processedjumlahpenduduktingkatp!F1348,processedjumlahpenduduktingkatp!F1353,processedjumlahpenduduktingkatp!F1358,processedjumlahpenduduktingkatp!F1363,processedjumlahpenduduktingkatp!F1368,processedjumlahpenduduktingkatp!F1373,processedjumlahpenduduktingkatp!F1378,processedjumlahpenduduktingkatp!F1383,processedjumlahpenduduktingkatp!F1388)</f>
+        <v>376185</v>
+      </c>
+      <c r="D83">
+        <f>SUM(processedjumlahpenduduktingkatp!G1348,processedjumlahpenduduktingkatp!G1353,processedjumlahpenduduktingkatp!G1358,processedjumlahpenduduktingkatp!G1363,processedjumlahpenduduktingkatp!G1368,processedjumlahpenduduktingkatp!G1373,processedjumlahpenduduktingkatp!G1378,processedjumlahpenduduktingkatp!G1383,processedjumlahpenduduktingkatp!G1388)</f>
+        <v>426710</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="26"/>
+        <v>802895</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83:F86" si="33">SUM($E$82:$E$86)</f>
+        <v>2545349</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ref="G83:G87" si="34">E83/F83</f>
+        <v>0.31543611504748464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="str">
+        <f>processedjumlahpenduduktingkatp!B1349</f>
+        <v>Prov. Bali</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <f>SUM(processedjumlahpenduduktingkatp!F1349,processedjumlahpenduduktingkatp!F1354,processedjumlahpenduduktingkatp!F1359,processedjumlahpenduduktingkatp!F1364,processedjumlahpenduduktingkatp!F1369,processedjumlahpenduduktingkatp!F1374,processedjumlahpenduduktingkatp!F1379,processedjumlahpenduduktingkatp!F1384,processedjumlahpenduduktingkatp!F1389)</f>
+        <v>256494</v>
+      </c>
+      <c r="D84">
+        <f>SUM(processedjumlahpenduduktingkatp!G1349,processedjumlahpenduduktingkatp!G1354,processedjumlahpenduduktingkatp!G1359,processedjumlahpenduduktingkatp!G1364,processedjumlahpenduduktingkatp!G1369,processedjumlahpenduduktingkatp!G1374,processedjumlahpenduduktingkatp!G1379,processedjumlahpenduduktingkatp!G1384,processedjumlahpenduduktingkatp!G1389)</f>
+        <v>237036</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="26"/>
+        <v>493530</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="33"/>
+        <v>2545349</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="34"/>
+        <v>0.19389482542472564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="str">
+        <f>processedjumlahpenduduktingkatp!B1350</f>
+        <v>Prov. Bali</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85">
+        <f>SUM(processedjumlahpenduduktingkatp!F1350,processedjumlahpenduduktingkatp!F1355,processedjumlahpenduduktingkatp!F1360,processedjumlahpenduduktingkatp!F1365,processedjumlahpenduduktingkatp!F1370,processedjumlahpenduduktingkatp!F1375,processedjumlahpenduduktingkatp!F1380,processedjumlahpenduduktingkatp!F1385,processedjumlahpenduduktingkatp!F1390)</f>
+        <v>481544</v>
+      </c>
+      <c r="D85">
+        <f>SUM(processedjumlahpenduduktingkatp!G1350,processedjumlahpenduduktingkatp!G1355,processedjumlahpenduduktingkatp!G1360,processedjumlahpenduduktingkatp!G1365,processedjumlahpenduduktingkatp!G1370,processedjumlahpenduduktingkatp!G1375,processedjumlahpenduduktingkatp!G1380,processedjumlahpenduduktingkatp!G1385,processedjumlahpenduduktingkatp!G1390)</f>
+        <v>362027</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="26"/>
+        <v>843571</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="33"/>
+        <v>2545349</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="34"/>
+        <v>0.33141663481117911</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="str">
+        <f>processedjumlahpenduduktingkatp!B1351</f>
+        <v>Prov. Bali</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86">
+        <f>SUM(processedjumlahpenduduktingkatp!F1351,processedjumlahpenduduktingkatp!F1356,processedjumlahpenduduktingkatp!F1361,processedjumlahpenduduktingkatp!F1366,processedjumlahpenduduktingkatp!F1371,processedjumlahpenduduktingkatp!F1376,processedjumlahpenduduktingkatp!F1381,processedjumlahpenduduktingkatp!F1386,processedjumlahpenduduktingkatp!F1391)</f>
+        <v>148974</v>
+      </c>
+      <c r="D86">
+        <f>SUM(processedjumlahpenduduktingkatp!G1351,processedjumlahpenduduktingkatp!G1356,processedjumlahpenduduktingkatp!G1361,processedjumlahpenduduktingkatp!G1366,processedjumlahpenduduktingkatp!G1371,processedjumlahpenduduktingkatp!G1376,processedjumlahpenduduktingkatp!G1381,processedjumlahpenduduktingkatp!G1386,processedjumlahpenduduktingkatp!G1391)</f>
+        <v>110100</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="26"/>
+        <v>259074</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="33"/>
+        <v>2545349</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="34"/>
+        <v>0.10178329180006357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="str">
+        <f>processedjumlahpenduduktingkatp!B1392</f>
+        <v>Prov. Nusa Tenggara Barat</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87">
+        <f>SUM(processedjumlahpenduduktingkatp!F1392,processedjumlahpenduduktingkatp!F1397,processedjumlahpenduduktingkatp!F1402,processedjumlahpenduduktingkatp!F1407,processedjumlahpenduduktingkatp!F1412,processedjumlahpenduduktingkatp!F1417,processedjumlahpenduduktingkatp!F1422,processedjumlahpenduduktingkatp!F1427,processedjumlahpenduduktingkatp!F1432,processedjumlahpenduduktingkatp!F1437)</f>
+        <v>116188</v>
+      </c>
+      <c r="D87">
+        <f>SUM(processedjumlahpenduduktingkatp!G1392,processedjumlahpenduduktingkatp!G1397,processedjumlahpenduduktingkatp!G1402,processedjumlahpenduduktingkatp!G1407,processedjumlahpenduduktingkatp!G1412,processedjumlahpenduduktingkatp!G1417,processedjumlahpenduduktingkatp!G1422,processedjumlahpenduduktingkatp!G1427,processedjumlahpenduduktingkatp!G1432,processedjumlahpenduduktingkatp!G1437)</f>
+        <v>125534</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="26"/>
+        <v>241722</v>
+      </c>
+      <c r="F87">
+        <f>SUM($E$87:$E$91)</f>
+        <v>2422419</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="34"/>
+        <v>9.978537982074942E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="str">
+        <f>processedjumlahpenduduktingkatp!B1393</f>
+        <v>Prov. Nusa Tenggara Barat</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <f>SUM(processedjumlahpenduduktingkatp!F1393,processedjumlahpenduduktingkatp!F1398,processedjumlahpenduduktingkatp!F1403,processedjumlahpenduduktingkatp!F1408,processedjumlahpenduduktingkatp!F1413,processedjumlahpenduduktingkatp!F1418,processedjumlahpenduduktingkatp!F1423,processedjumlahpenduduktingkatp!F1428,processedjumlahpenduduktingkatp!F1433,processedjumlahpenduduktingkatp!F1438)</f>
+        <v>389923</v>
+      </c>
+      <c r="D88">
+        <f>SUM(processedjumlahpenduduktingkatp!G1393,processedjumlahpenduduktingkatp!G1398,processedjumlahpenduduktingkatp!G1403,processedjumlahpenduduktingkatp!G1408,processedjumlahpenduduktingkatp!G1413,processedjumlahpenduduktingkatp!G1418,processedjumlahpenduduktingkatp!G1423,processedjumlahpenduduktingkatp!G1428,processedjumlahpenduduktingkatp!G1433,processedjumlahpenduduktingkatp!G1438)</f>
+        <v>437166</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="26"/>
+        <v>827089</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ref="F88:F91" si="35">SUM($E$87:$E$91)</f>
+        <v>2422419</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ref="G88:G92" si="36">E88/F88</f>
+        <v>0.34143102411267418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="str">
+        <f>processedjumlahpenduduktingkatp!B1394</f>
+        <v>Prov. Nusa Tenggara Barat</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <f>SUM(processedjumlahpenduduktingkatp!F1394,processedjumlahpenduduktingkatp!F1399,processedjumlahpenduduktingkatp!F1404,processedjumlahpenduduktingkatp!F1409,processedjumlahpenduduktingkatp!F1414,processedjumlahpenduduktingkatp!F1419,processedjumlahpenduduktingkatp!F1424,processedjumlahpenduduktingkatp!F1429,processedjumlahpenduduktingkatp!F1434,processedjumlahpenduduktingkatp!F1439)</f>
+        <v>279083</v>
+      </c>
+      <c r="D89">
+        <f>SUM(processedjumlahpenduduktingkatp!G1394,processedjumlahpenduduktingkatp!G1399,processedjumlahpenduduktingkatp!G1404,processedjumlahpenduduktingkatp!G1409,processedjumlahpenduduktingkatp!G1414,processedjumlahpenduduktingkatp!G1419,processedjumlahpenduduktingkatp!G1424,processedjumlahpenduduktingkatp!G1429,processedjumlahpenduduktingkatp!G1434,processedjumlahpenduduktingkatp!G1439)</f>
+        <v>292182</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="26"/>
+        <v>571265</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="35"/>
+        <v>2422419</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="36"/>
+        <v>0.23582419061277177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="str">
+        <f>processedjumlahpenduduktingkatp!B1395</f>
+        <v>Prov. Nusa Tenggara Barat</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <f>SUM(processedjumlahpenduduktingkatp!F1395,processedjumlahpenduduktingkatp!F1400,processedjumlahpenduduktingkatp!F1405,processedjumlahpenduduktingkatp!F1410,processedjumlahpenduduktingkatp!F1415,processedjumlahpenduduktingkatp!F1420,processedjumlahpenduduktingkatp!F1425,processedjumlahpenduduktingkatp!F1430,processedjumlahpenduduktingkatp!F1435,processedjumlahpenduduktingkatp!F1440)</f>
+        <v>335149</v>
+      </c>
+      <c r="D90">
+        <f>SUM(processedjumlahpenduduktingkatp!G1395,processedjumlahpenduduktingkatp!G1400,processedjumlahpenduduktingkatp!G1405,processedjumlahpenduduktingkatp!G1410,processedjumlahpenduduktingkatp!G1415,processedjumlahpenduduktingkatp!G1420,processedjumlahpenduduktingkatp!G1425,processedjumlahpenduduktingkatp!G1430,processedjumlahpenduduktingkatp!G1435,processedjumlahpenduduktingkatp!G1440)</f>
+        <v>273223</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="26"/>
+        <v>608372</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="35"/>
+        <v>2422419</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="36"/>
+        <v>0.25114234985772488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="str">
+        <f>processedjumlahpenduduktingkatp!B1396</f>
+        <v>Prov. Nusa Tenggara Barat</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91">
+        <f>SUM(processedjumlahpenduduktingkatp!F1396,processedjumlahpenduduktingkatp!F1401,processedjumlahpenduduktingkatp!F1406,processedjumlahpenduduktingkatp!F1411,processedjumlahpenduduktingkatp!F1416,processedjumlahpenduduktingkatp!F1421,processedjumlahpenduduktingkatp!F1426,processedjumlahpenduduktingkatp!F1431,processedjumlahpenduduktingkatp!F1436,processedjumlahpenduduktingkatp!F1441)</f>
+        <v>97535</v>
+      </c>
+      <c r="D91">
+        <f>SUM(processedjumlahpenduduktingkatp!G1396,processedjumlahpenduduktingkatp!G1401,processedjumlahpenduduktingkatp!G1406,processedjumlahpenduduktingkatp!G1411,processedjumlahpenduduktingkatp!G1416,processedjumlahpenduduktingkatp!G1421,processedjumlahpenduduktingkatp!G1426,processedjumlahpenduduktingkatp!G1431,processedjumlahpenduduktingkatp!G1436,processedjumlahpenduduktingkatp!G1441)</f>
+        <v>76436</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="26"/>
+        <v>173971</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="35"/>
+        <v>2422419</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="36"/>
+        <v>7.1817055596079787E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="str">
+        <f>processedjumlahpenduduktingkatp!B1442</f>
+        <v>Prov. Nusa Tenggara Timur</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <f>SUM(processedjumlahpenduduktingkatp!F1442,processedjumlahpenduduktingkatp!F1447,processedjumlahpenduduktingkatp!F1452,processedjumlahpenduduktingkatp!F1457,processedjumlahpenduduktingkatp!F1462,processedjumlahpenduduktingkatp!F1467,processedjumlahpenduduktingkatp!F1472,processedjumlahpenduduktingkatp!F1477,processedjumlahpenduduktingkatp!F1482,processedjumlahpenduduktingkatp!F1487,processedjumlahpenduduktingkatp!F1492,processedjumlahpenduduktingkatp!F1497,processedjumlahpenduduktingkatp!F1502,processedjumlahpenduduktingkatp!F1507,processedjumlahpenduduktingkatp!F1512,processedjumlahpenduduktingkatp!F1517,processedjumlahpenduduktingkatp!F1522,processedjumlahpenduduktingkatp!F1527,processedjumlahpenduduktingkatp!F1532,processedjumlahpenduduktingkatp!F1537,processedjumlahpenduduktingkatp!F1542)</f>
+        <v>172772</v>
+      </c>
+      <c r="D92">
+        <f>SUM(processedjumlahpenduduktingkatp!G1442,processedjumlahpenduduktingkatp!G1447,processedjumlahpenduduktingkatp!G1452,processedjumlahpenduduktingkatp!G1457,processedjumlahpenduduktingkatp!G1462,processedjumlahpenduduktingkatp!G1467,processedjumlahpenduduktingkatp!G1472,processedjumlahpenduduktingkatp!G1477,processedjumlahpenduduktingkatp!G1482,processedjumlahpenduduktingkatp!G1487,processedjumlahpenduduktingkatp!G1492,processedjumlahpenduduktingkatp!G1497,processedjumlahpenduduktingkatp!G1502,processedjumlahpenduduktingkatp!G1507,processedjumlahpenduduktingkatp!G1512,processedjumlahpenduduktingkatp!G1517,processedjumlahpenduduktingkatp!G1522,processedjumlahpenduduktingkatp!G1527,processedjumlahpenduduktingkatp!G1532,processedjumlahpenduduktingkatp!G1537,processedjumlahpenduduktingkatp!G1542)</f>
+        <v>170999</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="26"/>
+        <v>343771</v>
+      </c>
+      <c r="F92">
+        <f>SUM($E$92:$E$96)</f>
+        <v>2532830</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="36"/>
+        <v>0.13572604556958026</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="str">
+        <f>processedjumlahpenduduktingkatp!B1443</f>
+        <v>Prov. Nusa Tenggara Timur</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <f>SUM(processedjumlahpenduduktingkatp!F1443,processedjumlahpenduduktingkatp!F1448,processedjumlahpenduduktingkatp!F1453,processedjumlahpenduduktingkatp!F1458,processedjumlahpenduduktingkatp!F1463,processedjumlahpenduduktingkatp!F1468,processedjumlahpenduduktingkatp!F1473,processedjumlahpenduduktingkatp!F1478,processedjumlahpenduduktingkatp!F1483,processedjumlahpenduduktingkatp!F1488,processedjumlahpenduduktingkatp!F1493,processedjumlahpenduduktingkatp!F1498,processedjumlahpenduduktingkatp!F1503,processedjumlahpenduduktingkatp!F1508,processedjumlahpenduduktingkatp!F1513,processedjumlahpenduduktingkatp!F1518,processedjumlahpenduduktingkatp!F1523,processedjumlahpenduduktingkatp!F1528,processedjumlahpenduduktingkatp!F1533,processedjumlahpenduduktingkatp!F1538,processedjumlahpenduduktingkatp!F1543)</f>
+        <v>527795</v>
+      </c>
+      <c r="D93">
+        <f>SUM(processedjumlahpenduduktingkatp!G1443,processedjumlahpenduduktingkatp!G1448,processedjumlahpenduduktingkatp!G1453,processedjumlahpenduduktingkatp!G1458,processedjumlahpenduduktingkatp!G1463,processedjumlahpenduduktingkatp!G1468,processedjumlahpenduduktingkatp!G1473,processedjumlahpenduduktingkatp!G1478,processedjumlahpenduduktingkatp!G1483,processedjumlahpenduduktingkatp!G1488,processedjumlahpenduduktingkatp!G1493,processedjumlahpenduduktingkatp!G1498,processedjumlahpenduduktingkatp!G1503,processedjumlahpenduduktingkatp!G1508,processedjumlahpenduduktingkatp!G1513,processedjumlahpenduduktingkatp!G1518,processedjumlahpenduduktingkatp!G1523,processedjumlahpenduduktingkatp!G1528,processedjumlahpenduduktingkatp!G1533,processedjumlahpenduduktingkatp!G1538,processedjumlahpenduduktingkatp!G1543)</f>
+        <v>589057</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="26"/>
+        <v>1116852</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ref="F93:F96" si="37">SUM($E$92:$E$96)</f>
+        <v>2532830</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ref="G93:G97" si="38">E93/F93</f>
+        <v>0.4409502414295472</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="str">
+        <f>processedjumlahpenduduktingkatp!B1444</f>
+        <v>Prov. Nusa Tenggara Timur</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <f>SUM(processedjumlahpenduduktingkatp!F1444,processedjumlahpenduduktingkatp!F1449,processedjumlahpenduduktingkatp!F1454,processedjumlahpenduduktingkatp!F1459,processedjumlahpenduduktingkatp!F1464,processedjumlahpenduduktingkatp!F1469,processedjumlahpenduduktingkatp!F1474,processedjumlahpenduduktingkatp!F1479,processedjumlahpenduduktingkatp!F1484,processedjumlahpenduduktingkatp!F1489,processedjumlahpenduduktingkatp!F1494,processedjumlahpenduduktingkatp!F1499,processedjumlahpenduduktingkatp!F1504,processedjumlahpenduduktingkatp!F1509,processedjumlahpenduduktingkatp!F1514,processedjumlahpenduduktingkatp!F1519,processedjumlahpenduduktingkatp!F1524,processedjumlahpenduduktingkatp!F1529,processedjumlahpenduduktingkatp!F1534,processedjumlahpenduduktingkatp!F1539,processedjumlahpenduduktingkatp!F1544)</f>
+        <v>220317</v>
+      </c>
+      <c r="D94">
+        <f>SUM(processedjumlahpenduduktingkatp!G1444,processedjumlahpenduduktingkatp!G1449,processedjumlahpenduduktingkatp!G1454,processedjumlahpenduduktingkatp!G1459,processedjumlahpenduduktingkatp!G1464,processedjumlahpenduduktingkatp!G1469,processedjumlahpenduduktingkatp!G1474,processedjumlahpenduduktingkatp!G1479,processedjumlahpenduduktingkatp!G1484,processedjumlahpenduduktingkatp!G1489,processedjumlahpenduduktingkatp!G1494,processedjumlahpenduduktingkatp!G1499,processedjumlahpenduduktingkatp!G1504,processedjumlahpenduduktingkatp!G1509,processedjumlahpenduduktingkatp!G1514,processedjumlahpenduduktingkatp!G1519,processedjumlahpenduduktingkatp!G1524,processedjumlahpenduduktingkatp!G1529,processedjumlahpenduduktingkatp!G1534,processedjumlahpenduduktingkatp!G1539,processedjumlahpenduduktingkatp!G1544)</f>
+        <v>218277</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="26"/>
+        <v>438594</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="37"/>
+        <v>2532830</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="38"/>
+        <v>0.17316361540253392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="str">
+        <f>processedjumlahpenduduktingkatp!B1445</f>
+        <v>Prov. Nusa Tenggara Timur</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <f>SUM(processedjumlahpenduduktingkatp!F1445,processedjumlahpenduduktingkatp!F1450,processedjumlahpenduduktingkatp!F1455,processedjumlahpenduduktingkatp!F1460,processedjumlahpenduduktingkatp!F1465,processedjumlahpenduduktingkatp!F1470,processedjumlahpenduduktingkatp!F1475,processedjumlahpenduduktingkatp!F1480,processedjumlahpenduduktingkatp!F1485,processedjumlahpenduduktingkatp!F1490,processedjumlahpenduduktingkatp!F1495,processedjumlahpenduduktingkatp!F1500,processedjumlahpenduduktingkatp!F1505,processedjumlahpenduduktingkatp!F1510,processedjumlahpenduduktingkatp!F1515,processedjumlahpenduduktingkatp!F1520,processedjumlahpenduduktingkatp!F1525,processedjumlahpenduduktingkatp!F1530,processedjumlahpenduduktingkatp!F1535,processedjumlahpenduduktingkatp!F1540,processedjumlahpenduduktingkatp!F1545)</f>
+        <v>258425</v>
+      </c>
+      <c r="D95">
+        <f>SUM(processedjumlahpenduduktingkatp!G1445,processedjumlahpenduduktingkatp!G1450,processedjumlahpenduduktingkatp!G1455,processedjumlahpenduduktingkatp!G1460,processedjumlahpenduduktingkatp!G1465,processedjumlahpenduduktingkatp!G1470,processedjumlahpenduduktingkatp!G1475,processedjumlahpenduduktingkatp!G1480,processedjumlahpenduduktingkatp!G1485,processedjumlahpenduduktingkatp!G1490,processedjumlahpenduduktingkatp!G1495,processedjumlahpenduduktingkatp!G1500,processedjumlahpenduduktingkatp!G1505,processedjumlahpenduduktingkatp!G1510,processedjumlahpenduduktingkatp!G1515,processedjumlahpenduduktingkatp!G1520,processedjumlahpenduduktingkatp!G1525,processedjumlahpenduduktingkatp!G1530,processedjumlahpenduduktingkatp!G1535,processedjumlahpenduduktingkatp!G1540,processedjumlahpenduduktingkatp!G1545)</f>
+        <v>228001</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="26"/>
+        <v>486426</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="37"/>
+        <v>2532830</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="38"/>
+        <v>0.1920484201466344</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="str">
+        <f>processedjumlahpenduduktingkatp!B1446</f>
+        <v>Prov. Nusa Tenggara Timur</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <f>SUM(processedjumlahpenduduktingkatp!F1446,processedjumlahpenduduktingkatp!F1451,processedjumlahpenduduktingkatp!F1456,processedjumlahpenduduktingkatp!F1461,processedjumlahpenduduktingkatp!F1466,processedjumlahpenduduktingkatp!F1471,processedjumlahpenduduktingkatp!F1476,processedjumlahpenduduktingkatp!F1481,processedjumlahpenduduktingkatp!F1486,processedjumlahpenduduktingkatp!F1491,processedjumlahpenduduktingkatp!F1496,processedjumlahpenduduktingkatp!F1501,processedjumlahpenduduktingkatp!F1506,processedjumlahpenduduktingkatp!F1511,processedjumlahpenduduktingkatp!F1516,processedjumlahpenduduktingkatp!F1521,processedjumlahpenduduktingkatp!F1526,processedjumlahpenduduktingkatp!F1531,processedjumlahpenduduktingkatp!F1536,processedjumlahpenduduktingkatp!F1541,processedjumlahpenduduktingkatp!F1546)</f>
+        <v>79105</v>
+      </c>
+      <c r="D96">
+        <f>SUM(processedjumlahpenduduktingkatp!G1446,processedjumlahpenduduktingkatp!G1451,processedjumlahpenduduktingkatp!G1456,processedjumlahpenduduktingkatp!G1461,processedjumlahpenduduktingkatp!G1466,processedjumlahpenduduktingkatp!G1471,processedjumlahpenduduktingkatp!G1476,processedjumlahpenduduktingkatp!G1481,processedjumlahpenduduktingkatp!G1486,processedjumlahpenduduktingkatp!G1491,processedjumlahpenduduktingkatp!G1496,processedjumlahpenduduktingkatp!G1501,processedjumlahpenduduktingkatp!G1506,processedjumlahpenduduktingkatp!G1511,processedjumlahpenduduktingkatp!G1516,processedjumlahpenduduktingkatp!G1521,processedjumlahpenduduktingkatp!G1526,processedjumlahpenduduktingkatp!G1531,processedjumlahpenduduktingkatp!G1536,processedjumlahpenduduktingkatp!G1541,processedjumlahpenduduktingkatp!G1546)</f>
+        <v>68082</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="26"/>
+        <v>147187</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="37"/>
+        <v>2532830</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="38"/>
+        <v>5.8111677451704223E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="str">
+        <f>processedjumlahpenduduktingkatp!B1547</f>
+        <v>Prov. Kalimantan Barat</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97">
+        <f>SUM(processedjumlahpenduduktingkatp!F1547,processedjumlahpenduduktingkatp!F1552,processedjumlahpenduduktingkatp!F1557,processedjumlahpenduduktingkatp!F1562,processedjumlahpenduduktingkatp!F1567,processedjumlahpenduduktingkatp!F1572,processedjumlahpenduduktingkatp!F1577,processedjumlahpenduduktingkatp!F1582,processedjumlahpenduduktingkatp!F1587,processedjumlahpenduduktingkatp!F1592,processedjumlahpenduduktingkatp!F1597,processedjumlahpenduduktingkatp!F1602,processedjumlahpenduduktingkatp!F1607,processedjumlahpenduduktingkatp!F1612)</f>
+        <v>201844</v>
+      </c>
+      <c r="D97">
+        <f>SUM(processedjumlahpenduduktingkatp!G1547,processedjumlahpenduduktingkatp!G1552,processedjumlahpenduduktingkatp!G1557,processedjumlahpenduduktingkatp!G1562,processedjumlahpenduduktingkatp!G1567,processedjumlahpenduduktingkatp!G1572,processedjumlahpenduduktingkatp!G1577,processedjumlahpenduduktingkatp!G1582,processedjumlahpenduduktingkatp!G1587,processedjumlahpenduduktingkatp!G1592,processedjumlahpenduduktingkatp!G1597,processedjumlahpenduduktingkatp!G1602,processedjumlahpenduduktingkatp!G1607,processedjumlahpenduduktingkatp!G1612)</f>
+        <v>198539</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="26"/>
+        <v>400383</v>
+      </c>
+      <c r="F97">
+        <f>SUM($E$97:$E$101)</f>
+        <v>2657177</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="38"/>
+        <v>0.15067983803864027</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="str">
+        <f>processedjumlahpenduduktingkatp!B1548</f>
+        <v>Prov. Kalimantan Barat</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <f>SUM(processedjumlahpenduduktingkatp!F1548,processedjumlahpenduduktingkatp!F1553,processedjumlahpenduduktingkatp!F1558,processedjumlahpenduduktingkatp!F1563,processedjumlahpenduduktingkatp!F1568,processedjumlahpenduduktingkatp!F1573,processedjumlahpenduduktingkatp!F1578,processedjumlahpenduduktingkatp!F1583,processedjumlahpenduduktingkatp!F1588,processedjumlahpenduduktingkatp!F1593,processedjumlahpenduduktingkatp!F1598,processedjumlahpenduduktingkatp!F1603,processedjumlahpenduduktingkatp!F1608,processedjumlahpenduduktingkatp!F1613)</f>
+        <v>519373</v>
+      </c>
+      <c r="D98">
+        <f>SUM(processedjumlahpenduduktingkatp!G1548,processedjumlahpenduduktingkatp!G1553,processedjumlahpenduduktingkatp!G1558,processedjumlahpenduduktingkatp!G1563,processedjumlahpenduduktingkatp!G1568,processedjumlahpenduduktingkatp!G1573,processedjumlahpenduduktingkatp!G1578,processedjumlahpenduduktingkatp!G1583,processedjumlahpenduduktingkatp!G1588,processedjumlahpenduduktingkatp!G1593,processedjumlahpenduduktingkatp!G1598,processedjumlahpenduduktingkatp!G1603,processedjumlahpenduduktingkatp!G1608,processedjumlahpenduduktingkatp!G1613)</f>
+        <v>483873</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="26"/>
+        <v>1003246</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ref="F98:F101" si="39">SUM($E$97:$E$101)</f>
+        <v>2657177</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ref="G98:G102" si="40">E98/F98</f>
+        <v>0.37756084747083091</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="str">
+        <f>processedjumlahpenduduktingkatp!B1549</f>
+        <v>Prov. Kalimantan Barat</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99">
+        <f>SUM(processedjumlahpenduduktingkatp!F1549,processedjumlahpenduduktingkatp!F1554,processedjumlahpenduduktingkatp!F1559,processedjumlahpenduduktingkatp!F1564,processedjumlahpenduduktingkatp!F1569,processedjumlahpenduduktingkatp!F1574,processedjumlahpenduduktingkatp!F1579,processedjumlahpenduduktingkatp!F1584,processedjumlahpenduduktingkatp!F1589,processedjumlahpenduduktingkatp!F1594,processedjumlahpenduduktingkatp!F1599,processedjumlahpenduduktingkatp!F1604,processedjumlahpenduduktingkatp!F1609,processedjumlahpenduduktingkatp!F1614)</f>
+        <v>293088</v>
+      </c>
+      <c r="D99">
+        <f>SUM(processedjumlahpenduduktingkatp!G1549,processedjumlahpenduduktingkatp!G1554,processedjumlahpenduduktingkatp!G1559,processedjumlahpenduduktingkatp!G1564,processedjumlahpenduduktingkatp!G1569,processedjumlahpenduduktingkatp!G1574,processedjumlahpenduduktingkatp!G1579,processedjumlahpenduduktingkatp!G1584,processedjumlahpenduduktingkatp!G1589,processedjumlahpenduduktingkatp!G1594,processedjumlahpenduduktingkatp!G1599,processedjumlahpenduduktingkatp!G1604,processedjumlahpenduduktingkatp!G1609,processedjumlahpenduduktingkatp!G1614)</f>
+        <v>261226</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="26"/>
+        <v>554314</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="39"/>
+        <v>2657177</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="40"/>
+        <v>0.20861011517110076</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="str">
+        <f>processedjumlahpenduduktingkatp!B1550</f>
+        <v>Prov. Kalimantan Barat</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <f>SUM(processedjumlahpenduduktingkatp!F1550,processedjumlahpenduduktingkatp!F1555,processedjumlahpenduduktingkatp!F1560,processedjumlahpenduduktingkatp!F1565,processedjumlahpenduduktingkatp!F1570,processedjumlahpenduduktingkatp!F1575,processedjumlahpenduduktingkatp!F1580,processedjumlahpenduduktingkatp!F1585,processedjumlahpenduduktingkatp!F1590,processedjumlahpenduduktingkatp!F1595,processedjumlahpenduduktingkatp!F1600,processedjumlahpenduduktingkatp!F1605,processedjumlahpenduduktingkatp!F1610,processedjumlahpenduduktingkatp!F1615)</f>
+        <v>315577</v>
+      </c>
+      <c r="D100">
+        <f>SUM(processedjumlahpenduduktingkatp!G1550,processedjumlahpenduduktingkatp!G1555,processedjumlahpenduduktingkatp!G1560,processedjumlahpenduduktingkatp!G1565,processedjumlahpenduduktingkatp!G1570,processedjumlahpenduduktingkatp!G1575,processedjumlahpenduduktingkatp!G1580,processedjumlahpenduduktingkatp!G1585,processedjumlahpenduduktingkatp!G1590,processedjumlahpenduduktingkatp!G1595,processedjumlahpenduduktingkatp!G1600,processedjumlahpenduduktingkatp!G1605,processedjumlahpenduduktingkatp!G1610,processedjumlahpenduduktingkatp!G1615)</f>
+        <v>245942</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="26"/>
+        <v>561519</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="39"/>
+        <v>2657177</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="40"/>
+        <v>0.21132163946925628</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="str">
+        <f>processedjumlahpenduduktingkatp!B1551</f>
+        <v>Prov. Kalimantan Barat</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101">
+        <f>SUM(processedjumlahpenduduktingkatp!F1551,processedjumlahpenduduktingkatp!F1556,processedjumlahpenduduktingkatp!F1561,processedjumlahpenduduktingkatp!F1566,processedjumlahpenduduktingkatp!F1571,processedjumlahpenduduktingkatp!F1576,processedjumlahpenduduktingkatp!F1581,processedjumlahpenduduktingkatp!F1586,processedjumlahpenduduktingkatp!F1591,processedjumlahpenduduktingkatp!F1596,processedjumlahpenduduktingkatp!F1601,processedjumlahpenduduktingkatp!F1606,processedjumlahpenduduktingkatp!F1611,processedjumlahpenduduktingkatp!F1616)</f>
+        <v>74357</v>
+      </c>
+      <c r="D101">
+        <f>SUM(processedjumlahpenduduktingkatp!G1551,processedjumlahpenduduktingkatp!G1556,processedjumlahpenduduktingkatp!G1561,processedjumlahpenduduktingkatp!G1566,processedjumlahpenduduktingkatp!G1571,processedjumlahpenduduktingkatp!G1576,processedjumlahpenduduktingkatp!G1581,processedjumlahpenduduktingkatp!G1586,processedjumlahpenduduktingkatp!G1591,processedjumlahpenduduktingkatp!G1596,processedjumlahpenduduktingkatp!G1601,processedjumlahpenduduktingkatp!G1606,processedjumlahpenduduktingkatp!G1611,processedjumlahpenduduktingkatp!G1616)</f>
+        <v>63358</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="26"/>
+        <v>137715</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="39"/>
+        <v>2657177</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="40"/>
+        <v>5.1827559850171817E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="str">
+        <f>processedjumlahpenduduktingkatp!B1617</f>
+        <v>Prov. Kalimantan Tengah</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <f>SUM(processedjumlahpenduduktingkatp!F1617,processedjumlahpenduduktingkatp!F1622,processedjumlahpenduduktingkatp!F1627,processedjumlahpenduduktingkatp!F1632,processedjumlahpenduduktingkatp!F1637,processedjumlahpenduduktingkatp!F1642,processedjumlahpenduduktingkatp!F1647,processedjumlahpenduduktingkatp!F1652,processedjumlahpenduduktingkatp!F1657,processedjumlahpenduduktingkatp!F1662,processedjumlahpenduduktingkatp!F1667,processedjumlahpenduduktingkatp!F1672,processedjumlahpenduduktingkatp!F1677,processedjumlahpenduduktingkatp!F1682)</f>
+        <v>63700</v>
+      </c>
+      <c r="D102">
+        <f>SUM(processedjumlahpenduduktingkatp!G1617,processedjumlahpenduduktingkatp!G1622,processedjumlahpenduduktingkatp!G1627,processedjumlahpenduduktingkatp!G1632,processedjumlahpenduduktingkatp!G1637,processedjumlahpenduduktingkatp!G1642,processedjumlahpenduduktingkatp!G1647,processedjumlahpenduduktingkatp!G1652,processedjumlahpenduduktingkatp!G1657,processedjumlahpenduduktingkatp!G1662,processedjumlahpenduduktingkatp!G1667,processedjumlahpenduduktingkatp!G1672,processedjumlahpenduduktingkatp!G1677,processedjumlahpenduduktingkatp!G1682)</f>
+        <v>73112</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="26"/>
+        <v>136812</v>
+      </c>
+      <c r="F102">
+        <f>SUM($E$102:$E$106)</f>
+        <v>1480917</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="40"/>
+        <v>9.2383300347014724E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="str">
+        <f>processedjumlahpenduduktingkatp!B1618</f>
+        <v>Prov. Kalimantan Tengah</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <f>SUM(processedjumlahpenduduktingkatp!F1618,processedjumlahpenduduktingkatp!F1623,processedjumlahpenduduktingkatp!F1628,processedjumlahpenduduktingkatp!F1633,processedjumlahpenduduktingkatp!F1638,processedjumlahpenduduktingkatp!F1643,processedjumlahpenduduktingkatp!F1648,processedjumlahpenduduktingkatp!F1653,processedjumlahpenduduktingkatp!F1658,processedjumlahpenduduktingkatp!F1663,processedjumlahpenduduktingkatp!F1668,processedjumlahpenduduktingkatp!F1673,processedjumlahpenduduktingkatp!F1678,processedjumlahpenduduktingkatp!F1683)</f>
+        <v>295717</v>
+      </c>
+      <c r="D103">
+        <f>SUM(processedjumlahpenduduktingkatp!G1618,processedjumlahpenduduktingkatp!G1623,processedjumlahpenduduktingkatp!G1628,processedjumlahpenduduktingkatp!G1633,processedjumlahpenduduktingkatp!G1638,processedjumlahpenduduktingkatp!G1643,processedjumlahpenduduktingkatp!G1648,processedjumlahpenduduktingkatp!G1653,processedjumlahpenduduktingkatp!G1658,processedjumlahpenduduktingkatp!G1663,processedjumlahpenduduktingkatp!G1668,processedjumlahpenduduktingkatp!G1673,processedjumlahpenduduktingkatp!G1678,processedjumlahpenduduktingkatp!G1683)</f>
+        <v>284849</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="26"/>
+        <v>580566</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ref="F103:F106" si="41">SUM($E$102:$E$106)</f>
+        <v>1480917</v>
+      </c>
+      <c r="G103">
+        <f t="shared" ref="G103:G107" si="42">E103/F103</f>
+        <v>0.39203142377324318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="str">
+        <f>processedjumlahpenduduktingkatp!B1619</f>
+        <v>Prov. Kalimantan Tengah</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104">
+        <f>SUM(processedjumlahpenduduktingkatp!F1619,processedjumlahpenduduktingkatp!F1624,processedjumlahpenduduktingkatp!F1629,processedjumlahpenduduktingkatp!F1634,processedjumlahpenduduktingkatp!F1639,processedjumlahpenduduktingkatp!F1644,processedjumlahpenduduktingkatp!F1649,processedjumlahpenduduktingkatp!F1654,processedjumlahpenduduktingkatp!F1659,processedjumlahpenduduktingkatp!F1664,processedjumlahpenduduktingkatp!F1669,processedjumlahpenduduktingkatp!F1674,processedjumlahpenduduktingkatp!F1679,processedjumlahpenduduktingkatp!F1684)</f>
+        <v>187087</v>
+      </c>
+      <c r="D104">
+        <f>SUM(processedjumlahpenduduktingkatp!G1619,processedjumlahpenduduktingkatp!G1624,processedjumlahpenduduktingkatp!G1629,processedjumlahpenduduktingkatp!G1634,processedjumlahpenduduktingkatp!G1639,processedjumlahpenduduktingkatp!G1644,processedjumlahpenduduktingkatp!G1649,processedjumlahpenduduktingkatp!G1654,processedjumlahpenduduktingkatp!G1659,processedjumlahpenduduktingkatp!G1664,processedjumlahpenduduktingkatp!G1669,processedjumlahpenduduktingkatp!G1674,processedjumlahpenduduktingkatp!G1679,processedjumlahpenduduktingkatp!G1684)</f>
+        <v>157797</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="26"/>
+        <v>344884</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="41"/>
+        <v>1480917</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="42"/>
+        <v>0.23288543517293678</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="str">
+        <f>processedjumlahpenduduktingkatp!B1620</f>
+        <v>Prov. Kalimantan Tengah</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105">
+        <f>SUM(processedjumlahpenduduktingkatp!F1620,processedjumlahpenduduktingkatp!F1625,processedjumlahpenduduktingkatp!F1630,processedjumlahpenduduktingkatp!F1635,processedjumlahpenduduktingkatp!F1640,processedjumlahpenduduktingkatp!F1645,processedjumlahpenduduktingkatp!F1650,processedjumlahpenduduktingkatp!F1655,processedjumlahpenduduktingkatp!F1660,processedjumlahpenduduktingkatp!F1665,processedjumlahpenduduktingkatp!F1670,processedjumlahpenduduktingkatp!F1675,processedjumlahpenduduktingkatp!F1680,processedjumlahpenduduktingkatp!F1685)</f>
+        <v>186172</v>
+      </c>
+      <c r="D105">
+        <f>SUM(processedjumlahpenduduktingkatp!G1620,processedjumlahpenduduktingkatp!G1625,processedjumlahpenduduktingkatp!G1630,processedjumlahpenduduktingkatp!G1635,processedjumlahpenduduktingkatp!G1640,processedjumlahpenduduktingkatp!G1645,processedjumlahpenduduktingkatp!G1650,processedjumlahpenduduktingkatp!G1655,processedjumlahpenduduktingkatp!G1660,processedjumlahpenduduktingkatp!G1665,processedjumlahpenduduktingkatp!G1670,processedjumlahpenduduktingkatp!G1675,processedjumlahpenduduktingkatp!G1680,processedjumlahpenduduktingkatp!G1685)</f>
+        <v>134863</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="26"/>
+        <v>321035</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="41"/>
+        <v>1480917</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="42"/>
+        <v>0.2167812240658997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="str">
+        <f>processedjumlahpenduduktingkatp!B1621</f>
+        <v>Prov. Kalimantan Tengah</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <f>SUM(processedjumlahpenduduktingkatp!F1621,processedjumlahpenduduktingkatp!F1626,processedjumlahpenduduktingkatp!F1631,processedjumlahpenduduktingkatp!F1636,processedjumlahpenduduktingkatp!F1641,processedjumlahpenduduktingkatp!F1646,processedjumlahpenduduktingkatp!F1651,processedjumlahpenduduktingkatp!F1656,processedjumlahpenduduktingkatp!F1661,processedjumlahpenduduktingkatp!F1666,processedjumlahpenduduktingkatp!F1671,processedjumlahpenduduktingkatp!F1676,processedjumlahpenduduktingkatp!F1681,processedjumlahpenduduktingkatp!F1686)</f>
+        <v>51615</v>
+      </c>
+      <c r="D106">
+        <f>SUM(processedjumlahpenduduktingkatp!G1621,processedjumlahpenduduktingkatp!G1626,processedjumlahpenduduktingkatp!G1631,processedjumlahpenduduktingkatp!G1636,processedjumlahpenduduktingkatp!G1641,processedjumlahpenduduktingkatp!G1646,processedjumlahpenduduktingkatp!G1651,processedjumlahpenduduktingkatp!G1656,processedjumlahpenduduktingkatp!G1661,processedjumlahpenduduktingkatp!G1666,processedjumlahpenduduktingkatp!G1671,processedjumlahpenduduktingkatp!G1676,processedjumlahpenduduktingkatp!G1681,processedjumlahpenduduktingkatp!G1686)</f>
+        <v>46005</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="26"/>
+        <v>97620</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="41"/>
+        <v>1480917</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="42"/>
+        <v>6.5918616640905606E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="str">
+        <f>processedjumlahpenduduktingkatp!B1687</f>
+        <v>Prov. Kalimantan Selatan</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107">
+        <f>SUM(processedjumlahpenduduktingkatp!F1687,processedjumlahpenduduktingkatp!F1692,processedjumlahpenduduktingkatp!F1697,processedjumlahpenduduktingkatp!F1702,processedjumlahpenduduktingkatp!F1707,processedjumlahpenduduktingkatp!F1712,processedjumlahpenduduktingkatp!F1717,processedjumlahpenduduktingkatp!F1722,processedjumlahpenduduktingkatp!F1727,processedjumlahpenduduktingkatp!F1732,processedjumlahpenduduktingkatp!F1737,processedjumlahpenduduktingkatp!F1742,processedjumlahpenduduktingkatp!F1747)</f>
+        <v>134507</v>
+      </c>
+      <c r="D107">
+        <f>SUM(processedjumlahpenduduktingkatp!G1687,processedjumlahpenduduktingkatp!G1692,processedjumlahpenduduktingkatp!G1697,processedjumlahpenduduktingkatp!G1702,processedjumlahpenduduktingkatp!G1707,processedjumlahpenduduktingkatp!G1712,processedjumlahpenduduktingkatp!G1717,processedjumlahpenduduktingkatp!G1722,processedjumlahpenduduktingkatp!G1727,processedjumlahpenduduktingkatp!G1732,processedjumlahpenduduktingkatp!G1737,processedjumlahpenduduktingkatp!G1742,processedjumlahpenduduktingkatp!G1747)</f>
+        <v>166183</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="26"/>
+        <v>300690</v>
+      </c>
+      <c r="F107">
+        <f>SUM($E$107:$E$111)</f>
+        <v>2445617</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="42"/>
+        <v>0.12295056830239567</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="str">
+        <f>processedjumlahpenduduktingkatp!B1688</f>
+        <v>Prov. Kalimantan Selatan</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108">
+        <f>SUM(processedjumlahpenduduktingkatp!F1688,processedjumlahpenduduktingkatp!F1693,processedjumlahpenduduktingkatp!F1698,processedjumlahpenduduktingkatp!F1703,processedjumlahpenduduktingkatp!F1708,processedjumlahpenduduktingkatp!F1713,processedjumlahpenduduktingkatp!F1718,processedjumlahpenduduktingkatp!F1723,processedjumlahpenduduktingkatp!F1728,processedjumlahpenduduktingkatp!F1733,processedjumlahpenduduktingkatp!F1738,processedjumlahpenduduktingkatp!F1743,processedjumlahpenduduktingkatp!F1748)</f>
+        <v>447360</v>
+      </c>
+      <c r="D108">
+        <f>SUM(processedjumlahpenduduktingkatp!G1688,processedjumlahpenduduktingkatp!G1693,processedjumlahpenduduktingkatp!G1698,processedjumlahpenduduktingkatp!G1703,processedjumlahpenduduktingkatp!G1708,processedjumlahpenduduktingkatp!G1713,processedjumlahpenduduktingkatp!G1718,processedjumlahpenduduktingkatp!G1723,processedjumlahpenduduktingkatp!G1728,processedjumlahpenduduktingkatp!G1733,processedjumlahpenduduktingkatp!G1738,processedjumlahpenduduktingkatp!G1743,processedjumlahpenduduktingkatp!G1748)</f>
+        <v>461178</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="26"/>
+        <v>908538</v>
+      </c>
+      <c r="F108">
+        <f t="shared" ref="F108:F111" si="43">SUM($E$107:$E$111)</f>
+        <v>2445617</v>
+      </c>
+      <c r="G108">
+        <f t="shared" ref="G108:G112" si="44">E108/F108</f>
+        <v>0.37149643627763462</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="str">
+        <f>processedjumlahpenduduktingkatp!B1689</f>
+        <v>Prov. Kalimantan Selatan</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109">
+        <f>SUM(processedjumlahpenduduktingkatp!F1689,processedjumlahpenduduktingkatp!F1694,processedjumlahpenduduktingkatp!F1699,processedjumlahpenduduktingkatp!F1704,processedjumlahpenduduktingkatp!F1709,processedjumlahpenduduktingkatp!F1714,processedjumlahpenduduktingkatp!F1719,processedjumlahpenduduktingkatp!F1724,processedjumlahpenduduktingkatp!F1729,processedjumlahpenduduktingkatp!F1734,processedjumlahpenduduktingkatp!F1739,processedjumlahpenduduktingkatp!F1744,processedjumlahpenduduktingkatp!F1749)</f>
+        <v>277698</v>
+      </c>
+      <c r="D109">
+        <f>SUM(processedjumlahpenduduktingkatp!G1689,processedjumlahpenduduktingkatp!G1694,processedjumlahpenduduktingkatp!G1699,processedjumlahpenduduktingkatp!G1704,processedjumlahpenduduktingkatp!G1709,processedjumlahpenduduktingkatp!G1714,processedjumlahpenduduktingkatp!G1719,processedjumlahpenduduktingkatp!G1724,processedjumlahpenduduktingkatp!G1729,processedjumlahpenduduktingkatp!G1734,processedjumlahpenduduktingkatp!G1739,processedjumlahpenduduktingkatp!G1744,processedjumlahpenduduktingkatp!G1749)</f>
+        <v>257088</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="26"/>
+        <v>534786</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="43"/>
+        <v>2445617</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="44"/>
+        <v>0.21867119831110104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="str">
+        <f>processedjumlahpenduduktingkatp!B1690</f>
+        <v>Prov. Kalimantan Selatan</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110">
+        <f>SUM(processedjumlahpenduduktingkatp!F1690,processedjumlahpenduduktingkatp!F1695,processedjumlahpenduduktingkatp!F1700,processedjumlahpenduduktingkatp!F1705,processedjumlahpenduduktingkatp!F1710,processedjumlahpenduduktingkatp!F1715,processedjumlahpenduduktingkatp!F1720,processedjumlahpenduduktingkatp!F1725,processedjumlahpenduduktingkatp!F1730,processedjumlahpenduduktingkatp!F1735,processedjumlahpenduduktingkatp!F1740,processedjumlahpenduduktingkatp!F1745,processedjumlahpenduduktingkatp!F1750)</f>
+        <v>305319</v>
+      </c>
+      <c r="D110">
+        <f>SUM(processedjumlahpenduduktingkatp!G1690,processedjumlahpenduduktingkatp!G1695,processedjumlahpenduduktingkatp!G1700,processedjumlahpenduduktingkatp!G1705,processedjumlahpenduduktingkatp!G1710,processedjumlahpenduduktingkatp!G1715,processedjumlahpenduduktingkatp!G1720,processedjumlahpenduduktingkatp!G1725,processedjumlahpenduduktingkatp!G1730,processedjumlahpenduduktingkatp!G1735,processedjumlahpenduduktingkatp!G1740,processedjumlahpenduduktingkatp!G1745,processedjumlahpenduduktingkatp!G1750)</f>
+        <v>238462</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="26"/>
+        <v>543781</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="43"/>
+        <v>2445617</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="44"/>
+        <v>0.22234920676459152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="str">
+        <f>processedjumlahpenduduktingkatp!B1691</f>
+        <v>Prov. Kalimantan Selatan</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111">
+        <f>SUM(processedjumlahpenduduktingkatp!F1691,processedjumlahpenduduktingkatp!F1696,processedjumlahpenduduktingkatp!F1701,processedjumlahpenduduktingkatp!F1706,processedjumlahpenduduktingkatp!F1711,processedjumlahpenduduktingkatp!F1716,processedjumlahpenduduktingkatp!F1721,processedjumlahpenduduktingkatp!F1726,processedjumlahpenduduktingkatp!F1731,processedjumlahpenduduktingkatp!F1736,processedjumlahpenduduktingkatp!F1741,processedjumlahpenduduktingkatp!F1746,processedjumlahpenduduktingkatp!F1751)</f>
+        <v>81462</v>
+      </c>
+      <c r="D111">
+        <f>SUM(processedjumlahpenduduktingkatp!G1691,processedjumlahpenduduktingkatp!G1696,processedjumlahpenduduktingkatp!G1701,processedjumlahpenduduktingkatp!G1706,processedjumlahpenduduktingkatp!G1711,processedjumlahpenduduktingkatp!G1716,processedjumlahpenduduktingkatp!G1721,processedjumlahpenduduktingkatp!G1726,processedjumlahpenduduktingkatp!G1731,processedjumlahpenduduktingkatp!G1736,processedjumlahpenduduktingkatp!G1741,processedjumlahpenduduktingkatp!G1746,processedjumlahpenduduktingkatp!G1751)</f>
+        <v>76360</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="26"/>
+        <v>157822</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="43"/>
+        <v>2445617</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="44"/>
+        <v>6.4532590344277135E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="str">
+        <f>processedjumlahpenduduktingkatp!B1752</f>
+        <v>Prov. Kalimantan Timur</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <f>SUM(processedjumlahpenduduktingkatp!F1752,processedjumlahpenduduktingkatp!F1757,processedjumlahpenduduktingkatp!F1762,processedjumlahpenduduktingkatp!F1767,processedjumlahpenduduktingkatp!F1772,processedjumlahpenduduktingkatp!F1777,processedjumlahpenduduktingkatp!F1782,processedjumlahpenduduktingkatp!F1787,processedjumlahpenduduktingkatp!F1792,processedjumlahpenduduktingkatp!F1797,processedjumlahpenduduktingkatp!F1802,processedjumlahpenduduktingkatp!F1807,processedjumlahpenduduktingkatp!F1812,processedjumlahpenduduktingkatp!F1817)</f>
+        <v>80602</v>
+      </c>
+      <c r="D112">
+        <f>SUM(processedjumlahpenduduktingkatp!G1752,processedjumlahpenduduktingkatp!G1757,processedjumlahpenduduktingkatp!G1762,processedjumlahpenduduktingkatp!G1767,processedjumlahpenduduktingkatp!G1772,processedjumlahpenduduktingkatp!G1777,processedjumlahpenduduktingkatp!G1782,processedjumlahpenduduktingkatp!G1787,processedjumlahpenduduktingkatp!G1792,processedjumlahpenduduktingkatp!G1797,processedjumlahpenduduktingkatp!G1802,processedjumlahpenduduktingkatp!G1807,processedjumlahpenduduktingkatp!G1812,processedjumlahpenduduktingkatp!G1817)</f>
+        <v>89424</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="26"/>
+        <v>170026</v>
+      </c>
+      <c r="F112">
+        <f>SUM($E$112:$E$116)</f>
+        <v>2379527</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="44"/>
+        <v>7.145369646992869E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="str">
+        <f>processedjumlahpenduduktingkatp!B1753</f>
+        <v>Prov. Kalimantan Timur</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <f>SUM(processedjumlahpenduduktingkatp!F1753,processedjumlahpenduduktingkatp!F1758,processedjumlahpenduduktingkatp!F1763,processedjumlahpenduduktingkatp!F1768,processedjumlahpenduduktingkatp!F1773,processedjumlahpenduduktingkatp!F1778,processedjumlahpenduduktingkatp!F1783,processedjumlahpenduduktingkatp!F1788,processedjumlahpenduduktingkatp!F1793,processedjumlahpenduduktingkatp!F1798,processedjumlahpenduduktingkatp!F1803,processedjumlahpenduduktingkatp!F1808,processedjumlahpenduduktingkatp!F1813,processedjumlahpenduduktingkatp!F1818)</f>
+        <v>327315</v>
+      </c>
+      <c r="D113">
+        <f>SUM(processedjumlahpenduduktingkatp!G1753,processedjumlahpenduduktingkatp!G1758,processedjumlahpenduduktingkatp!G1763,processedjumlahpenduduktingkatp!G1768,processedjumlahpenduduktingkatp!G1773,processedjumlahpenduduktingkatp!G1778,processedjumlahpenduduktingkatp!G1783,processedjumlahpenduduktingkatp!G1788,processedjumlahpenduduktingkatp!G1793,processedjumlahpenduduktingkatp!G1798,processedjumlahpenduduktingkatp!G1803,processedjumlahpenduduktingkatp!G1808,processedjumlahpenduduktingkatp!G1813,processedjumlahpenduduktingkatp!G1818)</f>
+        <v>333620</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="26"/>
+        <v>660935</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ref="F113:F116" si="45">SUM($E$112:$E$116)</f>
+        <v>2379527</v>
+      </c>
+      <c r="G113">
+        <f t="shared" ref="G113:G117" si="46">E113/F113</f>
+        <v>0.27775898319287823</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="str">
+        <f>processedjumlahpenduduktingkatp!B1754</f>
+        <v>Prov. Kalimantan Timur</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114">
+        <f>SUM(processedjumlahpenduduktingkatp!F1754,processedjumlahpenduduktingkatp!F1759,processedjumlahpenduduktingkatp!F1764,processedjumlahpenduduktingkatp!F1769,processedjumlahpenduduktingkatp!F1774,processedjumlahpenduduktingkatp!F1779,processedjumlahpenduduktingkatp!F1784,processedjumlahpenduduktingkatp!F1789,processedjumlahpenduduktingkatp!F1794,processedjumlahpenduduktingkatp!F1799,processedjumlahpenduduktingkatp!F1804,processedjumlahpenduduktingkatp!F1809,processedjumlahpenduduktingkatp!F1814,processedjumlahpenduduktingkatp!F1819)</f>
+        <v>286709</v>
+      </c>
+      <c r="D114">
+        <f>SUM(processedjumlahpenduduktingkatp!G1754,processedjumlahpenduduktingkatp!G1759,processedjumlahpenduduktingkatp!G1764,processedjumlahpenduduktingkatp!G1769,processedjumlahpenduduktingkatp!G1774,processedjumlahpenduduktingkatp!G1779,processedjumlahpenduduktingkatp!G1784,processedjumlahpenduduktingkatp!G1789,processedjumlahpenduduktingkatp!G1794,processedjumlahpenduduktingkatp!G1799,processedjumlahpenduduktingkatp!G1804,processedjumlahpenduduktingkatp!G1809,processedjumlahpenduduktingkatp!G1814,processedjumlahpenduduktingkatp!G1819)</f>
+        <v>253600</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="26"/>
+        <v>540309</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="45"/>
+        <v>2379527</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="46"/>
+        <v>0.2270657151610383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="str">
+        <f>processedjumlahpenduduktingkatp!B1755</f>
+        <v>Prov. Kalimantan Timur</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115">
+        <f>SUM(processedjumlahpenduduktingkatp!F1755,processedjumlahpenduduktingkatp!F1760,processedjumlahpenduduktingkatp!F1765,processedjumlahpenduduktingkatp!F1770,processedjumlahpenduduktingkatp!F1775,processedjumlahpenduduktingkatp!F1780,processedjumlahpenduduktingkatp!F1785,processedjumlahpenduduktingkatp!F1790,processedjumlahpenduduktingkatp!F1795,processedjumlahpenduduktingkatp!F1800,processedjumlahpenduduktingkatp!F1805,processedjumlahpenduduktingkatp!F1810,processedjumlahpenduduktingkatp!F1815,processedjumlahpenduduktingkatp!F1820)</f>
+        <v>471442</v>
+      </c>
+      <c r="D115">
+        <f>SUM(processedjumlahpenduduktingkatp!G1755,processedjumlahpenduduktingkatp!G1760,processedjumlahpenduduktingkatp!G1765,processedjumlahpenduduktingkatp!G1770,processedjumlahpenduduktingkatp!G1775,processedjumlahpenduduktingkatp!G1780,processedjumlahpenduduktingkatp!G1785,processedjumlahpenduduktingkatp!G1790,processedjumlahpenduduktingkatp!G1795,processedjumlahpenduduktingkatp!G1800,processedjumlahpenduduktingkatp!G1805,processedjumlahpenduduktingkatp!G1810,processedjumlahpenduduktingkatp!G1815,processedjumlahpenduduktingkatp!G1820)</f>
+        <v>335381</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="26"/>
+        <v>806823</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="45"/>
+        <v>2379527</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="46"/>
+        <v>0.33906864683611493</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="str">
+        <f>processedjumlahpenduduktingkatp!B1756</f>
+        <v>Prov. Kalimantan Timur</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116">
+        <f>SUM(processedjumlahpenduduktingkatp!F1756,processedjumlahpenduduktingkatp!F1761,processedjumlahpenduduktingkatp!F1766,processedjumlahpenduduktingkatp!F1771,processedjumlahpenduduktingkatp!F1776,processedjumlahpenduduktingkatp!F1781,processedjumlahpenduduktingkatp!F1786,processedjumlahpenduduktingkatp!F1791,processedjumlahpenduduktingkatp!F1796,processedjumlahpenduduktingkatp!F1801,processedjumlahpenduduktingkatp!F1806,processedjumlahpenduduktingkatp!F1811,processedjumlahpenduduktingkatp!F1816,processedjumlahpenduduktingkatp!F1821)</f>
+        <v>109965</v>
+      </c>
+      <c r="D116">
+        <f>SUM(processedjumlahpenduduktingkatp!G1756,processedjumlahpenduduktingkatp!G1761,processedjumlahpenduduktingkatp!G1766,processedjumlahpenduduktingkatp!G1771,processedjumlahpenduduktingkatp!G1776,processedjumlahpenduduktingkatp!G1781,processedjumlahpenduduktingkatp!G1786,processedjumlahpenduduktingkatp!G1791,processedjumlahpenduduktingkatp!G1796,processedjumlahpenduduktingkatp!G1801,processedjumlahpenduduktingkatp!G1806,processedjumlahpenduduktingkatp!G1811,processedjumlahpenduduktingkatp!G1816,processedjumlahpenduduktingkatp!G1821)</f>
+        <v>91469</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="26"/>
+        <v>201434</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="45"/>
+        <v>2379527</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="46"/>
+        <v>8.4652958340039844E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="str">
+        <f>processedjumlahpenduduktingkatp!B1822</f>
+        <v>Prov. Sulawesi Utara</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117">
+        <f>SUM(processedjumlahpenduduktingkatp!F1822,processedjumlahpenduduktingkatp!F1827,processedjumlahpenduduktingkatp!F1832,processedjumlahpenduduktingkatp!F1837,processedjumlahpenduduktingkatp!F1842,processedjumlahpenduduktingkatp!F1847,processedjumlahpenduduktingkatp!F1852,processedjumlahpenduduktingkatp!F1857,processedjumlahpenduduktingkatp!F1862,processedjumlahpenduduktingkatp!F1867,processedjumlahpenduduktingkatp!F1872,processedjumlahpenduduktingkatp!F1877,processedjumlahpenduduktingkatp!F1882,processedjumlahpenduduktingkatp!F1887,processedjumlahpenduduktingkatp!F1892)</f>
+        <v>83990</v>
+      </c>
+      <c r="D117">
+        <f>SUM(processedjumlahpenduduktingkatp!G1822,processedjumlahpenduduktingkatp!G1827,processedjumlahpenduduktingkatp!G1832,processedjumlahpenduduktingkatp!G1837,processedjumlahpenduduktingkatp!G1842,processedjumlahpenduduktingkatp!G1847,processedjumlahpenduduktingkatp!G1852,processedjumlahpenduduktingkatp!G1857,processedjumlahpenduduktingkatp!G1862,processedjumlahpenduduktingkatp!G1867,processedjumlahpenduduktingkatp!G1872,processedjumlahpenduduktingkatp!G1877,processedjumlahpenduduktingkatp!G1882,processedjumlahpenduduktingkatp!G1887,processedjumlahpenduduktingkatp!G1892)</f>
+        <v>79133</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="26"/>
+        <v>163123</v>
+      </c>
+      <c r="F117">
+        <f>SUM($E$117:$E$121)</f>
+        <v>1616456</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="46"/>
+        <v>0.10091397476949573</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="str">
+        <f>processedjumlahpenduduktingkatp!B1823</f>
+        <v>Prov. Sulawesi Utara</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <f>SUM(processedjumlahpenduduktingkatp!F1823,processedjumlahpenduduktingkatp!F1828,processedjumlahpenduduktingkatp!F1833,processedjumlahpenduduktingkatp!F1838,processedjumlahpenduduktingkatp!F1843,processedjumlahpenduduktingkatp!F1848,processedjumlahpenduduktingkatp!F1853,processedjumlahpenduduktingkatp!F1858,processedjumlahpenduduktingkatp!F1863,processedjumlahpenduduktingkatp!F1868,processedjumlahpenduduktingkatp!F1873,processedjumlahpenduduktingkatp!F1878,processedjumlahpenduduktingkatp!F1883,processedjumlahpenduduktingkatp!F1888,processedjumlahpenduduktingkatp!F1893)</f>
+        <v>228118</v>
+      </c>
+      <c r="D118">
+        <f>SUM(processedjumlahpenduduktingkatp!G1823,processedjumlahpenduduktingkatp!G1828,processedjumlahpenduduktingkatp!G1833,processedjumlahpenduduktingkatp!G1838,processedjumlahpenduduktingkatp!G1843,processedjumlahpenduduktingkatp!G1848,processedjumlahpenduduktingkatp!G1853,processedjumlahpenduduktingkatp!G1858,processedjumlahpenduduktingkatp!G1863,processedjumlahpenduduktingkatp!G1868,processedjumlahpenduduktingkatp!G1873,processedjumlahpenduduktingkatp!G1878,processedjumlahpenduduktingkatp!G1883,processedjumlahpenduduktingkatp!G1888,processedjumlahpenduduktingkatp!G1893)</f>
+        <v>218426</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="26"/>
+        <v>446544</v>
+      </c>
+      <c r="F118">
+        <f t="shared" ref="F118:F121" si="47">SUM($E$117:$E$121)</f>
+        <v>1616456</v>
+      </c>
+      <c r="G118">
+        <f t="shared" ref="G118:G122" si="48">E118/F118</f>
+        <v>0.27624878128448904</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="str">
+        <f>processedjumlahpenduduktingkatp!B1824</f>
+        <v>Prov. Sulawesi Utara</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119">
+        <f>SUM(processedjumlahpenduduktingkatp!F1824,processedjumlahpenduduktingkatp!F1829,processedjumlahpenduduktingkatp!F1834,processedjumlahpenduduktingkatp!F1839,processedjumlahpenduduktingkatp!F1844,processedjumlahpenduduktingkatp!F1849,processedjumlahpenduduktingkatp!F1854,processedjumlahpenduduktingkatp!F1859,processedjumlahpenduduktingkatp!F1864,processedjumlahpenduduktingkatp!F1869,processedjumlahpenduduktingkatp!F1874,processedjumlahpenduduktingkatp!F1879,processedjumlahpenduduktingkatp!F1884,processedjumlahpenduduktingkatp!F1889,processedjumlahpenduduktingkatp!F1894)</f>
+        <v>195014</v>
+      </c>
+      <c r="D119">
+        <f>SUM(processedjumlahpenduduktingkatp!G1824,processedjumlahpenduduktingkatp!G1829,processedjumlahpenduduktingkatp!G1834,processedjumlahpenduduktingkatp!G1839,processedjumlahpenduduktingkatp!G1844,processedjumlahpenduduktingkatp!G1849,processedjumlahpenduduktingkatp!G1854,processedjumlahpenduduktingkatp!G1859,processedjumlahpenduduktingkatp!G1864,processedjumlahpenduduktingkatp!G1869,processedjumlahpenduduktingkatp!G1874,processedjumlahpenduduktingkatp!G1879,processedjumlahpenduduktingkatp!G1884,processedjumlahpenduduktingkatp!G1889,processedjumlahpenduduktingkatp!G1894)</f>
+        <v>185840</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="26"/>
+        <v>380854</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="47"/>
+        <v>1616456</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="48"/>
+        <v>0.23561049604814482</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="str">
+        <f>processedjumlahpenduduktingkatp!B1825</f>
+        <v>Prov. Sulawesi Utara</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <f>SUM(processedjumlahpenduduktingkatp!F1825,processedjumlahpenduduktingkatp!F1830,processedjumlahpenduduktingkatp!F1835,processedjumlahpenduduktingkatp!F1840,processedjumlahpenduduktingkatp!F1845,processedjumlahpenduduktingkatp!F1850,processedjumlahpenduduktingkatp!F1855,processedjumlahpenduduktingkatp!F1860,processedjumlahpenduduktingkatp!F1865,processedjumlahpenduduktingkatp!F1870,processedjumlahpenduduktingkatp!F1875,processedjumlahpenduduktingkatp!F1880,processedjumlahpenduduktingkatp!F1885,processedjumlahpenduduktingkatp!F1890,processedjumlahpenduduktingkatp!F1895)</f>
+        <v>258985</v>
+      </c>
+      <c r="D120">
+        <f>SUM(processedjumlahpenduduktingkatp!G1825,processedjumlahpenduduktingkatp!G1830,processedjumlahpenduduktingkatp!G1835,processedjumlahpenduduktingkatp!G1840,processedjumlahpenduduktingkatp!G1845,processedjumlahpenduduktingkatp!G1850,processedjumlahpenduduktingkatp!G1855,processedjumlahpenduduktingkatp!G1860,processedjumlahpenduduktingkatp!G1865,processedjumlahpenduduktingkatp!G1870,processedjumlahpenduduktingkatp!G1875,processedjumlahpenduduktingkatp!G1880,processedjumlahpenduduktingkatp!G1885,processedjumlahpenduduktingkatp!G1890,processedjumlahpenduduktingkatp!G1895)</f>
+        <v>250517</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="26"/>
+        <v>509502</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="47"/>
+        <v>1616456</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="48"/>
+        <v>0.31519694937567122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="str">
+        <f>processedjumlahpenduduktingkatp!B1826</f>
+        <v>Prov. Sulawesi Utara</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121">
+        <f>SUM(processedjumlahpenduduktingkatp!F1826,processedjumlahpenduduktingkatp!F1831,processedjumlahpenduduktingkatp!F1836,processedjumlahpenduduktingkatp!F1841,processedjumlahpenduduktingkatp!F1846,processedjumlahpenduduktingkatp!F1851,processedjumlahpenduduktingkatp!F1856,processedjumlahpenduduktingkatp!F1861,processedjumlahpenduduktingkatp!F1866,processedjumlahpenduduktingkatp!F1871,processedjumlahpenduduktingkatp!F1876,processedjumlahpenduduktingkatp!F1881,processedjumlahpenduduktingkatp!F1886,processedjumlahpenduduktingkatp!F1891,processedjumlahpenduduktingkatp!F1896)</f>
+        <v>56104</v>
+      </c>
+      <c r="D121">
+        <f>SUM(processedjumlahpenduduktingkatp!G1826,processedjumlahpenduduktingkatp!G1831,processedjumlahpenduduktingkatp!G1836,processedjumlahpenduduktingkatp!G1841,processedjumlahpenduduktingkatp!G1846,processedjumlahpenduduktingkatp!G1851,processedjumlahpenduduktingkatp!G1856,processedjumlahpenduduktingkatp!G1861,processedjumlahpenduduktingkatp!G1866,processedjumlahpenduduktingkatp!G1871,processedjumlahpenduduktingkatp!G1876,processedjumlahpenduduktingkatp!G1881,processedjumlahpenduduktingkatp!G1886,processedjumlahpenduduktingkatp!G1891,processedjumlahpenduduktingkatp!G1896)</f>
+        <v>60329</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="26"/>
+        <v>116433</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="47"/>
+        <v>1616456</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="48"/>
+        <v>7.2029798522199179E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="str">
+        <f>processedjumlahpenduduktingkatp!B1897</f>
+        <v>Prov. Sulawesi Tengah</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122">
+        <f>SUM(processedjumlahpenduduktingkatp!F1897,processedjumlahpenduduktingkatp!F1902,processedjumlahpenduduktingkatp!F1907,processedjumlahpenduduktingkatp!F1912,processedjumlahpenduduktingkatp!F1917,processedjumlahpenduduktingkatp!F1922,processedjumlahpenduduktingkatp!F1927,processedjumlahpenduduktingkatp!F1932,processedjumlahpenduduktingkatp!F1937,processedjumlahpenduduktingkatp!F1942,processedjumlahpenduduktingkatp!F1947)</f>
+        <v>80549</v>
+      </c>
+      <c r="D122">
+        <f>SUM(processedjumlahpenduduktingkatp!G1897,processedjumlahpenduduktingkatp!G1902,processedjumlahpenduduktingkatp!G1907,processedjumlahpenduduktingkatp!G1912,processedjumlahpenduduktingkatp!G1917,processedjumlahpenduduktingkatp!G1922,processedjumlahpenduduktingkatp!G1927,processedjumlahpenduduktingkatp!G1932,processedjumlahpenduduktingkatp!G1937,processedjumlahpenduduktingkatp!G1942,processedjumlahpenduduktingkatp!G1947)</f>
+        <v>80833</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="26"/>
+        <v>161382</v>
+      </c>
+      <c r="F122">
+        <f>SUM($E$122:$E$126)</f>
+        <v>1669864</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="48"/>
+        <v>9.664379853688683E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="str">
+        <f>processedjumlahpenduduktingkatp!B1898</f>
+        <v>Prov. Sulawesi Tengah</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123">
+        <f>SUM(processedjumlahpenduduktingkatp!F1898,processedjumlahpenduduktingkatp!F1903,processedjumlahpenduduktingkatp!F1908,processedjumlahpenduduktingkatp!F1913,processedjumlahpenduduktingkatp!F1918,processedjumlahpenduduktingkatp!F1923,processedjumlahpenduduktingkatp!F1928,processedjumlahpenduduktingkatp!F1933,processedjumlahpenduduktingkatp!F1938,processedjumlahpenduduktingkatp!F1943,processedjumlahpenduduktingkatp!F1948)</f>
+        <v>330720</v>
+      </c>
+      <c r="D123">
+        <f>SUM(processedjumlahpenduduktingkatp!G1898,processedjumlahpenduduktingkatp!G1903,processedjumlahpenduduktingkatp!G1908,processedjumlahpenduduktingkatp!G1913,processedjumlahpenduduktingkatp!G1918,processedjumlahpenduduktingkatp!G1923,processedjumlahpenduduktingkatp!G1928,processedjumlahpenduduktingkatp!G1933,processedjumlahpenduduktingkatp!G1938,processedjumlahpenduduktingkatp!G1943,processedjumlahpenduduktingkatp!G1948)</f>
+        <v>329677</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="26"/>
+        <v>660397</v>
+      </c>
+      <c r="F123">
+        <f t="shared" ref="F123:F126" si="49">SUM($E$122:$E$126)</f>
+        <v>1669864</v>
+      </c>
+      <c r="G123">
+        <f t="shared" ref="G123:G127" si="50">E123/F123</f>
+        <v>0.39547951210397975</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="str">
+        <f>processedjumlahpenduduktingkatp!B1899</f>
+        <v>Prov. Sulawesi Tengah</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124">
+        <f>SUM(processedjumlahpenduduktingkatp!F1899,processedjumlahpenduduktingkatp!F1904,processedjumlahpenduduktingkatp!F1909,processedjumlahpenduduktingkatp!F1914,processedjumlahpenduduktingkatp!F1919,processedjumlahpenduduktingkatp!F1924,processedjumlahpenduduktingkatp!F1929,processedjumlahpenduduktingkatp!F1934,processedjumlahpenduduktingkatp!F1939,processedjumlahpenduduktingkatp!F1944,processedjumlahpenduduktingkatp!F1949)</f>
+        <v>186954</v>
+      </c>
+      <c r="D124">
+        <f>SUM(processedjumlahpenduduktingkatp!G1899,processedjumlahpenduduktingkatp!G1904,processedjumlahpenduduktingkatp!G1909,processedjumlahpenduduktingkatp!G1914,processedjumlahpenduduktingkatp!G1919,processedjumlahpenduduktingkatp!G1924,processedjumlahpenduduktingkatp!G1929,processedjumlahpenduduktingkatp!G1934,processedjumlahpenduduktingkatp!G1939,processedjumlahpenduduktingkatp!G1944,processedjumlahpenduduktingkatp!G1949)</f>
+        <v>172018</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="26"/>
+        <v>358972</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="49"/>
+        <v>1669864</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="50"/>
+        <v>0.21497080001724692</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="str">
+        <f>processedjumlahpenduduktingkatp!B1900</f>
+        <v>Prov. Sulawesi Tengah</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125">
+        <f>SUM(processedjumlahpenduduktingkatp!F1900,processedjumlahpenduduktingkatp!F1905,processedjumlahpenduduktingkatp!F1910,processedjumlahpenduduktingkatp!F1915,processedjumlahpenduduktingkatp!F1920,processedjumlahpenduduktingkatp!F1925,processedjumlahpenduduktingkatp!F1930,processedjumlahpenduduktingkatp!F1935,processedjumlahpenduduktingkatp!F1940,processedjumlahpenduduktingkatp!F1945,processedjumlahpenduduktingkatp!F1950)</f>
+        <v>210317</v>
+      </c>
+      <c r="D125">
+        <f>SUM(processedjumlahpenduduktingkatp!G1900,processedjumlahpenduduktingkatp!G1905,processedjumlahpenduduktingkatp!G1910,processedjumlahpenduduktingkatp!G1915,processedjumlahpenduduktingkatp!G1920,processedjumlahpenduduktingkatp!G1925,processedjumlahpenduduktingkatp!G1930,processedjumlahpenduduktingkatp!G1935,processedjumlahpenduduktingkatp!G1940,processedjumlahpenduduktingkatp!G1945,processedjumlahpenduduktingkatp!G1950)</f>
+        <v>170197</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="26"/>
+        <v>380514</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="49"/>
+        <v>1669864</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="50"/>
+        <v>0.22787125179056497</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="str">
+        <f>processedjumlahpenduduktingkatp!B1901</f>
+        <v>Prov. Sulawesi Tengah</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126">
+        <f>SUM(processedjumlahpenduduktingkatp!F1901,processedjumlahpenduduktingkatp!F1906,processedjumlahpenduduktingkatp!F1911,processedjumlahpenduduktingkatp!F1916,processedjumlahpenduduktingkatp!F1921,processedjumlahpenduduktingkatp!F1926,processedjumlahpenduduktingkatp!F1931,processedjumlahpenduduktingkatp!F1936,processedjumlahpenduduktingkatp!F1941,processedjumlahpenduduktingkatp!F1946,processedjumlahpenduduktingkatp!F1951)</f>
+        <v>52985</v>
+      </c>
+      <c r="D126">
+        <f>SUM(processedjumlahpenduduktingkatp!G1901,processedjumlahpenduduktingkatp!G1906,processedjumlahpenduduktingkatp!G1911,processedjumlahpenduduktingkatp!G1916,processedjumlahpenduduktingkatp!G1921,processedjumlahpenduduktingkatp!G1926,processedjumlahpenduduktingkatp!G1931,processedjumlahpenduduktingkatp!G1936,processedjumlahpenduduktingkatp!G1941,processedjumlahpenduduktingkatp!G1946,processedjumlahpenduduktingkatp!G1951)</f>
+        <v>55614</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="26"/>
+        <v>108599</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="49"/>
+        <v>1669864</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="50"/>
+        <v>6.503463755132155E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="str">
+        <f>processedjumlahpenduduktingkatp!B1952</f>
+        <v>Prov. Sulawesi Selatan</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127">
+        <f>SUM(processedjumlahpenduduktingkatp!F1952,processedjumlahpenduduktingkatp!F1957,processedjumlahpenduduktingkatp!F1962,processedjumlahpenduduktingkatp!F1967,processedjumlahpenduduktingkatp!F1972,processedjumlahpenduduktingkatp!F1977,processedjumlahpenduduktingkatp!F1982,processedjumlahpenduduktingkatp!F1987,processedjumlahpenduduktingkatp!F1992,processedjumlahpenduduktingkatp!F1997,processedjumlahpenduduktingkatp!F2002,processedjumlahpenduduktingkatp!F2007,processedjumlahpenduduktingkatp!F2012,processedjumlahpenduduktingkatp!F2017,processedjumlahpenduduktingkatp!F2022,processedjumlahpenduduktingkatp!F2027,processedjumlahpenduduktingkatp!F2032,processedjumlahpenduduktingkatp!F2037,processedjumlahpenduduktingkatp!F2042,processedjumlahpenduduktingkatp!F2047,processedjumlahpenduduktingkatp!F2052,processedjumlahpenduduktingkatp!F2057,processedjumlahpenduduktingkatp!F2062,processedjumlahpenduduktingkatp!F2067)</f>
+        <v>201314</v>
+      </c>
+      <c r="D127">
+        <f>SUM(processedjumlahpenduduktingkatp!G1952,processedjumlahpenduduktingkatp!G1957,processedjumlahpenduduktingkatp!G1962,processedjumlahpenduduktingkatp!G1967,processedjumlahpenduduktingkatp!G1972,processedjumlahpenduduktingkatp!G1977,processedjumlahpenduduktingkatp!G1982,processedjumlahpenduduktingkatp!G1987,processedjumlahpenduduktingkatp!G1992,processedjumlahpenduduktingkatp!G1997,processedjumlahpenduduktingkatp!G2002,processedjumlahpenduduktingkatp!G2007,processedjumlahpenduduktingkatp!G2012,processedjumlahpenduduktingkatp!G2017,processedjumlahpenduduktingkatp!G2022,processedjumlahpenduduktingkatp!G2027,processedjumlahpenduduktingkatp!G2032,processedjumlahpenduduktingkatp!G2037,processedjumlahpenduduktingkatp!G2042,processedjumlahpenduduktingkatp!G2047,processedjumlahpenduduktingkatp!G2052,processedjumlahpenduduktingkatp!G2057,processedjumlahpenduduktingkatp!G2062,processedjumlahpenduduktingkatp!G2067)</f>
+        <v>226921</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="26"/>
+        <v>428235</v>
+      </c>
+      <c r="F127">
+        <f>SUM($E$127:$E$131)</f>
+        <v>4695203</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="50"/>
+        <v>9.1206919061859515E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="str">
+        <f>processedjumlahpenduduktingkatp!B1953</f>
+        <v>Prov. Sulawesi Selatan</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128">
+        <f>SUM(processedjumlahpenduduktingkatp!F1953,processedjumlahpenduduktingkatp!F1958,processedjumlahpenduduktingkatp!F1963,processedjumlahpenduduktingkatp!F1968,processedjumlahpenduduktingkatp!F1973,processedjumlahpenduduktingkatp!F1978,processedjumlahpenduduktingkatp!F1983,processedjumlahpenduduktingkatp!F1988,processedjumlahpenduduktingkatp!F1993,processedjumlahpenduduktingkatp!F1998,processedjumlahpenduduktingkatp!F2003,processedjumlahpenduduktingkatp!F2008,processedjumlahpenduduktingkatp!F2013,processedjumlahpenduduktingkatp!F2018,processedjumlahpenduduktingkatp!F2023,processedjumlahpenduduktingkatp!F2028,processedjumlahpenduduktingkatp!F2033,processedjumlahpenduduktingkatp!F2038,processedjumlahpenduduktingkatp!F2043,processedjumlahpenduduktingkatp!F2048,processedjumlahpenduduktingkatp!F2053,processedjumlahpenduduktingkatp!F2058,processedjumlahpenduduktingkatp!F2063,processedjumlahpenduduktingkatp!F2068)</f>
+        <v>737157</v>
+      </c>
+      <c r="D128">
+        <f>SUM(processedjumlahpenduduktingkatp!G1953,processedjumlahpenduduktingkatp!G1958,processedjumlahpenduduktingkatp!G1963,processedjumlahpenduduktingkatp!G1968,processedjumlahpenduduktingkatp!G1973,processedjumlahpenduduktingkatp!G1978,processedjumlahpenduduktingkatp!G1983,processedjumlahpenduduktingkatp!G1988,processedjumlahpenduduktingkatp!G1993,processedjumlahpenduduktingkatp!G1998,processedjumlahpenduduktingkatp!G2003,processedjumlahpenduduktingkatp!G2008,processedjumlahpenduduktingkatp!G2013,processedjumlahpenduduktingkatp!G2018,processedjumlahpenduduktingkatp!G2023,processedjumlahpenduduktingkatp!G2028,processedjumlahpenduduktingkatp!G2033,processedjumlahpenduduktingkatp!G2038,processedjumlahpenduduktingkatp!G2043,processedjumlahpenduduktingkatp!G2048,processedjumlahpenduduktingkatp!G2053,processedjumlahpenduduktingkatp!G2058,processedjumlahpenduduktingkatp!G2063,processedjumlahpenduduktingkatp!G2068)</f>
+        <v>836484</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="26"/>
+        <v>1573641</v>
+      </c>
+      <c r="F128">
+        <f t="shared" ref="F128:F131" si="51">SUM($E$127:$E$131)</f>
+        <v>4695203</v>
+      </c>
+      <c r="G128">
+        <f t="shared" ref="G128:G132" si="52">E128/F128</f>
+        <v>0.33515931047070807</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="str">
+        <f>processedjumlahpenduduktingkatp!B1954</f>
+        <v>Prov. Sulawesi Selatan</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129">
+        <f>SUM(processedjumlahpenduduktingkatp!F1954,processedjumlahpenduduktingkatp!F1959,processedjumlahpenduduktingkatp!F1964,processedjumlahpenduduktingkatp!F1969,processedjumlahpenduduktingkatp!F1974,processedjumlahpenduduktingkatp!F1979,processedjumlahpenduduktingkatp!F1984,processedjumlahpenduduktingkatp!F1989,processedjumlahpenduduktingkatp!F1994,processedjumlahpenduduktingkatp!F1999,processedjumlahpenduduktingkatp!F2004,processedjumlahpenduduktingkatp!F2009,processedjumlahpenduduktingkatp!F2014,processedjumlahpenduduktingkatp!F2019,processedjumlahpenduduktingkatp!F2024,processedjumlahpenduduktingkatp!F2029,processedjumlahpenduduktingkatp!F2034,processedjumlahpenduduktingkatp!F2039,processedjumlahpenduduktingkatp!F2044,processedjumlahpenduduktingkatp!F2049,processedjumlahpenduduktingkatp!F2054,processedjumlahpenduduktingkatp!F2059,processedjumlahpenduduktingkatp!F2064,processedjumlahpenduduktingkatp!F2069)</f>
+        <v>476895</v>
+      </c>
+      <c r="D129">
+        <f>SUM(processedjumlahpenduduktingkatp!G1954,processedjumlahpenduduktingkatp!G1959,processedjumlahpenduduktingkatp!G1964,processedjumlahpenduduktingkatp!G1969,processedjumlahpenduduktingkatp!G1974,processedjumlahpenduduktingkatp!G1979,processedjumlahpenduduktingkatp!G1984,processedjumlahpenduduktingkatp!G1989,processedjumlahpenduduktingkatp!G1994,processedjumlahpenduduktingkatp!G1999,processedjumlahpenduduktingkatp!G2004,processedjumlahpenduduktingkatp!G2009,processedjumlahpenduduktingkatp!G2014,processedjumlahpenduduktingkatp!G2019,processedjumlahpenduduktingkatp!G2024,processedjumlahpenduduktingkatp!G2029,processedjumlahpenduduktingkatp!G2034,processedjumlahpenduduktingkatp!G2039,processedjumlahpenduduktingkatp!G2044,processedjumlahpenduduktingkatp!G2049,processedjumlahpenduduktingkatp!G2054,processedjumlahpenduduktingkatp!G2059,processedjumlahpenduduktingkatp!G2064,processedjumlahpenduduktingkatp!G2069)</f>
+        <v>507324</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="26"/>
+        <v>984219</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="51"/>
+        <v>4695203</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="52"/>
+        <v>0.20962224636506666</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="str">
+        <f>processedjumlahpenduduktingkatp!B1955</f>
+        <v>Prov. Sulawesi Selatan</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130">
+        <f>SUM(processedjumlahpenduduktingkatp!F1955,processedjumlahpenduduktingkatp!F1960,processedjumlahpenduduktingkatp!F1965,processedjumlahpenduduktingkatp!F1970,processedjumlahpenduduktingkatp!F1975,processedjumlahpenduduktingkatp!F1980,processedjumlahpenduduktingkatp!F1985,processedjumlahpenduduktingkatp!F1990,processedjumlahpenduduktingkatp!F1995,processedjumlahpenduduktingkatp!F2000,processedjumlahpenduduktingkatp!F2005,processedjumlahpenduduktingkatp!F2010,processedjumlahpenduduktingkatp!F2015,processedjumlahpenduduktingkatp!F2020,processedjumlahpenduduktingkatp!F2025,processedjumlahpenduduktingkatp!F2030,processedjumlahpenduduktingkatp!F2035,processedjumlahpenduduktingkatp!F2040,processedjumlahpenduduktingkatp!F2045,processedjumlahpenduduktingkatp!F2050,processedjumlahpenduduktingkatp!F2055,processedjumlahpenduduktingkatp!F2060,processedjumlahpenduduktingkatp!F2065,processedjumlahpenduduktingkatp!F2070)</f>
+        <v>673077</v>
+      </c>
+      <c r="D130">
+        <f>SUM(processedjumlahpenduduktingkatp!G1955,processedjumlahpenduduktingkatp!G1960,processedjumlahpenduduktingkatp!G1965,processedjumlahpenduduktingkatp!G1970,processedjumlahpenduduktingkatp!G1975,processedjumlahpenduduktingkatp!G1980,processedjumlahpenduduktingkatp!G1985,processedjumlahpenduduktingkatp!G1990,processedjumlahpenduduktingkatp!G1995,processedjumlahpenduduktingkatp!G2000,processedjumlahpenduduktingkatp!G2005,processedjumlahpenduduktingkatp!G2010,processedjumlahpenduduktingkatp!G2015,processedjumlahpenduduktingkatp!G2020,processedjumlahpenduduktingkatp!G2025,processedjumlahpenduduktingkatp!G2030,processedjumlahpenduduktingkatp!G2035,processedjumlahpenduduktingkatp!G2040,processedjumlahpenduduktingkatp!G2045,processedjumlahpenduduktingkatp!G2050,processedjumlahpenduduktingkatp!G2055,processedjumlahpenduduktingkatp!G2060,processedjumlahpenduduktingkatp!G2065,processedjumlahpenduduktingkatp!G2070)</f>
+        <v>612970</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="26"/>
+        <v>1286047</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="51"/>
+        <v>4695203</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="52"/>
+        <v>0.27390658082302299</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="str">
+        <f>processedjumlahpenduduktingkatp!B1956</f>
+        <v>Prov. Sulawesi Selatan</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131">
+        <f>SUM(processedjumlahpenduduktingkatp!F1956,processedjumlahpenduduktingkatp!F1961,processedjumlahpenduduktingkatp!F1966,processedjumlahpenduduktingkatp!F1971,processedjumlahpenduduktingkatp!F1976,processedjumlahpenduduktingkatp!F1981,processedjumlahpenduduktingkatp!F1986,processedjumlahpenduduktingkatp!F1991,processedjumlahpenduduktingkatp!F1996,processedjumlahpenduduktingkatp!F2001,processedjumlahpenduduktingkatp!F2006,processedjumlahpenduduktingkatp!F2011,processedjumlahpenduduktingkatp!F2016,processedjumlahpenduduktingkatp!F2021,processedjumlahpenduduktingkatp!F2026,processedjumlahpenduduktingkatp!F2031,processedjumlahpenduduktingkatp!F2036,processedjumlahpenduduktingkatp!F2041,processedjumlahpenduduktingkatp!F2046,processedjumlahpenduduktingkatp!F2051,processedjumlahpenduduktingkatp!F2056,processedjumlahpenduduktingkatp!F2061,processedjumlahpenduduktingkatp!F2066,processedjumlahpenduduktingkatp!F2071)</f>
+        <v>200261</v>
+      </c>
+      <c r="D131">
+        <f>SUM(processedjumlahpenduduktingkatp!G1956,processedjumlahpenduduktingkatp!G1961,processedjumlahpenduduktingkatp!G1966,processedjumlahpenduduktingkatp!G1971,processedjumlahpenduduktingkatp!G1976,processedjumlahpenduduktingkatp!G1981,processedjumlahpenduduktingkatp!G1986,processedjumlahpenduduktingkatp!G1991,processedjumlahpenduduktingkatp!G1996,processedjumlahpenduduktingkatp!G2001,processedjumlahpenduduktingkatp!G2006,processedjumlahpenduduktingkatp!G2011,processedjumlahpenduduktingkatp!G2016,processedjumlahpenduduktingkatp!G2021,processedjumlahpenduduktingkatp!G2026,processedjumlahpenduduktingkatp!G2031,processedjumlahpenduduktingkatp!G2036,processedjumlahpenduduktingkatp!G2041,processedjumlahpenduduktingkatp!G2046,processedjumlahpenduduktingkatp!G2051,processedjumlahpenduduktingkatp!G2056,processedjumlahpenduduktingkatp!G2061,processedjumlahpenduduktingkatp!G2066,processedjumlahpenduduktingkatp!G2071)</f>
+        <v>222800</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="26"/>
+        <v>423061</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="51"/>
+        <v>4695203</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="52"/>
+        <v>9.0104943279342764E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="str">
+        <f>processedjumlahpenduduktingkatp!B2072</f>
+        <v>Prov. Sulawesi Tenggara</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132">
+        <f>SUM(processedjumlahpenduduktingkatp!F2072,processedjumlahpenduduktingkatp!F2077,processedjumlahpenduduktingkatp!F2082,processedjumlahpenduduktingkatp!F2087,processedjumlahpenduduktingkatp!F2092,processedjumlahpenduduktingkatp!F2097,processedjumlahpenduduktingkatp!F2102,processedjumlahpenduduktingkatp!F2107,processedjumlahpenduduktingkatp!F2112,processedjumlahpenduduktingkatp!F2117,processedjumlahpenduduktingkatp!F2122,processedjumlahpenduduktingkatp!F2127)</f>
+        <v>63247</v>
+      </c>
+      <c r="D132">
+        <f>SUM(processedjumlahpenduduktingkatp!G2072,processedjumlahpenduduktingkatp!G2077,processedjumlahpenduduktingkatp!G2082,processedjumlahpenduduktingkatp!G2087,processedjumlahpenduduktingkatp!G2092,processedjumlahpenduduktingkatp!G2097,processedjumlahpenduduktingkatp!G2102,processedjumlahpenduduktingkatp!G2107,processedjumlahpenduduktingkatp!G2112,processedjumlahpenduduktingkatp!G2117,processedjumlahpenduduktingkatp!G2122,processedjumlahpenduduktingkatp!G2127)</f>
+        <v>66903</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="26"/>
+        <v>130150</v>
+      </c>
+      <c r="F132">
+        <f>SUM($E$132:$E$136)</f>
+        <v>1305153</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="52"/>
+        <v>9.9720109443107441E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="str">
+        <f>processedjumlahpenduduktingkatp!B2073</f>
+        <v>Prov. Sulawesi Tenggara</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133">
+        <f>SUM(processedjumlahpenduduktingkatp!F2073,processedjumlahpenduduktingkatp!F2078,processedjumlahpenduduktingkatp!F2083,processedjumlahpenduduktingkatp!F2088,processedjumlahpenduduktingkatp!F2093,processedjumlahpenduduktingkatp!F2098,processedjumlahpenduduktingkatp!F2103,processedjumlahpenduduktingkatp!F2108,processedjumlahpenduduktingkatp!F2113,processedjumlahpenduduktingkatp!F2118,processedjumlahpenduduktingkatp!F2123,processedjumlahpenduduktingkatp!F2128)</f>
+        <v>199000</v>
+      </c>
+      <c r="D133">
+        <f>SUM(processedjumlahpenduduktingkatp!G2073,processedjumlahpenduduktingkatp!G2078,processedjumlahpenduduktingkatp!G2083,processedjumlahpenduduktingkatp!G2088,processedjumlahpenduduktingkatp!G2093,processedjumlahpenduduktingkatp!G2098,processedjumlahpenduduktingkatp!G2103,processedjumlahpenduduktingkatp!G2108,processedjumlahpenduduktingkatp!G2113,processedjumlahpenduduktingkatp!G2118,processedjumlahpenduduktingkatp!G2123,processedjumlahpenduduktingkatp!G2128)</f>
+        <v>204817</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ref="E133:E166" si="53">C133+D133</f>
+        <v>403817</v>
+      </c>
+      <c r="F133">
+        <f t="shared" ref="F133:F136" si="54">SUM($E$132:$E$136)</f>
+        <v>1305153</v>
+      </c>
+      <c r="G133">
+        <f t="shared" ref="G133:G137" si="55">E133/F133</f>
+        <v>0.30940203945437816</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="str">
+        <f>processedjumlahpenduduktingkatp!B2074</f>
+        <v>Prov. Sulawesi Tenggara</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134">
+        <f>SUM(processedjumlahpenduduktingkatp!F2074,processedjumlahpenduduktingkatp!F2079,processedjumlahpenduduktingkatp!F2084,processedjumlahpenduduktingkatp!F2089,processedjumlahpenduduktingkatp!F2094,processedjumlahpenduduktingkatp!F2099,processedjumlahpenduduktingkatp!F2104,processedjumlahpenduduktingkatp!F2109,processedjumlahpenduduktingkatp!F2114,processedjumlahpenduduktingkatp!F2119,processedjumlahpenduduktingkatp!F2124,processedjumlahpenduduktingkatp!F2129)</f>
+        <v>149329</v>
+      </c>
+      <c r="D134">
+        <f>SUM(processedjumlahpenduduktingkatp!G2074,processedjumlahpenduduktingkatp!G2079,processedjumlahpenduduktingkatp!G2084,processedjumlahpenduduktingkatp!G2089,processedjumlahpenduduktingkatp!G2094,processedjumlahpenduduktingkatp!G2099,processedjumlahpenduduktingkatp!G2104,processedjumlahpenduduktingkatp!G2109,processedjumlahpenduduktingkatp!G2114,processedjumlahpenduduktingkatp!G2119,processedjumlahpenduduktingkatp!G2124,processedjumlahpenduduktingkatp!G2129)</f>
+        <v>150563</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="53"/>
+        <v>299892</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="54"/>
+        <v>1305153</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="55"/>
+        <v>0.22977535967047541</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="str">
+        <f>processedjumlahpenduduktingkatp!B2075</f>
+        <v>Prov. Sulawesi Tenggara</v>
+      </c>
+      <c r="B135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135">
+        <f>SUM(processedjumlahpenduduktingkatp!F2075,processedjumlahpenduduktingkatp!F2080,processedjumlahpenduduktingkatp!F2085,processedjumlahpenduduktingkatp!F2090,processedjumlahpenduduktingkatp!F2095,processedjumlahpenduduktingkatp!F2100,processedjumlahpenduduktingkatp!F2105,processedjumlahpenduduktingkatp!F2110,processedjumlahpenduduktingkatp!F2115,processedjumlahpenduduktingkatp!F2120,processedjumlahpenduduktingkatp!F2125,processedjumlahpenduduktingkatp!F2130)</f>
+        <v>197695</v>
+      </c>
+      <c r="D135">
+        <f>SUM(processedjumlahpenduduktingkatp!G2075,processedjumlahpenduduktingkatp!G2080,processedjumlahpenduduktingkatp!G2085,processedjumlahpenduduktingkatp!G2090,processedjumlahpenduduktingkatp!G2095,processedjumlahpenduduktingkatp!G2100,processedjumlahpenduduktingkatp!G2105,processedjumlahpenduduktingkatp!G2110,processedjumlahpenduduktingkatp!G2115,processedjumlahpenduduktingkatp!G2120,processedjumlahpenduduktingkatp!G2125,processedjumlahpenduduktingkatp!G2130)</f>
+        <v>161185</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="53"/>
+        <v>358880</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="54"/>
+        <v>1305153</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="55"/>
+        <v>0.27497159336874683</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="str">
+        <f>processedjumlahpenduduktingkatp!B2076</f>
+        <v>Prov. Sulawesi Tenggara</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136">
+        <f>SUM(processedjumlahpenduduktingkatp!F2076,processedjumlahpenduduktingkatp!F2081,processedjumlahpenduduktingkatp!F2086,processedjumlahpenduduktingkatp!F2091,processedjumlahpenduduktingkatp!F2096,processedjumlahpenduduktingkatp!F2101,processedjumlahpenduduktingkatp!F2106,processedjumlahpenduduktingkatp!F2111,processedjumlahpenduduktingkatp!F2116,processedjumlahpenduduktingkatp!F2121,processedjumlahpenduduktingkatp!F2126,processedjumlahpenduduktingkatp!F2131)</f>
+        <v>56883</v>
+      </c>
+      <c r="D136">
+        <f>SUM(processedjumlahpenduduktingkatp!G2076,processedjumlahpenduduktingkatp!G2081,processedjumlahpenduduktingkatp!G2086,processedjumlahpenduduktingkatp!G2091,processedjumlahpenduduktingkatp!G2096,processedjumlahpenduduktingkatp!G2101,processedjumlahpenduduktingkatp!G2106,processedjumlahpenduduktingkatp!G2111,processedjumlahpenduduktingkatp!G2116,processedjumlahpenduduktingkatp!G2121,processedjumlahpenduduktingkatp!G2126,processedjumlahpenduduktingkatp!G2131)</f>
+        <v>55531</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="53"/>
+        <v>112414</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="54"/>
+        <v>1305153</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="55"/>
+        <v>8.6130898063292202E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="str">
+        <f>processedjumlahpenduduktingkatp!B2132</f>
+        <v>Prov. Gorontalo</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137">
+        <f>SUM(processedjumlahpenduduktingkatp!F2132,processedjumlahpenduduktingkatp!F2137,processedjumlahpenduduktingkatp!F2142,processedjumlahpenduduktingkatp!F2147,processedjumlahpenduduktingkatp!F2152,processedjumlahpenduduktingkatp!F2157)</f>
+        <v>99098</v>
+      </c>
+      <c r="D137">
+        <f>SUM(processedjumlahpenduduktingkatp!G2132,processedjumlahpenduduktingkatp!G2137,processedjumlahpenduduktingkatp!G2142,processedjumlahpenduduktingkatp!G2147,processedjumlahpenduduktingkatp!G2152,processedjumlahpenduduktingkatp!G2157)</f>
+        <v>79545</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="53"/>
+        <v>178643</v>
+      </c>
+      <c r="F137">
+        <f>SUM($E$137:$E$141)</f>
+        <v>683383</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="55"/>
+        <v>0.26140978045985924</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="str">
+        <f>processedjumlahpenduduktingkatp!B2133</f>
+        <v>Prov. Gorontalo</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138">
+        <f>SUM(processedjumlahpenduduktingkatp!F2133,processedjumlahpenduduktingkatp!F2138,processedjumlahpenduduktingkatp!F2143,processedjumlahpenduduktingkatp!F2148,processedjumlahpenduduktingkatp!F2153,processedjumlahpenduduktingkatp!F2158)</f>
+        <v>109837</v>
+      </c>
+      <c r="D138">
+        <f>SUM(processedjumlahpenduduktingkatp!G2133,processedjumlahpenduduktingkatp!G2138,processedjumlahpenduduktingkatp!G2143,processedjumlahpenduduktingkatp!G2148,processedjumlahpenduduktingkatp!G2153,processedjumlahpenduduktingkatp!G2158)</f>
+        <v>117200</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="53"/>
+        <v>227037</v>
+      </c>
+      <c r="F138">
+        <f t="shared" ref="F138:F141" si="56">SUM($E$137:$E$141)</f>
+        <v>683383</v>
+      </c>
+      <c r="G138">
+        <f t="shared" ref="G138:G142" si="57">E138/F138</f>
+        <v>0.332225121198508</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="str">
+        <f>processedjumlahpenduduktingkatp!B2134</f>
+        <v>Prov. Gorontalo</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139">
+        <f>SUM(processedjumlahpenduduktingkatp!F2134,processedjumlahpenduduktingkatp!F2139,processedjumlahpenduduktingkatp!F2144,processedjumlahpenduduktingkatp!F2149,processedjumlahpenduduktingkatp!F2154,processedjumlahpenduduktingkatp!F2159)</f>
+        <v>50573</v>
+      </c>
+      <c r="D139">
+        <f>SUM(processedjumlahpenduduktingkatp!G2134,processedjumlahpenduduktingkatp!G2139,processedjumlahpenduduktingkatp!G2144,processedjumlahpenduduktingkatp!G2149,processedjumlahpenduduktingkatp!G2154,processedjumlahpenduduktingkatp!G2159)</f>
+        <v>57970</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="53"/>
+        <v>108543</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="56"/>
+        <v>683383</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="57"/>
+        <v>0.15883187026894144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="str">
+        <f>processedjumlahpenduduktingkatp!B2135</f>
+        <v>Prov. Gorontalo</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140">
+        <f>SUM(processedjumlahpenduduktingkatp!F2135,processedjumlahpenduduktingkatp!F2140,processedjumlahpenduduktingkatp!F2145,processedjumlahpenduduktingkatp!F2150,processedjumlahpenduduktingkatp!F2155,processedjumlahpenduduktingkatp!F2160)</f>
+        <v>63907</v>
+      </c>
+      <c r="D140">
+        <f>SUM(processedjumlahpenduduktingkatp!G2135,processedjumlahpenduduktingkatp!G2140,processedjumlahpenduduktingkatp!G2145,processedjumlahpenduduktingkatp!G2150,processedjumlahpenduduktingkatp!G2155,processedjumlahpenduduktingkatp!G2160)</f>
+        <v>67833</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="53"/>
+        <v>131740</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="56"/>
+        <v>683383</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="57"/>
+        <v>0.19277623236164787</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="str">
+        <f>processedjumlahpenduduktingkatp!B2136</f>
+        <v>Prov. Gorontalo</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <f>SUM(processedjumlahpenduduktingkatp!F2136,processedjumlahpenduduktingkatp!F2141,processedjumlahpenduduktingkatp!F2146,processedjumlahpenduduktingkatp!F2151,processedjumlahpenduduktingkatp!F2156,processedjumlahpenduduktingkatp!F2161)</f>
+        <v>15623</v>
+      </c>
+      <c r="D141">
+        <f>SUM(processedjumlahpenduduktingkatp!G2136,processedjumlahpenduduktingkatp!G2141,processedjumlahpenduduktingkatp!G2146,processedjumlahpenduduktingkatp!G2151,processedjumlahpenduduktingkatp!G2156,processedjumlahpenduduktingkatp!G2161)</f>
+        <v>21797</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="53"/>
+        <v>37420</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="56"/>
+        <v>683383</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="57"/>
+        <v>5.4756995711043442E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="str">
+        <f>processedjumlahpenduduktingkatp!B2162</f>
+        <v>Prov. Sulawesi Barat</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142">
+        <f>SUM(processedjumlahpenduduktingkatp!F2162,processedjumlahpenduduktingkatp!F2167,processedjumlahpenduduktingkatp!F2172,processedjumlahpenduduktingkatp!F2177,processedjumlahpenduduktingkatp!F2182)</f>
+        <v>44705</v>
+      </c>
+      <c r="D142">
+        <f>SUM(processedjumlahpenduduktingkatp!G2162,processedjumlahpenduduktingkatp!G2167,processedjumlahpenduduktingkatp!G2172,processedjumlahpenduduktingkatp!G2177,processedjumlahpenduduktingkatp!G2182)</f>
+        <v>43415</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="53"/>
+        <v>88120</v>
+      </c>
+      <c r="F142">
+        <f>SUM($E$142:$E$146)</f>
+        <v>642735</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="57"/>
+        <v>0.13710160486047904</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="str">
+        <f>processedjumlahpenduduktingkatp!B2163</f>
+        <v>Prov. Sulawesi Barat</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <f>SUM(processedjumlahpenduduktingkatp!F2163,processedjumlahpenduduktingkatp!F2168,processedjumlahpenduduktingkatp!F2173,processedjumlahpenduduktingkatp!F2178,processedjumlahpenduduktingkatp!F2183)</f>
+        <v>125969</v>
+      </c>
+      <c r="D143">
+        <f>SUM(processedjumlahpenduduktingkatp!G2163,processedjumlahpenduduktingkatp!G2168,processedjumlahpenduduktingkatp!G2173,processedjumlahpenduduktingkatp!G2178,processedjumlahpenduduktingkatp!G2183)</f>
+        <v>128773</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="53"/>
+        <v>254742</v>
+      </c>
+      <c r="F143">
+        <f t="shared" ref="F143:F146" si="58">SUM($E$142:$E$146)</f>
+        <v>642735</v>
+      </c>
+      <c r="G143">
+        <f t="shared" ref="G143:G147" si="59">E143/F143</f>
+        <v>0.39634063805456371</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="str">
+        <f>processedjumlahpenduduktingkatp!B2164</f>
+        <v>Prov. Sulawesi Barat</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <f>SUM(processedjumlahpenduduktingkatp!F2164,processedjumlahpenduduktingkatp!F2169,processedjumlahpenduduktingkatp!F2174,processedjumlahpenduduktingkatp!F2179,processedjumlahpenduduktingkatp!F2184)</f>
+        <v>66171</v>
+      </c>
+      <c r="D144">
+        <f>SUM(processedjumlahpenduduktingkatp!G2164,processedjumlahpenduduktingkatp!G2169,processedjumlahpenduduktingkatp!G2174,processedjumlahpenduduktingkatp!G2179,processedjumlahpenduduktingkatp!G2184)</f>
+        <v>64827</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="53"/>
+        <v>130998</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="58"/>
+        <v>642735</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="59"/>
+        <v>0.20381339121099676</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="str">
+        <f>processedjumlahpenduduktingkatp!B2165</f>
+        <v>Prov. Sulawesi Barat</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <f>SUM(processedjumlahpenduduktingkatp!F2165,processedjumlahpenduduktingkatp!F2170,processedjumlahpenduduktingkatp!F2175,processedjumlahpenduduktingkatp!F2180,processedjumlahpenduduktingkatp!F2185)</f>
+        <v>68149</v>
+      </c>
+      <c r="D145">
+        <f>SUM(processedjumlahpenduduktingkatp!G2165,processedjumlahpenduduktingkatp!G2170,processedjumlahpenduduktingkatp!G2175,processedjumlahpenduduktingkatp!G2180,processedjumlahpenduduktingkatp!G2185)</f>
+        <v>56741</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="53"/>
+        <v>124890</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="58"/>
+        <v>642735</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="59"/>
+        <v>0.19431025228126678</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="str">
+        <f>processedjumlahpenduduktingkatp!B2166</f>
+        <v>Prov. Sulawesi Barat</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <f>SUM(processedjumlahpenduduktingkatp!F2166,processedjumlahpenduduktingkatp!F2171,processedjumlahpenduduktingkatp!F2176,processedjumlahpenduduktingkatp!F2181,processedjumlahpenduduktingkatp!F2186)</f>
+        <v>21928</v>
+      </c>
+      <c r="D146">
+        <f>SUM(processedjumlahpenduduktingkatp!G2166,processedjumlahpenduduktingkatp!G2171,processedjumlahpenduduktingkatp!G2176,processedjumlahpenduduktingkatp!G2181,processedjumlahpenduduktingkatp!G2186)</f>
+        <v>22057</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="53"/>
+        <v>43985</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="58"/>
+        <v>642735</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="59"/>
+        <v>6.8434113592693718E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="str">
+        <f>processedjumlahpenduduktingkatp!B2187</f>
+        <v>Prov. Maluku</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147">
+        <f>SUM(processedjumlahpenduduktingkatp!F2187,processedjumlahpenduduktingkatp!F2192,processedjumlahpenduduktingkatp!F2197,processedjumlahpenduduktingkatp!F2202,processedjumlahpenduduktingkatp!F2207,processedjumlahpenduduktingkatp!F2212,processedjumlahpenduduktingkatp!F2217,processedjumlahpenduduktingkatp!F2222,processedjumlahpenduduktingkatp!F2227,processedjumlahpenduduktingkatp!F2237)</f>
+        <v>25175</v>
+      </c>
+      <c r="D147">
+        <f>SUM(processedjumlahpenduduktingkatp!G2187,processedjumlahpenduduktingkatp!G2192,processedjumlahpenduduktingkatp!G2197,processedjumlahpenduduktingkatp!G2202,processedjumlahpenduduktingkatp!G2207,processedjumlahpenduduktingkatp!G2212,processedjumlahpenduduktingkatp!G2217,processedjumlahpenduduktingkatp!G2222,processedjumlahpenduduktingkatp!G2227,processedjumlahpenduduktingkatp!G2237)</f>
+        <v>29185</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="53"/>
+        <v>54360</v>
+      </c>
+      <c r="F147">
+        <f>SUM($E$147:$E$151)</f>
+        <v>709754</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="59"/>
+        <v>7.6589917069858002E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="str">
+        <f>processedjumlahpenduduktingkatp!B2188</f>
+        <v>Prov. Maluku</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148">
+        <f>SUM(processedjumlahpenduduktingkatp!F2188,processedjumlahpenduduktingkatp!F2193,processedjumlahpenduduktingkatp!F2198,processedjumlahpenduduktingkatp!F2203,processedjumlahpenduduktingkatp!F2208,processedjumlahpenduduktingkatp!F2213,processedjumlahpenduduktingkatp!F2218,processedjumlahpenduduktingkatp!F2223,processedjumlahpenduduktingkatp!F2228,processedjumlahpenduduktingkatp!F2238)</f>
+        <v>121068</v>
+      </c>
+      <c r="D148">
+        <f>SUM(processedjumlahpenduduktingkatp!G2188,processedjumlahpenduduktingkatp!G2193,processedjumlahpenduduktingkatp!G2198,processedjumlahpenduduktingkatp!G2203,processedjumlahpenduduktingkatp!G2208,processedjumlahpenduduktingkatp!G2213,processedjumlahpenduduktingkatp!G2218,processedjumlahpenduduktingkatp!G2223,processedjumlahpenduduktingkatp!G2228,processedjumlahpenduduktingkatp!G2238)</f>
+        <v>132710</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="53"/>
+        <v>253778</v>
+      </c>
+      <c r="F148">
+        <f t="shared" ref="F148:F151" si="60">SUM($E$147:$E$151)</f>
+        <v>709754</v>
+      </c>
+      <c r="G148">
+        <f t="shared" ref="G148:G152" si="61">E148/F148</f>
+        <v>0.35755768900210494</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="str">
+        <f>processedjumlahpenduduktingkatp!B2189</f>
+        <v>Prov. Maluku</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149">
+        <f>SUM(processedjumlahpenduduktingkatp!F2189,processedjumlahpenduduktingkatp!F2194,processedjumlahpenduduktingkatp!F2199,processedjumlahpenduduktingkatp!F2204,processedjumlahpenduduktingkatp!F2209,processedjumlahpenduduktingkatp!F2214,processedjumlahpenduduktingkatp!F2219,processedjumlahpenduduktingkatp!F2224,processedjumlahpenduduktingkatp!F2229,processedjumlahpenduduktingkatp!F2239)</f>
+        <v>85919</v>
+      </c>
+      <c r="D149">
+        <f>SUM(processedjumlahpenduduktingkatp!G2189,processedjumlahpenduduktingkatp!G2194,processedjumlahpenduduktingkatp!G2199,processedjumlahpenduduktingkatp!G2204,processedjumlahpenduduktingkatp!G2209,processedjumlahpenduduktingkatp!G2214,processedjumlahpenduduktingkatp!G2219,processedjumlahpenduduktingkatp!G2224,processedjumlahpenduduktingkatp!G2229,processedjumlahpenduduktingkatp!G2239)</f>
+        <v>78186</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="53"/>
+        <v>164105</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="60"/>
+        <v>709754</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="61"/>
+        <v>0.23121391355314658</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="str">
+        <f>processedjumlahpenduduktingkatp!B2190</f>
+        <v>Prov. Maluku</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150">
+        <f>SUM(processedjumlahpenduduktingkatp!F2190,processedjumlahpenduduktingkatp!F2195,processedjumlahpenduduktingkatp!F2200,processedjumlahpenduduktingkatp!F2205,processedjumlahpenduduktingkatp!F2210,processedjumlahpenduduktingkatp!F2215,processedjumlahpenduduktingkatp!F2220,processedjumlahpenduduktingkatp!F2225,processedjumlahpenduduktingkatp!F2230,processedjumlahpenduduktingkatp!F2240)</f>
+        <v>105868</v>
+      </c>
+      <c r="D150">
+        <f>SUM(processedjumlahpenduduktingkatp!G2190,processedjumlahpenduduktingkatp!G2195,processedjumlahpenduduktingkatp!G2200,processedjumlahpenduduktingkatp!G2205,processedjumlahpenduduktingkatp!G2210,processedjumlahpenduduktingkatp!G2215,processedjumlahpenduduktingkatp!G2220,processedjumlahpenduduktingkatp!G2225,processedjumlahpenduduktingkatp!G2230,processedjumlahpenduduktingkatp!G2240)</f>
+        <v>86163</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="53"/>
+        <v>192031</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="60"/>
+        <v>709754</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="61"/>
+        <v>0.27055994048642207</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="str">
+        <f>processedjumlahpenduduktingkatp!B2191</f>
+        <v>Prov. Maluku</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151">
+        <f>SUM(processedjumlahpenduduktingkatp!F2191,processedjumlahpenduduktingkatp!F2196,processedjumlahpenduduktingkatp!F2201,processedjumlahpenduduktingkatp!F2206,processedjumlahpenduduktingkatp!F2211,processedjumlahpenduduktingkatp!F2216,processedjumlahpenduduktingkatp!F2221,processedjumlahpenduduktingkatp!F2226,processedjumlahpenduduktingkatp!F2231,processedjumlahpenduduktingkatp!F2241)</f>
+        <v>21014</v>
+      </c>
+      <c r="D151">
+        <f>SUM(processedjumlahpenduduktingkatp!G2191,processedjumlahpenduduktingkatp!G2196,processedjumlahpenduduktingkatp!G2201,processedjumlahpenduduktingkatp!G2206,processedjumlahpenduduktingkatp!G2211,processedjumlahpenduduktingkatp!G2216,processedjumlahpenduduktingkatp!G2221,processedjumlahpenduduktingkatp!G2226,processedjumlahpenduduktingkatp!G2231,processedjumlahpenduduktingkatp!G2241)</f>
+        <v>24466</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="53"/>
+        <v>45480</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="60"/>
+        <v>709754</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="61"/>
+        <v>6.40785398884684E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="str">
+        <f>processedjumlahpenduduktingkatp!B2242</f>
+        <v>Prov. Maluku Utara</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152">
+        <f>SUM(processedjumlahpenduduktingkatp!F2242,processedjumlahpenduduktingkatp!F2247,processedjumlahpenduduktingkatp!F2252,processedjumlahpenduduktingkatp!F2257,processedjumlahpenduduktingkatp!F2262,processedjumlahpenduduktingkatp!F2267,processedjumlahpenduduktingkatp!F2272,processedjumlahpenduduktingkatp!F2277,processedjumlahpenduduktingkatp!F2282)</f>
+        <v>28483</v>
+      </c>
+      <c r="D152">
+        <f>SUM(processedjumlahpenduduktingkatp!G2242,processedjumlahpenduduktingkatp!G2247,processedjumlahpenduduktingkatp!G2252,processedjumlahpenduduktingkatp!G2257,processedjumlahpenduduktingkatp!G2262,processedjumlahpenduduktingkatp!G2267,processedjumlahpenduduktingkatp!G2272,processedjumlahpenduduktingkatp!G2277,processedjumlahpenduduktingkatp!G2282)</f>
+        <v>34608</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="53"/>
+        <v>63091</v>
+      </c>
+      <c r="F152">
+        <f>SUM($E$152:$E$156)</f>
+        <v>639832</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="61"/>
+        <v>9.8605571462508909E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="str">
+        <f>processedjumlahpenduduktingkatp!B2243</f>
+        <v>Prov. Maluku Utara</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153">
+        <f>SUM(processedjumlahpenduduktingkatp!F2243,processedjumlahpenduduktingkatp!F2248,processedjumlahpenduduktingkatp!F2253,processedjumlahpenduduktingkatp!F2258,processedjumlahpenduduktingkatp!F2263,processedjumlahpenduduktingkatp!F2268,processedjumlahpenduduktingkatp!F2273,processedjumlahpenduduktingkatp!F2278,processedjumlahpenduduktingkatp!F2283)</f>
+        <v>102552</v>
+      </c>
+      <c r="D153">
+        <f>SUM(processedjumlahpenduduktingkatp!G2243,processedjumlahpenduduktingkatp!G2248,processedjumlahpenduduktingkatp!G2253,processedjumlahpenduduktingkatp!G2258,processedjumlahpenduduktingkatp!G2263,processedjumlahpenduduktingkatp!G2268,processedjumlahpenduduktingkatp!G2273,processedjumlahpenduduktingkatp!G2278,processedjumlahpenduduktingkatp!G2283)</f>
+        <v>110708</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="53"/>
+        <v>213260</v>
+      </c>
+      <c r="F153">
+        <f t="shared" ref="F153:F156" si="62">SUM($E$152:$E$156)</f>
+        <v>639832</v>
+      </c>
+      <c r="G153">
+        <f t="shared" ref="G153:G157" si="63">E153/F153</f>
+        <v>0.33330624288875832</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="str">
+        <f>processedjumlahpenduduktingkatp!B2244</f>
+        <v>Prov. Maluku Utara</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <f>SUM(processedjumlahpenduduktingkatp!F2244,processedjumlahpenduduktingkatp!F2249,processedjumlahpenduduktingkatp!F2254,processedjumlahpenduduktingkatp!F2259,processedjumlahpenduduktingkatp!F2264,processedjumlahpenduduktingkatp!F2269,processedjumlahpenduduktingkatp!F2274,processedjumlahpenduduktingkatp!F2279,processedjumlahpenduduktingkatp!F2284)</f>
+        <v>77715</v>
+      </c>
+      <c r="D154">
+        <f>SUM(processedjumlahpenduduktingkatp!G2244,processedjumlahpenduduktingkatp!G2249,processedjumlahpenduduktingkatp!G2254,processedjumlahpenduduktingkatp!G2259,processedjumlahpenduduktingkatp!G2264,processedjumlahpenduduktingkatp!G2269,processedjumlahpenduduktingkatp!G2274,processedjumlahpenduduktingkatp!G2279,processedjumlahpenduduktingkatp!G2284)</f>
+        <v>68238</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="53"/>
+        <v>145953</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="62"/>
+        <v>639832</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="63"/>
+        <v>0.22811144175346029</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="str">
+        <f>processedjumlahpenduduktingkatp!B2245</f>
+        <v>Prov. Maluku Utara</v>
+      </c>
+      <c r="B155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155">
+        <f>SUM(processedjumlahpenduduktingkatp!F2245,processedjumlahpenduduktingkatp!F2250,processedjumlahpenduduktingkatp!F2255,processedjumlahpenduduktingkatp!F2260,processedjumlahpenduduktingkatp!F2265,processedjumlahpenduduktingkatp!F2270,processedjumlahpenduduktingkatp!F2275,processedjumlahpenduduktingkatp!F2280,processedjumlahpenduduktingkatp!F2285)</f>
+        <v>98020</v>
+      </c>
+      <c r="D155">
+        <f>SUM(processedjumlahpenduduktingkatp!G2245,processedjumlahpenduduktingkatp!G2250,processedjumlahpenduduktingkatp!G2255,processedjumlahpenduduktingkatp!G2260,processedjumlahpenduduktingkatp!G2265,processedjumlahpenduduktingkatp!G2270,processedjumlahpenduduktingkatp!G2275,processedjumlahpenduduktingkatp!G2280,processedjumlahpenduduktingkatp!G2285)</f>
+        <v>72625</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="53"/>
+        <v>170645</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="62"/>
+        <v>639832</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="63"/>
+        <v>0.26670282199077255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="str">
+        <f>processedjumlahpenduduktingkatp!B2246</f>
+        <v>Prov. Maluku Utara</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156">
+        <f>SUM(processedjumlahpenduduktingkatp!F2246,processedjumlahpenduduktingkatp!F2251,processedjumlahpenduduktingkatp!F2256,processedjumlahpenduduktingkatp!F2261,processedjumlahpenduduktingkatp!F2266,processedjumlahpenduduktingkatp!F2271,processedjumlahpenduduktingkatp!F2276,processedjumlahpenduduktingkatp!F2281,processedjumlahpenduduktingkatp!F2286)</f>
+        <v>23395</v>
+      </c>
+      <c r="D156">
+        <f>SUM(processedjumlahpenduduktingkatp!G2246,processedjumlahpenduduktingkatp!G2251,processedjumlahpenduduktingkatp!G2256,processedjumlahpenduduktingkatp!G2261,processedjumlahpenduduktingkatp!G2266,processedjumlahpenduduktingkatp!G2271,processedjumlahpenduduktingkatp!G2276,processedjumlahpenduduktingkatp!G2281,processedjumlahpenduduktingkatp!G2286)</f>
+        <v>23488</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="53"/>
+        <v>46883</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="62"/>
+        <v>639832</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="63"/>
+        <v>7.3273921904499925E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="str">
+        <f>processedjumlahpenduduktingkatp!B2287</f>
+        <v>Prov. Papua Barat</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157">
+        <f>SUM(processedjumlahpenduduktingkatp!F2287,processedjumlahpenduduktingkatp!F2292,processedjumlahpenduduktingkatp!F2297,processedjumlahpenduduktingkatp!F2302,processedjumlahpenduduktingkatp!F2307,processedjumlahpenduduktingkatp!F2312,processedjumlahpenduduktingkatp!F2317,processedjumlahpenduduktingkatp!F2322,processedjumlahpenduduktingkatp!F2327,processedjumlahpenduduktingkatp!F2332,processedjumlahpenduduktingkatp!F2337)</f>
+        <v>17836</v>
+      </c>
+      <c r="D157">
+        <f>SUM(processedjumlahpenduduktingkatp!G2287,processedjumlahpenduduktingkatp!G2292,processedjumlahpenduduktingkatp!G2297,processedjumlahpenduduktingkatp!G2302,processedjumlahpenduduktingkatp!G2307,processedjumlahpenduduktingkatp!G2312,processedjumlahpenduduktingkatp!G2317,processedjumlahpenduduktingkatp!G2322,processedjumlahpenduduktingkatp!G2327,processedjumlahpenduduktingkatp!G2332,processedjumlahpenduduktingkatp!G2337)</f>
+        <v>19651</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="53"/>
+        <v>37487</v>
+      </c>
+      <c r="F157">
+        <f>SUM($E$157:$E$161)</f>
+        <v>460077</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="63"/>
+        <v>8.1479839244300412E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="str">
+        <f>processedjumlahpenduduktingkatp!B2288</f>
+        <v>Prov. Papua Barat</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158">
+        <f>SUM(processedjumlahpenduduktingkatp!F2288,processedjumlahpenduduktingkatp!F2293,processedjumlahpenduduktingkatp!F2298,processedjumlahpenduduktingkatp!F2303,processedjumlahpenduduktingkatp!F2308,processedjumlahpenduduktingkatp!F2313,processedjumlahpenduduktingkatp!F2318,processedjumlahpenduduktingkatp!F2323,processedjumlahpenduduktingkatp!F2328,processedjumlahpenduduktingkatp!F2333,processedjumlahpenduduktingkatp!F2338)</f>
+        <v>58227</v>
+      </c>
+      <c r="D158">
+        <f>SUM(processedjumlahpenduduktingkatp!G2288,processedjumlahpenduduktingkatp!G2293,processedjumlahpenduduktingkatp!G2298,processedjumlahpenduduktingkatp!G2303,processedjumlahpenduduktingkatp!G2308,processedjumlahpenduduktingkatp!G2313,processedjumlahpenduduktingkatp!G2318,processedjumlahpenduduktingkatp!G2323,processedjumlahpenduduktingkatp!G2328,processedjumlahpenduduktingkatp!G2333,processedjumlahpenduduktingkatp!G2338)</f>
+        <v>57666</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="53"/>
+        <v>115893</v>
+      </c>
+      <c r="F158">
+        <f t="shared" ref="F158:F161" si="64">SUM($E$157:$E$161)</f>
+        <v>460077</v>
+      </c>
+      <c r="G158">
+        <f t="shared" ref="G158:G162" si="65">E158/F158</f>
+        <v>0.251899138622448</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="str">
+        <f>processedjumlahpenduduktingkatp!B2289</f>
+        <v>Prov. Papua Barat</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159">
+        <f>SUM(processedjumlahpenduduktingkatp!F2289,processedjumlahpenduduktingkatp!F2294,processedjumlahpenduduktingkatp!F2299,processedjumlahpenduduktingkatp!F2304,processedjumlahpenduduktingkatp!F2309,processedjumlahpenduduktingkatp!F2314,processedjumlahpenduduktingkatp!F2319,processedjumlahpenduduktingkatp!F2324,processedjumlahpenduduktingkatp!F2329,processedjumlahpenduduktingkatp!F2334,processedjumlahpenduduktingkatp!F2339)</f>
+        <v>60211</v>
+      </c>
+      <c r="D159">
+        <f>SUM(processedjumlahpenduduktingkatp!G2289,processedjumlahpenduduktingkatp!G2294,processedjumlahpenduduktingkatp!G2299,processedjumlahpenduduktingkatp!G2304,processedjumlahpenduduktingkatp!G2309,processedjumlahpenduduktingkatp!G2314,processedjumlahpenduduktingkatp!G2319,processedjumlahpenduduktingkatp!G2324,processedjumlahpenduduktingkatp!G2329,processedjumlahpenduduktingkatp!G2334,processedjumlahpenduduktingkatp!G2339)</f>
+        <v>49625</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="53"/>
+        <v>109836</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="64"/>
+        <v>460077</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="65"/>
+        <v>0.23873395105601888</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="str">
+        <f>processedjumlahpenduduktingkatp!B2290</f>
+        <v>Prov. Papua Barat</v>
+      </c>
+      <c r="B160" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160">
+        <f>SUM(processedjumlahpenduduktingkatp!F2290,processedjumlahpenduduktingkatp!F2295,processedjumlahpenduduktingkatp!F2300,processedjumlahpenduduktingkatp!F2305,processedjumlahpenduduktingkatp!F2310,processedjumlahpenduduktingkatp!F2315,processedjumlahpenduduktingkatp!F2320,processedjumlahpenduduktingkatp!F2325,processedjumlahpenduduktingkatp!F2330,processedjumlahpenduduktingkatp!F2335,processedjumlahpenduduktingkatp!F2340)</f>
+        <v>89749</v>
+      </c>
+      <c r="D160">
+        <f>SUM(processedjumlahpenduduktingkatp!G2290,processedjumlahpenduduktingkatp!G2295,processedjumlahpenduduktingkatp!G2300,processedjumlahpenduduktingkatp!G2305,processedjumlahpenduduktingkatp!G2310,processedjumlahpenduduktingkatp!G2315,processedjumlahpenduduktingkatp!G2320,processedjumlahpenduduktingkatp!G2325,processedjumlahpenduduktingkatp!G2330,processedjumlahpenduduktingkatp!G2335,processedjumlahpenduduktingkatp!G2340)</f>
+        <v>63178</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="53"/>
+        <v>152927</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="64"/>
+        <v>460077</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="65"/>
+        <v>0.33239436007450929</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="str">
+        <f>processedjumlahpenduduktingkatp!B2291</f>
+        <v>Prov. Papua Barat</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161">
+        <f>SUM(processedjumlahpenduduktingkatp!F2291,processedjumlahpenduduktingkatp!F2296,processedjumlahpenduduktingkatp!F2301,processedjumlahpenduduktingkatp!F2306,processedjumlahpenduduktingkatp!F2311,processedjumlahpenduduktingkatp!F2316,processedjumlahpenduduktingkatp!F2321,processedjumlahpenduduktingkatp!F2326,processedjumlahpenduduktingkatp!F2331,processedjumlahpenduduktingkatp!F2336,processedjumlahpenduduktingkatp!F2341)</f>
+        <v>25291</v>
+      </c>
+      <c r="D161">
+        <f>SUM(processedjumlahpenduduktingkatp!G2291,processedjumlahpenduduktingkatp!G2296,processedjumlahpenduduktingkatp!G2301,processedjumlahpenduduktingkatp!G2306,processedjumlahpenduduktingkatp!G2311,processedjumlahpenduduktingkatp!G2316,processedjumlahpenduduktingkatp!G2321,processedjumlahpenduduktingkatp!G2326,processedjumlahpenduduktingkatp!G2331,processedjumlahpenduduktingkatp!G2336,processedjumlahpenduduktingkatp!G2341)</f>
+        <v>18643</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="53"/>
+        <v>43934</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="64"/>
+        <v>460077</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="65"/>
+        <v>9.5492711002723454E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="str">
+        <f>processedjumlahpenduduktingkatp!B2342</f>
+        <v>Prov. Papua</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162">
+        <f>SUM(processedjumlahpenduduktingkatp!F2342,processedjumlahpenduduktingkatp!F2347,processedjumlahpenduduktingkatp!F2352,processedjumlahpenduduktingkatp!F2357,processedjumlahpenduduktingkatp!F2362,processedjumlahpenduduktingkatp!F2367,processedjumlahpenduduktingkatp!F2372,processedjumlahpenduduktingkatp!F2377,processedjumlahpenduduktingkatp!F2382,processedjumlahpenduduktingkatp!F2387,processedjumlahpenduduktingkatp!F2392,processedjumlahpenduduktingkatp!F2397,processedjumlahpenduduktingkatp!F2402,processedjumlahpenduduktingkatp!F2407,processedjumlahpenduduktingkatp!F2412,processedjumlahpenduduktingkatp!F2417,processedjumlahpenduduktingkatp!F2422,processedjumlahpenduduktingkatp!F2427,processedjumlahpenduduktingkatp!F2432,processedjumlahpenduduktingkatp!F2437,processedjumlahpenduduktingkatp!F2442,processedjumlahpenduduktingkatp!F2447,processedjumlahpenduduktingkatp!F2452,processedjumlahpenduduktingkatp!F2457,processedjumlahpenduduktingkatp!F2462,processedjumlahpenduduktingkatp!F2467,processedjumlahpenduduktingkatp!F2472,processedjumlahpenduduktingkatp!F2477,processedjumlahpenduduktingkatp!F2482)</f>
+        <v>60914</v>
+      </c>
+      <c r="D162">
+        <f>SUM(processedjumlahpenduduktingkatp!G2342,processedjumlahpenduduktingkatp!G2347,processedjumlahpenduduktingkatp!G2352,processedjumlahpenduduktingkatp!G2357,processedjumlahpenduduktingkatp!G2362,processedjumlahpenduduktingkatp!G2367,processedjumlahpenduduktingkatp!G2372,processedjumlahpenduduktingkatp!G2377,processedjumlahpenduduktingkatp!G2382,processedjumlahpenduduktingkatp!G2387,processedjumlahpenduduktingkatp!G2392,processedjumlahpenduduktingkatp!G2397,processedjumlahpenduduktingkatp!G2402,processedjumlahpenduduktingkatp!G2407,processedjumlahpenduduktingkatp!G2412,processedjumlahpenduduktingkatp!G2417,processedjumlahpenduduktingkatp!G2422,processedjumlahpenduduktingkatp!G2427,processedjumlahpenduduktingkatp!G2432,processedjumlahpenduduktingkatp!G2437,processedjumlahpenduduktingkatp!G2442,processedjumlahpenduduktingkatp!G2447,processedjumlahpenduduktingkatp!G2452,processedjumlahpenduduktingkatp!G2457,processedjumlahpenduduktingkatp!G2462,processedjumlahpenduduktingkatp!G2467,processedjumlahpenduduktingkatp!G2472,processedjumlahpenduduktingkatp!G2477,processedjumlahpenduduktingkatp!G2482)</f>
+        <v>62757</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="53"/>
+        <v>123671</v>
+      </c>
+      <c r="F162">
+        <f>SUM($E$162:$E$166)</f>
+        <v>1154202</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="65"/>
+        <v>0.10714848873940611</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="str">
+        <f>processedjumlahpenduduktingkatp!B2343</f>
+        <v>Prov. Papua</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163">
+        <f>SUM(processedjumlahpenduduktingkatp!F2343,processedjumlahpenduduktingkatp!F2348,processedjumlahpenduduktingkatp!F2353,processedjumlahpenduduktingkatp!F2358,processedjumlahpenduduktingkatp!F2363,processedjumlahpenduduktingkatp!F2368,processedjumlahpenduduktingkatp!F2373,processedjumlahpenduduktingkatp!F2378,processedjumlahpenduduktingkatp!F2383,processedjumlahpenduduktingkatp!F2388,processedjumlahpenduduktingkatp!F2393,processedjumlahpenduduktingkatp!F2398,processedjumlahpenduduktingkatp!F2403,processedjumlahpenduduktingkatp!F2408,processedjumlahpenduduktingkatp!F2413,processedjumlahpenduduktingkatp!F2418,processedjumlahpenduduktingkatp!F2423,processedjumlahpenduduktingkatp!F2428,processedjumlahpenduduktingkatp!F2433,processedjumlahpenduduktingkatp!F2438,processedjumlahpenduduktingkatp!F2443,processedjumlahpenduduktingkatp!F2448,processedjumlahpenduduktingkatp!F2453,processedjumlahpenduduktingkatp!F2458,processedjumlahpenduduktingkatp!F2463,processedjumlahpenduduktingkatp!F2468,processedjumlahpenduduktingkatp!F2473,processedjumlahpenduduktingkatp!F2478,processedjumlahpenduduktingkatp!F2483)</f>
+        <v>157690</v>
+      </c>
+      <c r="D163">
+        <f>SUM(processedjumlahpenduduktingkatp!G2343,processedjumlahpenduduktingkatp!G2348,processedjumlahpenduduktingkatp!G2353,processedjumlahpenduduktingkatp!G2358,processedjumlahpenduduktingkatp!G2363,processedjumlahpenduduktingkatp!G2368,processedjumlahpenduduktingkatp!G2373,processedjumlahpenduduktingkatp!G2378,processedjumlahpenduduktingkatp!G2383,processedjumlahpenduduktingkatp!G2388,processedjumlahpenduduktingkatp!G2393,processedjumlahpenduduktingkatp!G2398,processedjumlahpenduduktingkatp!G2403,processedjumlahpenduduktingkatp!G2408,processedjumlahpenduduktingkatp!G2413,processedjumlahpenduduktingkatp!G2418,processedjumlahpenduduktingkatp!G2423,processedjumlahpenduduktingkatp!G2428,processedjumlahpenduduktingkatp!G2433,processedjumlahpenduduktingkatp!G2438,processedjumlahpenduduktingkatp!G2443,processedjumlahpenduduktingkatp!G2448,processedjumlahpenduduktingkatp!G2453,processedjumlahpenduduktingkatp!G2458,processedjumlahpenduduktingkatp!G2463,processedjumlahpenduduktingkatp!G2468,processedjumlahpenduduktingkatp!G2473,processedjumlahpenduduktingkatp!G2478,processedjumlahpenduduktingkatp!G2483)</f>
+        <v>148532</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="53"/>
+        <v>306222</v>
+      </c>
+      <c r="F163">
+        <f t="shared" ref="F163:F166" si="66">SUM($E$162:$E$166)</f>
+        <v>1154202</v>
+      </c>
+      <c r="G163">
+        <f t="shared" ref="G163:G166" si="67">E163/F163</f>
+        <v>0.26531057821767767</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="str">
+        <f>processedjumlahpenduduktingkatp!B2344</f>
+        <v>Prov. Papua</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164">
+        <f>SUM(processedjumlahpenduduktingkatp!F2344,processedjumlahpenduduktingkatp!F2349,processedjumlahpenduduktingkatp!F2354,processedjumlahpenduduktingkatp!F2359,processedjumlahpenduduktingkatp!F2364,processedjumlahpenduduktingkatp!F2369,processedjumlahpenduduktingkatp!F2374,processedjumlahpenduduktingkatp!F2379,processedjumlahpenduduktingkatp!F2384,processedjumlahpenduduktingkatp!F2389,processedjumlahpenduduktingkatp!F2394,processedjumlahpenduduktingkatp!F2399,processedjumlahpenduduktingkatp!F2404,processedjumlahpenduduktingkatp!F2409,processedjumlahpenduduktingkatp!F2414,processedjumlahpenduduktingkatp!F2419,processedjumlahpenduduktingkatp!F2424,processedjumlahpenduduktingkatp!F2429,processedjumlahpenduduktingkatp!F2434,processedjumlahpenduduktingkatp!F2439,processedjumlahpenduduktingkatp!F2444,processedjumlahpenduduktingkatp!F2449,processedjumlahpenduduktingkatp!F2454,processedjumlahpenduduktingkatp!F2459,processedjumlahpenduduktingkatp!F2464,processedjumlahpenduduktingkatp!F2469,processedjumlahpenduduktingkatp!F2474,processedjumlahpenduduktingkatp!F2479,processedjumlahpenduduktingkatp!F2484)</f>
+        <v>148929</v>
+      </c>
+      <c r="D164">
+        <f>SUM(processedjumlahpenduduktingkatp!G2344,processedjumlahpenduduktingkatp!G2349,processedjumlahpenduduktingkatp!G2354,processedjumlahpenduduktingkatp!G2359,processedjumlahpenduduktingkatp!G2364,processedjumlahpenduduktingkatp!G2369,processedjumlahpenduduktingkatp!G2374,processedjumlahpenduduktingkatp!G2379,processedjumlahpenduduktingkatp!G2384,processedjumlahpenduduktingkatp!G2389,processedjumlahpenduduktingkatp!G2394,processedjumlahpenduduktingkatp!G2399,processedjumlahpenduduktingkatp!G2404,processedjumlahpenduduktingkatp!G2409,processedjumlahpenduduktingkatp!G2414,processedjumlahpenduduktingkatp!G2419,processedjumlahpenduduktingkatp!G2424,processedjumlahpenduduktingkatp!G2429,processedjumlahpenduduktingkatp!G2434,processedjumlahpenduduktingkatp!G2439,processedjumlahpenduduktingkatp!G2444,processedjumlahpenduduktingkatp!G2449,processedjumlahpenduduktingkatp!G2454,processedjumlahpenduduktingkatp!G2459,processedjumlahpenduduktingkatp!G2464,processedjumlahpenduduktingkatp!G2469,processedjumlahpenduduktingkatp!G2474,processedjumlahpenduduktingkatp!G2479,processedjumlahpenduduktingkatp!G2484)</f>
+        <v>117744</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="53"/>
+        <v>266673</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="66"/>
+        <v>1154202</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="67"/>
+        <v>0.23104534561541221</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="str">
+        <f>processedjumlahpenduduktingkatp!B2345</f>
+        <v>Prov. Papua</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165">
+        <f>SUM(processedjumlahpenduduktingkatp!F2345,processedjumlahpenduduktingkatp!F2350,processedjumlahpenduduktingkatp!F2355,processedjumlahpenduduktingkatp!F2360,processedjumlahpenduduktingkatp!F2365,processedjumlahpenduduktingkatp!F2370,processedjumlahpenduduktingkatp!F2375,processedjumlahpenduduktingkatp!F2380,processedjumlahpenduduktingkatp!F2385,processedjumlahpenduduktingkatp!F2390,processedjumlahpenduduktingkatp!F2395,processedjumlahpenduduktingkatp!F2400,processedjumlahpenduduktingkatp!F2405,processedjumlahpenduduktingkatp!F2410,processedjumlahpenduduktingkatp!F2415,processedjumlahpenduduktingkatp!F2420,processedjumlahpenduduktingkatp!F2425,processedjumlahpenduduktingkatp!F2430,processedjumlahpenduduktingkatp!F2435,processedjumlahpenduduktingkatp!F2440,processedjumlahpenduduktingkatp!F2445,processedjumlahpenduduktingkatp!F2450,processedjumlahpenduduktingkatp!F2455,processedjumlahpenduduktingkatp!F2460,processedjumlahpenduduktingkatp!F2465,processedjumlahpenduduktingkatp!F2470,processedjumlahpenduduktingkatp!F2475,processedjumlahpenduduktingkatp!F2480,processedjumlahpenduduktingkatp!F2485)</f>
+        <v>224570</v>
+      </c>
+      <c r="D165">
+        <f>SUM(processedjumlahpenduduktingkatp!G2345,processedjumlahpenduduktingkatp!G2350,processedjumlahpenduduktingkatp!G2355,processedjumlahpenduduktingkatp!G2360,processedjumlahpenduduktingkatp!G2365,processedjumlahpenduduktingkatp!G2370,processedjumlahpenduduktingkatp!G2375,processedjumlahpenduduktingkatp!G2380,processedjumlahpenduduktingkatp!G2385,processedjumlahpenduduktingkatp!G2390,processedjumlahpenduduktingkatp!G2395,processedjumlahpenduduktingkatp!G2400,processedjumlahpenduduktingkatp!G2405,processedjumlahpenduduktingkatp!G2410,processedjumlahpenduduktingkatp!G2415,processedjumlahpenduduktingkatp!G2420,processedjumlahpenduduktingkatp!G2425,processedjumlahpenduduktingkatp!G2430,processedjumlahpenduduktingkatp!G2435,processedjumlahpenduduktingkatp!G2440,processedjumlahpenduduktingkatp!G2445,processedjumlahpenduduktingkatp!G2450,processedjumlahpenduduktingkatp!G2455,processedjumlahpenduduktingkatp!G2460,processedjumlahpenduduktingkatp!G2465,processedjumlahpenduduktingkatp!G2470,processedjumlahpenduduktingkatp!G2475,processedjumlahpenduduktingkatp!G2480,processedjumlahpenduduktingkatp!G2485)</f>
+        <v>140252</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="53"/>
+        <v>364822</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="66"/>
+        <v>1154202</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="67"/>
+        <v>0.3160815871052034</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="str">
+        <f>processedjumlahpenduduktingkatp!B2346</f>
+        <v>Prov. Papua</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166">
+        <f>SUM(processedjumlahpenduduktingkatp!F2346,processedjumlahpenduduktingkatp!F2351,processedjumlahpenduduktingkatp!F2356,processedjumlahpenduduktingkatp!F2361,processedjumlahpenduduktingkatp!F2366,processedjumlahpenduduktingkatp!F2371,processedjumlahpenduduktingkatp!F2376,processedjumlahpenduduktingkatp!F2381,processedjumlahpenduduktingkatp!F2386,processedjumlahpenduduktingkatp!F2391,processedjumlahpenduduktingkatp!F2396,processedjumlahpenduduktingkatp!F2401,processedjumlahpenduduktingkatp!F2406,processedjumlahpenduduktingkatp!F2411,processedjumlahpenduduktingkatp!F2416,processedjumlahpenduduktingkatp!F2421,processedjumlahpenduduktingkatp!F2426,processedjumlahpenduduktingkatp!F2431,processedjumlahpenduduktingkatp!F2436,processedjumlahpenduduktingkatp!F2441,processedjumlahpenduduktingkatp!F2446,processedjumlahpenduduktingkatp!F2451,processedjumlahpenduduktingkatp!F2456,processedjumlahpenduduktingkatp!F2461,processedjumlahpenduduktingkatp!F2466,processedjumlahpenduduktingkatp!F2471,processedjumlahpenduduktingkatp!F2476,processedjumlahpenduduktingkatp!F2481,processedjumlahpenduduktingkatp!F2486)</f>
+        <v>55552</v>
+      </c>
+      <c r="D166">
+        <f>SUM(processedjumlahpenduduktingkatp!G2346,processedjumlahpenduduktingkatp!G2351,processedjumlahpenduduktingkatp!G2356,processedjumlahpenduduktingkatp!G2361,processedjumlahpenduduktingkatp!G2366,processedjumlahpenduduktingkatp!G2371,processedjumlahpenduduktingkatp!G2376,processedjumlahpenduduktingkatp!G2381,processedjumlahpenduduktingkatp!G2386,processedjumlahpenduduktingkatp!G2391,processedjumlahpenduduktingkatp!G2396,processedjumlahpenduduktingkatp!G2401,processedjumlahpenduduktingkatp!G2406,processedjumlahpenduduktingkatp!G2411,processedjumlahpenduduktingkatp!G2416,processedjumlahpenduduktingkatp!G2421,processedjumlahpenduduktingkatp!G2426,processedjumlahpenduduktingkatp!G2431,processedjumlahpenduduktingkatp!G2436,processedjumlahpenduduktingkatp!G2441,processedjumlahpenduduktingkatp!G2446,processedjumlahpenduduktingkatp!G2451,processedjumlahpenduduktingkatp!G2456,processedjumlahpenduduktingkatp!G2461,processedjumlahpenduduktingkatp!G2466,processedjumlahpenduduktingkatp!G2471,processedjumlahpenduduktingkatp!G2476,processedjumlahpenduduktingkatp!G2481,processedjumlahpenduduktingkatp!G2486)</f>
+        <v>37262</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="53"/>
+        <v>92814</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="66"/>
+        <v>1154202</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="67"/>
+        <v>8.0414000322300602E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
